--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -24,11 +24,11 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$Q$1:$Q$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$U$1:$U$14</definedName>
     <definedName name="hostsex">'cv_sample'!$V$1:$V$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$75</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
-    <definedName name="platform">'cv_experiment'!$M$1:$M$13</definedName>
+    <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
     <definedName name="travelrelation">'cv_sample'!$H$1:$H$3</definedName>
   </definedNames>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="637">
   <si>
     <t>alias</t>
   </si>
@@ -456,6 +456,18 @@
     <t>ULTIMA</t>
   </si>
   <si>
+    <t>VELA_DIAGNOSTICS</t>
+  </si>
+  <si>
+    <t>GENAPSYS</t>
+  </si>
+  <si>
+    <t>GENEMIND</t>
+  </si>
+  <si>
+    <t>TAPESTRI</t>
+  </si>
+  <si>
     <t>platform</t>
   </si>
   <si>
@@ -555,6 +567,24 @@
     <t>Element AVITI</t>
   </si>
   <si>
+    <t>FASTASeq 300</t>
+  </si>
+  <si>
+    <t>GENIUS</t>
+  </si>
+  <si>
+    <t>GS111</t>
+  </si>
+  <si>
+    <t>Genapsys Sequencer</t>
+  </si>
+  <si>
+    <t>GenoCare 1600</t>
+  </si>
+  <si>
+    <t>GenoLab M</t>
+  </si>
+  <si>
     <t>GridION</t>
   </si>
   <si>
@@ -672,6 +702,9 @@
     <t>Revio</t>
   </si>
   <si>
+    <t>Sentosa SQ301</t>
+  </si>
+  <si>
     <t>Sequel</t>
   </si>
   <si>
@@ -679,6 +712,9 @@
   </si>
   <si>
     <t>Sequel IIe</t>
+  </si>
+  <si>
+    <t>Tapestri</t>
   </si>
   <si>
     <t>UG 100</t>
@@ -2450,10 +2486,10 @@
         <v>124</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2494,10 +2530,10 @@
         <v>125</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -2524,7 +2560,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N75"/>
+  <dimension ref="G1:N83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2544,7 +2580,7 @@
         <v>126</v>
       </c>
       <c r="N1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2" spans="7:14">
@@ -2561,7 +2597,7 @@
         <v>127</v>
       </c>
       <c r="N2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="7:14">
@@ -2578,7 +2614,7 @@
         <v>128</v>
       </c>
       <c r="N3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="7:14">
@@ -2595,7 +2631,7 @@
         <v>129</v>
       </c>
       <c r="N4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="7:14">
@@ -2612,7 +2648,7 @@
         <v>130</v>
       </c>
       <c r="N5" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="7:14">
@@ -2629,7 +2665,7 @@
         <v>131</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="7:14">
@@ -2646,7 +2682,7 @@
         <v>132</v>
       </c>
       <c r="N7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="7:14">
@@ -2663,7 +2699,7 @@
         <v>133</v>
       </c>
       <c r="N8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="7:14">
@@ -2680,7 +2716,7 @@
         <v>134</v>
       </c>
       <c r="N9" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="7:14">
@@ -2694,7 +2730,7 @@
         <v>135</v>
       </c>
       <c r="N10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="7:14">
@@ -2708,7 +2744,7 @@
         <v>136</v>
       </c>
       <c r="N11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="7:14">
@@ -2722,7 +2758,7 @@
         <v>137</v>
       </c>
       <c r="N12" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="7:14">
@@ -2736,7 +2772,7 @@
         <v>138</v>
       </c>
       <c r="N13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="7:14">
@@ -2746,8 +2782,11 @@
       <c r="I14" t="s">
         <v>101</v>
       </c>
+      <c r="M14" t="s">
+        <v>139</v>
+      </c>
       <c r="N14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="7:14">
@@ -2757,8 +2796,11 @@
       <c r="I15" t="s">
         <v>102</v>
       </c>
+      <c r="M15" t="s">
+        <v>140</v>
+      </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="7:14">
@@ -2768,8 +2810,11 @@
       <c r="I16" t="s">
         <v>103</v>
       </c>
+      <c r="M16" t="s">
+        <v>141</v>
+      </c>
       <c r="N16" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="7:14">
@@ -2779,8 +2824,11 @@
       <c r="I17" t="s">
         <v>104</v>
       </c>
+      <c r="M17" t="s">
+        <v>142</v>
+      </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="7:14">
@@ -2791,7 +2839,7 @@
         <v>54</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="7:14">
@@ -2802,7 +2850,7 @@
         <v>105</v>
       </c>
       <c r="N19" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="7:14">
@@ -2813,7 +2861,7 @@
         <v>106</v>
       </c>
       <c r="N20" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="7:14">
@@ -2824,7 +2872,7 @@
         <v>107</v>
       </c>
       <c r="N21" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="22" spans="7:14">
@@ -2835,7 +2883,7 @@
         <v>108</v>
       </c>
       <c r="N22" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="7:14">
@@ -2846,7 +2894,7 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="7:14">
@@ -2857,7 +2905,7 @@
         <v>110</v>
       </c>
       <c r="N24" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="7:14">
@@ -2868,7 +2916,7 @@
         <v>111</v>
       </c>
       <c r="N25" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="7:14">
@@ -2879,7 +2927,7 @@
         <v>112</v>
       </c>
       <c r="N26" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="7:14">
@@ -2890,7 +2938,7 @@
         <v>113</v>
       </c>
       <c r="N27" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="7:14">
@@ -2901,7 +2949,7 @@
         <v>114</v>
       </c>
       <c r="N28" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="7:14">
@@ -2912,7 +2960,7 @@
         <v>115</v>
       </c>
       <c r="N29" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="7:14">
@@ -2923,7 +2971,7 @@
         <v>116</v>
       </c>
       <c r="N30" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="7:14">
@@ -2934,7 +2982,7 @@
         <v>117</v>
       </c>
       <c r="N31" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="7:14">
@@ -2942,7 +2990,7 @@
         <v>66</v>
       </c>
       <c r="N32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="7:14">
@@ -2950,7 +2998,7 @@
         <v>67</v>
       </c>
       <c r="N33" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="34" spans="7:14">
@@ -2958,7 +3006,7 @@
         <v>68</v>
       </c>
       <c r="N34" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="35" spans="7:14">
@@ -2966,7 +3014,7 @@
         <v>69</v>
       </c>
       <c r="N35" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="7:14">
@@ -2974,7 +3022,7 @@
         <v>70</v>
       </c>
       <c r="N36" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="7:14">
@@ -2982,7 +3030,7 @@
         <v>71</v>
       </c>
       <c r="N37" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" spans="7:14">
@@ -2990,7 +3038,7 @@
         <v>72</v>
       </c>
       <c r="N38" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="7:14">
@@ -2998,7 +3046,7 @@
         <v>73</v>
       </c>
       <c r="N39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="7:14">
@@ -3006,7 +3054,7 @@
         <v>74</v>
       </c>
       <c r="N40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" spans="7:14">
@@ -3014,176 +3062,216 @@
         <v>75</v>
       </c>
       <c r="N41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="42" spans="7:14">
       <c r="N42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="7:14">
       <c r="N43" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="44" spans="7:14">
       <c r="N44" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="45" spans="7:14">
       <c r="N45" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="46" spans="7:14">
       <c r="N46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="47" spans="7:14">
       <c r="N47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="48" spans="7:14">
       <c r="N48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="14:14">
       <c r="N49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="14:14">
       <c r="N50" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="14:14">
       <c r="N51" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="14:14">
       <c r="N52" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="53" spans="14:14">
       <c r="N53" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="14:14">
       <c r="N54" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="55" spans="14:14">
       <c r="N55" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="14:14">
       <c r="N56" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="57" spans="14:14">
       <c r="N57" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="14:14">
       <c r="N58" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="14:14">
       <c r="N59" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="60" spans="14:14">
       <c r="N60" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="14:14">
       <c r="N61" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="14:14">
       <c r="N62" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="14:14">
       <c r="N63" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="14:14">
       <c r="N64" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="14:14">
       <c r="N65" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="66" spans="14:14">
       <c r="N66" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="67" spans="14:14">
       <c r="N67" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="68" spans="14:14">
       <c r="N68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="14:14">
       <c r="N69" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="70" spans="14:14">
       <c r="N70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="14:14">
       <c r="N71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="72" spans="14:14">
       <c r="N72" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" spans="14:14">
       <c r="N73" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="74" spans="14:14">
       <c r="N74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="75" spans="14:14">
       <c r="N75" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="76" spans="14:14">
+      <c r="N76" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="77" spans="14:14">
+      <c r="N77" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="14:14">
+      <c r="N78" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="79" spans="14:14">
+      <c r="N79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="14:14">
+      <c r="N80" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81" spans="14:14">
+      <c r="N81" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="82" spans="14:14">
+      <c r="N82" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="14:14">
+      <c r="N83" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3208,27 +3296,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3251,122 +3339,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3393,192 +3481,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>541</v>
+        <v>553</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>543</v>
+        <v>555</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>576</v>
+        <v>588</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>582</v>
+        <v>594</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>587</v>
+        <v>599</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>589</v>
+        <v>601</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>591</v>
+        <v>603</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>593</v>
+        <v>605</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>597</v>
+        <v>609</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>603</v>
+        <v>615</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>605</v>
+        <v>617</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>607</v>
+        <v>619</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>613</v>
+        <v>625</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>619</v>
+        <v>631</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>621</v>
+        <v>633</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>623</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>542</v>
+        <v>554</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>544</v>
+        <v>556</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>575</v>
+        <v>587</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>583</v>
+        <v>595</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>588</v>
+        <v>600</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>590</v>
+        <v>602</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>592</v>
+        <v>604</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>598</v>
+        <v>610</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>606</v>
+        <v>618</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>608</v>
+        <v>620</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>610</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>620</v>
+        <v>632</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>624</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -3619,241 +3707,241 @@
   <sheetData>
     <row r="1" spans="8:22">
       <c r="H1" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="I1" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="Q1" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="U1" t="s">
-        <v>595</v>
+        <v>607</v>
       </c>
       <c r="V1" t="s">
-        <v>599</v>
+        <v>611</v>
       </c>
     </row>
     <row r="2" spans="8:22">
       <c r="H2" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="I2" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="L2" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="Q2" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="U2" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
       <c r="V2" t="s">
-        <v>600</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3" spans="8:22">
       <c r="H3" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="J3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="L3" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="Q3" t="s">
-        <v>586</v>
+        <v>598</v>
       </c>
       <c r="U3" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
       <c r="V3" t="s">
-        <v>601</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="8:22">
       <c r="J4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="L4" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="U4" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="V4" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="8:22">
       <c r="J5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="L5" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="U5" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="V5" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="8:22">
       <c r="J6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="L6" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="U6" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="V6" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="7" spans="8:22">
       <c r="J7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="U7" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="V7" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="8" spans="8:22">
       <c r="J8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="L8" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="U8" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="V8" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="8:22">
       <c r="J9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="L9" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="U9" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="V9" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="10" spans="8:22">
       <c r="J10" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="L10" t="s">
-        <v>545</v>
+        <v>557</v>
       </c>
       <c r="U10" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="V10" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11" spans="8:22">
       <c r="J11" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="L11" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="U11" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="V11" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="8:22">
       <c r="J12" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="L12" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="U12" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="V12" t="s">
-        <v>602</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13" spans="8:22">
       <c r="J13" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="L13" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="U13" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="V13" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="8:22">
       <c r="J14" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="L14" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="U14" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="V14" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="15" spans="8:22">
       <c r="J15" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="L15" t="s">
-        <v>546</v>
+        <v>558</v>
       </c>
       <c r="V15" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="8:22">
       <c r="J16" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="L16" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="V16" t="s">
         <v>116</v>
@@ -3861,2131 +3949,2131 @@
     </row>
     <row r="17" spans="10:22">
       <c r="J17" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="L17" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="V17" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
     <row r="18" spans="10:22">
       <c r="J18" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="L18" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="19" spans="10:22">
       <c r="J19" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="L19" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="20" spans="10:22">
       <c r="J20" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="L20" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="10:22">
       <c r="J21" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="L21" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="10:22">
       <c r="J22" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L22" t="s">
-        <v>547</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="10:22">
       <c r="J23" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="L23" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="24" spans="10:22">
       <c r="J24" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="L24" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="10:22">
       <c r="J25" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="L25" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="10:22">
       <c r="J26" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="L26" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="27" spans="10:22">
       <c r="J27" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="L27" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="28" spans="10:22">
       <c r="J28" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L28" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="10:22">
       <c r="J29" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="L29" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="10:22">
       <c r="J30" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="10:22">
       <c r="J31" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="L31" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="10:22">
       <c r="J32" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="33" spans="10:12">
       <c r="J33" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="L33" t="s">
-        <v>548</v>
+        <v>560</v>
       </c>
     </row>
     <row r="34" spans="10:12">
       <c r="J34" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="L34" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="10:12">
       <c r="J35" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="L35" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="10:12">
       <c r="J36" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="37" spans="10:12">
       <c r="J37" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="L37" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
     <row r="38" spans="10:12">
       <c r="J38" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="L38" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="10:12">
       <c r="J39" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="L39" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40" spans="10:12">
       <c r="J40" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="10:12">
       <c r="J41" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
     </row>
     <row r="42" spans="10:12">
       <c r="J42" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="L42" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="43" spans="10:12">
       <c r="J43" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="L43" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="44" spans="10:12">
       <c r="J44" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="L44" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="10:12">
       <c r="J45" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="46" spans="10:12">
       <c r="J46" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="L46" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="10:12">
       <c r="J47" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="48" spans="10:12">
       <c r="J48" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="L48" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="10:12">
       <c r="J49" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50" spans="10:12">
       <c r="J50" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="L50" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
     </row>
     <row r="51" spans="10:12">
       <c r="J51" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="L51" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="52" spans="10:12">
       <c r="J52" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="L52" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
     </row>
     <row r="53" spans="10:12">
       <c r="J53" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="L53" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="54" spans="10:12">
       <c r="J54" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="L54" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
     <row r="55" spans="10:12">
       <c r="J55" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="L55" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56" spans="10:12">
       <c r="J56" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="L56" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="57" spans="10:12">
       <c r="J57" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="L57" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" spans="10:12">
       <c r="J58" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="L58" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
     <row r="59" spans="10:12">
       <c r="J59" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="L59" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="60" spans="10:12">
       <c r="J60" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="L60" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="61" spans="10:12">
       <c r="J61" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="L61" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="62" spans="10:12">
       <c r="J62" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="L62" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
     </row>
     <row r="63" spans="10:12">
       <c r="J63" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="L63" t="s">
-        <v>549</v>
+        <v>561</v>
       </c>
     </row>
     <row r="64" spans="10:12">
       <c r="J64" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="L64" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="65" spans="10:12">
       <c r="J65" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="L65" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="10:12">
       <c r="J66" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="10:12">
       <c r="J67" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="L67" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="68" spans="10:12">
       <c r="J68" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="L68" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
     <row r="69" spans="10:12">
       <c r="J69" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="L69" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="10:12">
       <c r="J70" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="L70" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71" spans="10:12">
       <c r="J71" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="L71" t="s">
-        <v>550</v>
+        <v>562</v>
       </c>
     </row>
     <row r="72" spans="10:12">
       <c r="J72" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="L72" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="10:12">
       <c r="J73" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="L73" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74" spans="10:12">
       <c r="J74" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="L74" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
     </row>
     <row r="75" spans="10:12">
       <c r="J75" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="L75" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76" spans="10:12">
       <c r="J76" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="L76" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77" spans="10:12">
       <c r="J77" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="L77" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="10:12">
       <c r="J78" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="L78" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
     </row>
     <row r="79" spans="10:12">
       <c r="J79" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="L79" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
     </row>
     <row r="80" spans="10:12">
       <c r="J80" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="L80" t="s">
-        <v>551</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="10:12">
       <c r="J81" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="L81" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
     </row>
     <row r="82" spans="10:12">
       <c r="J82" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="L82" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="83" spans="10:12">
       <c r="J83" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="L83" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" spans="10:12">
       <c r="J84" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="L84" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
     </row>
     <row r="85" spans="10:12">
       <c r="J85" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="L85" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="86" spans="10:12">
       <c r="J86" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="L86" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
     </row>
     <row r="87" spans="10:12">
       <c r="J87" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="88" spans="10:12">
       <c r="J88" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="L88" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="89" spans="10:12">
       <c r="J89" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="L89" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
     </row>
     <row r="90" spans="10:12">
       <c r="J90" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="L90" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="91" spans="10:12">
       <c r="J91" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="L91" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="10:12">
       <c r="J92" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="L92" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="93" spans="10:12">
       <c r="J93" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="L93" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
     </row>
     <row r="94" spans="10:12">
       <c r="J94" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="L94" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
     </row>
     <row r="95" spans="10:12">
       <c r="J95" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="L95" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="96" spans="10:12">
       <c r="J96" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="L96" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
     </row>
     <row r="97" spans="10:12">
       <c r="J97" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="L97" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="10:12">
       <c r="J98" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="L98" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
     </row>
     <row r="99" spans="10:12">
       <c r="J99" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="L99" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
     <row r="100" spans="10:12">
       <c r="J100" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="L100" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
     </row>
     <row r="101" spans="10:12">
       <c r="J101" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="L101" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
     </row>
     <row r="102" spans="10:12">
       <c r="J102" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L102" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="103" spans="10:12">
       <c r="J103" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="L103" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="10:12">
       <c r="J104" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="L104" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105" spans="10:12">
       <c r="J105" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="L105" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="106" spans="10:12">
       <c r="J106" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="L106" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="107" spans="10:12">
       <c r="J107" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="L107" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
     </row>
     <row r="108" spans="10:12">
       <c r="J108" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="L108" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="10:12">
       <c r="J109" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L109" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
     </row>
     <row r="110" spans="10:12">
       <c r="J110" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="L110" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="111" spans="10:12">
       <c r="J111" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="L111" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
     </row>
     <row r="112" spans="10:12">
       <c r="J112" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="L112" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="10:12">
       <c r="J113" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="L113" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
     </row>
     <row r="114" spans="10:12">
       <c r="J114" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L114" t="s">
-        <v>552</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="10:12">
       <c r="J115" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="L115" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="116" spans="10:12">
       <c r="J116" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="L116" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="117" spans="10:12">
       <c r="J117" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="L117" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="118" spans="10:12">
       <c r="J118" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L118" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
     </row>
     <row r="119" spans="10:12">
       <c r="J119" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="L119" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="10:12">
       <c r="J120" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="L120" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="121" spans="10:12">
       <c r="J121" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L121" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="10:12">
       <c r="J122" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="L122" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" spans="10:12">
       <c r="J123" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="L123" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
     </row>
     <row r="124" spans="10:12">
       <c r="J124" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="L124" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
     </row>
     <row r="125" spans="10:12">
       <c r="J125" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="L125" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="126" spans="10:12">
       <c r="J126" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="L126" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="127" spans="10:12">
       <c r="J127" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="L127" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="128" spans="10:12">
       <c r="J128" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="L128" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
     </row>
     <row r="129" spans="10:12">
       <c r="J129" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="L129" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
     </row>
     <row r="130" spans="10:12">
       <c r="J130" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="L130" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
     </row>
     <row r="131" spans="10:12">
       <c r="J131" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="L131" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
     </row>
     <row r="132" spans="10:12">
       <c r="J132" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="L132" t="s">
-        <v>553</v>
+        <v>565</v>
       </c>
     </row>
     <row r="133" spans="10:12">
       <c r="J133" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="L133" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="10:12">
       <c r="J134" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="L134" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="10:12">
       <c r="J135" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="L135" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
     </row>
     <row r="136" spans="10:12">
       <c r="J136" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="L136" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="10:12">
       <c r="J137" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="L137" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
     </row>
     <row r="138" spans="10:12">
       <c r="J138" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="L138" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
     </row>
     <row r="139" spans="10:12">
       <c r="J139" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="L139" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
     </row>
     <row r="140" spans="10:12">
       <c r="J140" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="L140" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
     </row>
     <row r="141" spans="10:12">
       <c r="J141" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="L141" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
     </row>
     <row r="142" spans="10:12">
       <c r="J142" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="L142" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="143" spans="10:12">
       <c r="J143" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="L143" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
     </row>
     <row r="144" spans="10:12">
       <c r="J144" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="L144" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
     </row>
     <row r="145" spans="10:12">
       <c r="J145" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="L145" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="146" spans="10:12">
       <c r="J146" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="L146" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
     </row>
     <row r="147" spans="10:12">
       <c r="J147" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="L147" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
     </row>
     <row r="148" spans="10:12">
       <c r="J148" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="L148" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
     </row>
     <row r="149" spans="10:12">
       <c r="J149" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="L149" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
     </row>
     <row r="150" spans="10:12">
       <c r="J150" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="L150" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
     </row>
     <row r="151" spans="10:12">
       <c r="J151" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="L151" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
     </row>
     <row r="152" spans="10:12">
       <c r="J152" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="L152" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
     </row>
     <row r="153" spans="10:12">
       <c r="J153" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="L153" t="s">
-        <v>418</v>
+        <v>430</v>
       </c>
     </row>
     <row r="154" spans="10:12">
       <c r="J154" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="L154" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
     </row>
     <row r="155" spans="10:12">
       <c r="J155" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="L155" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="156" spans="10:12">
       <c r="J156" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="L156" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
     </row>
     <row r="157" spans="10:12">
       <c r="J157" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="L157" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
     </row>
     <row r="158" spans="10:12">
       <c r="J158" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="L158" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
     </row>
     <row r="159" spans="10:12">
       <c r="J159" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="L159" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
     </row>
     <row r="160" spans="10:12">
       <c r="J160" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
       <c r="L160" t="s">
-        <v>554</v>
+        <v>566</v>
       </c>
     </row>
     <row r="161" spans="10:12">
       <c r="J161" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="L161" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
     </row>
     <row r="162" spans="10:12">
       <c r="J162" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="L162" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
     </row>
     <row r="163" spans="10:12">
       <c r="J163" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="L163" t="s">
-        <v>427</v>
+        <v>439</v>
       </c>
     </row>
     <row r="164" spans="10:12">
       <c r="J164" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="L164" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
     </row>
     <row r="165" spans="10:12">
       <c r="J165" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="L165" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
     </row>
     <row r="166" spans="10:12">
       <c r="J166" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="L166" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
     </row>
     <row r="167" spans="10:12">
       <c r="J167" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="L167" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="10:12">
       <c r="J168" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="L168" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="169" spans="10:12">
       <c r="J169" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="L169" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
     </row>
     <row r="170" spans="10:12">
       <c r="J170" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="L170" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
     </row>
     <row r="171" spans="10:12">
       <c r="J171" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="L171" t="s">
-        <v>555</v>
+        <v>567</v>
       </c>
     </row>
     <row r="172" spans="10:12">
       <c r="J172" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="L172" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
     </row>
     <row r="173" spans="10:12">
       <c r="J173" t="s">
-        <v>440</v>
+        <v>452</v>
       </c>
       <c r="L173" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
     </row>
     <row r="174" spans="10:12">
       <c r="J174" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L174" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="175" spans="10:12">
       <c r="J175" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
       <c r="L175" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
     </row>
     <row r="176" spans="10:12">
       <c r="J176" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="L176" t="s">
-        <v>439</v>
+        <v>451</v>
       </c>
     </row>
     <row r="177" spans="10:12">
       <c r="J177" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="L177" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
     </row>
     <row r="178" spans="10:12">
       <c r="J178" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="L178" t="s">
-        <v>442</v>
+        <v>454</v>
       </c>
     </row>
     <row r="179" spans="10:12">
       <c r="J179" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="L179" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
     </row>
     <row r="180" spans="10:12">
       <c r="J180" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="L180" t="s">
-        <v>444</v>
+        <v>456</v>
       </c>
     </row>
     <row r="181" spans="10:12">
       <c r="J181" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="L181" t="s">
-        <v>445</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" spans="10:12">
       <c r="J182" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="L182" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
     </row>
     <row r="183" spans="10:12">
       <c r="J183" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
       <c r="L183" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
     </row>
     <row r="184" spans="10:12">
       <c r="J184" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L184" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
     </row>
     <row r="185" spans="10:12">
       <c r="J185" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="L185" t="s">
-        <v>556</v>
+        <v>568</v>
       </c>
     </row>
     <row r="186" spans="10:12">
       <c r="J186" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="L186" t="s">
-        <v>449</v>
+        <v>461</v>
       </c>
     </row>
     <row r="187" spans="10:12">
       <c r="J187" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="L187" t="s">
-        <v>450</v>
+        <v>462</v>
       </c>
     </row>
     <row r="188" spans="10:12">
       <c r="J188" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="L188" t="s">
-        <v>451</v>
+        <v>463</v>
       </c>
     </row>
     <row r="189" spans="10:12">
       <c r="J189" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="L189" t="s">
-        <v>557</v>
+        <v>569</v>
       </c>
     </row>
     <row r="190" spans="10:12">
       <c r="J190" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="L190" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
     </row>
     <row r="191" spans="10:12">
       <c r="J191" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="L191" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
     </row>
     <row r="192" spans="10:12">
       <c r="J192" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="L192" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="193" spans="10:12">
       <c r="J193" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="L193" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
     </row>
     <row r="194" spans="10:12">
       <c r="J194" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="L194" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
     </row>
     <row r="195" spans="10:12">
       <c r="J195" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="L195" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
     </row>
     <row r="196" spans="10:12">
       <c r="J196" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="L196" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
     </row>
     <row r="197" spans="10:12">
       <c r="J197" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="L197" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
     </row>
     <row r="198" spans="10:12">
       <c r="J198" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="L198" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
     </row>
     <row r="199" spans="10:12">
       <c r="J199" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="L199" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
     </row>
     <row r="200" spans="10:12">
       <c r="J200" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="L200" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
     </row>
     <row r="201" spans="10:12">
       <c r="J201" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="L201" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
     </row>
     <row r="202" spans="10:12">
       <c r="J202" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L202" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
     </row>
     <row r="203" spans="10:12">
       <c r="J203" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="L203" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="204" spans="10:12">
       <c r="J204" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="L204" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
     </row>
     <row r="205" spans="10:12">
       <c r="J205" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="L205" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
     </row>
     <row r="206" spans="10:12">
       <c r="J206" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="L206" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
     </row>
     <row r="207" spans="10:12">
       <c r="J207" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="L207" t="s">
-        <v>558</v>
+        <v>570</v>
       </c>
     </row>
     <row r="208" spans="10:12">
       <c r="J208" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="L208" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
     </row>
     <row r="209" spans="10:12">
       <c r="J209" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="L209" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
     </row>
     <row r="210" spans="10:12">
       <c r="J210" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="L210" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="211" spans="10:12">
       <c r="J211" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="L211" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
     </row>
     <row r="212" spans="10:12">
       <c r="J212" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="L212" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
     </row>
     <row r="213" spans="10:12">
       <c r="J213" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="L213" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
     </row>
     <row r="214" spans="10:12">
       <c r="J214" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="L214" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
     </row>
     <row r="215" spans="10:12">
       <c r="J215" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="L215" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
     </row>
     <row r="216" spans="10:12">
       <c r="J216" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="L216" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="217" spans="10:12">
       <c r="J217" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="L217" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
     </row>
     <row r="218" spans="10:12">
       <c r="J218" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="L218" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
     </row>
     <row r="219" spans="10:12">
       <c r="J219" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="L219" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
     </row>
     <row r="220" spans="10:12">
       <c r="J220" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="L220" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
     </row>
     <row r="221" spans="10:12">
       <c r="J221" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="L221" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
     </row>
     <row r="222" spans="10:12">
       <c r="J222" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="L222" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
     </row>
     <row r="223" spans="10:12">
       <c r="J223" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L223" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
     </row>
     <row r="224" spans="10:12">
       <c r="J224" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="L224" t="s">
-        <v>559</v>
+        <v>571</v>
       </c>
     </row>
     <row r="225" spans="10:12">
       <c r="J225" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="L225" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
     </row>
     <row r="226" spans="10:12">
       <c r="J226" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="L226" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
     </row>
     <row r="227" spans="10:12">
       <c r="J227" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="L227" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="10:12">
       <c r="J228" t="s">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="L228" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
     </row>
     <row r="229" spans="10:12">
       <c r="J229" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
       <c r="L229" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
     </row>
     <row r="230" spans="10:12">
       <c r="J230" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
       <c r="L230" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
     </row>
     <row r="231" spans="10:12">
       <c r="J231" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
       <c r="L231" t="s">
-        <v>494</v>
+        <v>506</v>
       </c>
     </row>
     <row r="232" spans="10:12">
       <c r="J232" t="s">
-        <v>499</v>
+        <v>511</v>
       </c>
       <c r="L232" t="s">
-        <v>560</v>
+        <v>572</v>
       </c>
     </row>
     <row r="233" spans="10:12">
       <c r="J233" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
       <c r="L233" t="s">
-        <v>496</v>
+        <v>508</v>
       </c>
     </row>
     <row r="234" spans="10:12">
       <c r="J234" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
       <c r="L234" t="s">
-        <v>497</v>
+        <v>509</v>
       </c>
     </row>
     <row r="235" spans="10:12">
       <c r="J235" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
       <c r="L235" t="s">
-        <v>498</v>
+        <v>510</v>
       </c>
     </row>
     <row r="236" spans="10:12">
       <c r="J236" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="L236" t="s">
-        <v>500</v>
+        <v>512</v>
       </c>
     </row>
     <row r="237" spans="10:12">
       <c r="J237" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="L237" t="s">
-        <v>501</v>
+        <v>513</v>
       </c>
     </row>
     <row r="238" spans="10:12">
       <c r="J238" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="L238" t="s">
-        <v>502</v>
+        <v>514</v>
       </c>
     </row>
     <row r="239" spans="10:12">
       <c r="J239" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="L239" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="240" spans="10:12">
       <c r="J240" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="L240" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
     </row>
     <row r="241" spans="10:12">
       <c r="J241" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="L241" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
     </row>
     <row r="242" spans="10:12">
       <c r="J242" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="L242" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="243" spans="10:12">
       <c r="J243" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="L243" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
     </row>
     <row r="244" spans="10:12">
       <c r="J244" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="L244" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="245" spans="10:12">
       <c r="J245" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="L245" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
     </row>
     <row r="246" spans="10:12">
       <c r="J246" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="L246" t="s">
-        <v>561</v>
+        <v>573</v>
       </c>
     </row>
     <row r="247" spans="10:12">
       <c r="J247" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
       <c r="L247" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="248" spans="10:12">
       <c r="J248" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="L248" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="249" spans="10:12">
       <c r="J249" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="L249" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
     </row>
     <row r="250" spans="10:12">
       <c r="J250" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="L250" t="s">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="251" spans="10:12">
       <c r="J251" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
       <c r="L251" t="s">
-        <v>515</v>
+        <v>527</v>
       </c>
     </row>
     <row r="252" spans="10:12">
       <c r="J252" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="L252" t="s">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="253" spans="10:12">
       <c r="J253" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
       <c r="L253" t="s">
-        <v>517</v>
+        <v>529</v>
       </c>
     </row>
     <row r="254" spans="10:12">
       <c r="J254" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="L254" t="s">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="255" spans="10:12">
       <c r="J255" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="L255" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
     </row>
     <row r="256" spans="10:12">
       <c r="J256" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="L256" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="257" spans="10:12">
       <c r="J257" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="L257" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
     </row>
     <row r="258" spans="10:12">
       <c r="J258" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="L258" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="259" spans="10:12">
       <c r="J259" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="L259" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="10:12">
       <c r="J260" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="L260" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="10:12">
       <c r="J261" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
       <c r="L261" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="10:12">
       <c r="J262" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="L262" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="10:12">
       <c r="J263" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="L263" t="s">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="10:12">
       <c r="J264" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
       <c r="L264" t="s">
-        <v>529</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="10:12">
       <c r="J265" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
       <c r="L265" t="s">
-        <v>530</v>
+        <v>542</v>
       </c>
     </row>
     <row r="266" spans="10:12">
       <c r="J266" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
       <c r="L266" t="s">
-        <v>531</v>
+        <v>543</v>
       </c>
     </row>
     <row r="267" spans="10:12">
       <c r="J267" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="L267" t="s">
-        <v>532</v>
+        <v>544</v>
       </c>
     </row>
     <row r="268" spans="10:12">
       <c r="J268" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
       <c r="L268" t="s">
-        <v>533</v>
+        <v>545</v>
       </c>
     </row>
     <row r="269" spans="10:12">
       <c r="J269" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
       <c r="L269" t="s">
-        <v>534</v>
+        <v>546</v>
       </c>
     </row>
     <row r="270" spans="10:12">
       <c r="J270" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
       <c r="L270" t="s">
-        <v>535</v>
+        <v>547</v>
       </c>
     </row>
     <row r="271" spans="10:12">
       <c r="J271" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="L271" t="s">
-        <v>536</v>
+        <v>548</v>
       </c>
     </row>
     <row r="272" spans="10:12">
       <c r="J272" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
       <c r="L272" t="s">
-        <v>537</v>
+        <v>549</v>
       </c>
     </row>
     <row r="273" spans="10:12">
       <c r="J273" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
       <c r="L273" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
     </row>
     <row r="274" spans="10:12">
       <c r="L274" t="s">
-        <v>539</v>
+        <v>551</v>
       </c>
     </row>
     <row r="275" spans="10:12">
       <c r="L275" t="s">
-        <v>540</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="10:12">
       <c r="L276" t="s">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="277" spans="10:12">
       <c r="L277" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
     <row r="278" spans="10:12">
       <c r="L278" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
     </row>
     <row r="279" spans="10:12">
       <c r="L279" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
     </row>
     <row r="280" spans="10:12">
       <c r="L280" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
     </row>
     <row r="281" spans="10:12">
       <c r="L281" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
     </row>
     <row r="282" spans="10:12">
       <c r="L282" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
     </row>
     <row r="283" spans="10:12">
       <c r="L283" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="284" spans="10:12">
       <c r="L284" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
     <row r="285" spans="10:12">
       <c r="L285" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
     </row>
     <row r="286" spans="10:12">
       <c r="L286" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
     </row>
     <row r="287" spans="10:12">
       <c r="L287" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -1806,15 +1806,13 @@
     <t>geographic location (latitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (longitude)</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system Units: 
-                    </t>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
     <t>geographic location (region and locality)</t>
@@ -1859,8 +1857,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t xml:space="preserve">(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees Units: 
-                    </t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
   </si>
   <si>
     <t>diseased</t>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -105,7 +105,7 @@
     <t>new_study_type</t>
   </si>
   <si>
-    <t>(Optional) Optional if 'study_type' is not 'other'to propose a new term, select other and enter a new study type.</t>
+    <t>(Optional) Optional if 'study_type' is not 'other'. to propose a new term, select other and enter a new study type.</t>
   </si>
   <si>
     <t>study_abstract</t>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -4339,7 +4339,7 @@
         <v>346</v>
       </c>
       <c r="M65" t="s">
-        <v>342</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="11:13">
@@ -4347,7 +4347,7 @@
         <v>347</v>
       </c>
       <c r="M66" t="s">
-        <v>564</v>
+        <v>342</v>
       </c>
     </row>
     <row r="67" spans="11:13">

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="639">
   <si>
     <t>alias</t>
   </si>
@@ -817,6 +817,9 @@
   </si>
   <si>
     <t>(Mandatory) The run data file model.</t>
+  </si>
+  <si>
+    <t>(Mandatory) Unique identificator for each sample.</t>
   </si>
   <si>
     <t>(Mandatory) Short text that can be used to call out sample records in search results or in displays.</t>
@@ -3481,192 +3484,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
   </sheetData>
@@ -3707,241 +3710,241 @@
   <sheetData>
     <row r="1" spans="9:23">
       <c r="I1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="R1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="V1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="2" spans="9:23">
       <c r="I2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="V2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="9:23">
       <c r="I3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V3" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="W3" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="V4" t="s">
+        <v>579</v>
+      </c>
+      <c r="W4" t="s">
         <v>578</v>
-      </c>
-      <c r="W4" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V5" t="s">
+        <v>580</v>
+      </c>
+      <c r="W5" t="s">
         <v>579</v>
-      </c>
-      <c r="W5" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V6" t="s">
+        <v>581</v>
+      </c>
+      <c r="W6" t="s">
         <v>580</v>
-      </c>
-      <c r="W6" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V7" t="s">
+        <v>582</v>
+      </c>
+      <c r="W7" t="s">
         <v>581</v>
-      </c>
-      <c r="W7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M8" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V8" t="s">
+        <v>583</v>
+      </c>
+      <c r="W8" t="s">
         <v>582</v>
-      </c>
-      <c r="W8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V9" t="s">
+        <v>584</v>
+      </c>
+      <c r="W9" t="s">
         <v>583</v>
-      </c>
-      <c r="W9" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M10" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="V10" t="s">
+        <v>585</v>
+      </c>
+      <c r="W10" t="s">
         <v>584</v>
-      </c>
-      <c r="W10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
+        <v>293</v>
+      </c>
+      <c r="M11" t="s">
         <v>292</v>
       </c>
-      <c r="M11" t="s">
-        <v>291</v>
-      </c>
       <c r="V11" t="s">
+        <v>586</v>
+      </c>
+      <c r="W11" t="s">
         <v>585</v>
-      </c>
-      <c r="W11" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
+        <v>294</v>
+      </c>
+      <c r="M12" t="s">
         <v>293</v>
       </c>
-      <c r="M12" t="s">
-        <v>292</v>
-      </c>
       <c r="V12" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="W12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
+        <v>295</v>
+      </c>
+      <c r="M13" t="s">
         <v>294</v>
       </c>
-      <c r="M13" t="s">
-        <v>293</v>
-      </c>
       <c r="V13" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W13" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
+        <v>296</v>
+      </c>
+      <c r="M14" t="s">
         <v>295</v>
       </c>
-      <c r="M14" t="s">
-        <v>294</v>
-      </c>
       <c r="V14" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W14" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="M15" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="W15" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M16" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3949,2136 +3952,2136 @@
     </row>
     <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M17" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W17" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M18" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M19" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M20" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M21" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M22" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M24" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M25" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M26" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M27" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M28" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M30" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M31" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M32" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="33" spans="11:13">
       <c r="K33" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M33" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="34" spans="11:13">
       <c r="K34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M34" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="35" spans="11:13">
       <c r="K35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="36" spans="11:13">
       <c r="K36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37" spans="11:13">
       <c r="K37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="M37" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="11:13">
       <c r="K38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="39" spans="11:13">
       <c r="K39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M39" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="40" spans="11:13">
       <c r="K40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="41" spans="11:13">
       <c r="K41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M41" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" spans="11:13">
       <c r="K42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="43" spans="11:13">
       <c r="K43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M43" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="44" spans="11:13">
       <c r="K44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M44" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="45" spans="11:13">
       <c r="K45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M45" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="11:13">
       <c r="K46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M46" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="11:13">
       <c r="K47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M47" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="11:13">
       <c r="K48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M48" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="49" spans="11:13">
       <c r="K49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" spans="11:13">
       <c r="K50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M50" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51" spans="11:13">
       <c r="K51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M51" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="52" spans="11:13">
       <c r="K52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M52" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="11:13">
       <c r="K53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M53" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="54" spans="11:13">
       <c r="K54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="55" spans="11:13">
       <c r="K55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="56" spans="11:13">
       <c r="K56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M56" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="57" spans="11:13">
       <c r="K57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="58" spans="11:13">
       <c r="K58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M58" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59" spans="11:13">
       <c r="K59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M59" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="60" spans="11:13">
       <c r="K60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M60" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61" spans="11:13">
       <c r="K61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M61" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="62" spans="11:13">
       <c r="K62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M62" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" spans="11:13">
       <c r="K63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M63" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="11:13">
       <c r="K64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M64" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="65" spans="11:13">
       <c r="K65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M65" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="66" spans="11:13">
       <c r="K66" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M66" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="67" spans="11:13">
       <c r="K67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M67" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="68" spans="11:13">
       <c r="K68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M68" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="69" spans="11:13">
       <c r="K69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M69" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="70" spans="11:13">
       <c r="K70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="71" spans="11:13">
       <c r="K71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M71" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="72" spans="11:13">
       <c r="K72" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M72" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="73" spans="11:13">
       <c r="K73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M73" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="74" spans="11:13">
       <c r="K74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M74" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="75" spans="11:13">
       <c r="K75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M75" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="11:13">
       <c r="K76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M76" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="77" spans="11:13">
       <c r="K77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M77" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78" spans="11:13">
       <c r="K78" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M78" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79" spans="11:13">
       <c r="K79" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M79" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="80" spans="11:13">
       <c r="K80" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="81" spans="11:13">
       <c r="K81" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M81" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="82" spans="11:13">
       <c r="K82" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="83" spans="11:13">
       <c r="K83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M83" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="84" spans="11:13">
       <c r="K84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M84" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="85" spans="11:13">
       <c r="K85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M85" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="86" spans="11:13">
       <c r="K86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M86" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="87" spans="11:13">
       <c r="K87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M87" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="88" spans="11:13">
       <c r="K88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M88" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="89" spans="11:13">
       <c r="K89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M89" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="90" spans="11:13">
       <c r="K90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M90" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="91" spans="11:13">
       <c r="K91" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M91" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="92" spans="11:13">
       <c r="K92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M92" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="11:13">
       <c r="K93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M93" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="94" spans="11:13">
       <c r="K94" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M94" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="95" spans="11:13">
       <c r="K95" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M95" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="96" spans="11:13">
       <c r="K96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M96" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="97" spans="11:13">
       <c r="K97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M97" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="98" spans="11:13">
       <c r="K98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M98" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="99" spans="11:13">
       <c r="K99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M99" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="11:13">
       <c r="K100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M100" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="11:13">
       <c r="K101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M101" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="102" spans="11:13">
       <c r="K102" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M102" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="103" spans="11:13">
       <c r="K103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M103" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="104" spans="11:13">
       <c r="K104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="105" spans="11:13">
       <c r="K105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M105" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="106" spans="11:13">
       <c r="K106" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M106" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="107" spans="11:13">
       <c r="K107" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M107" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="108" spans="11:13">
       <c r="K108" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M108" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="109" spans="11:13">
       <c r="K109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M109" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="110" spans="11:13">
       <c r="K110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M110" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="111" spans="11:13">
       <c r="K111" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M111" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="112" spans="11:13">
       <c r="K112" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M112" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="113" spans="11:13">
       <c r="K113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M113" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="114" spans="11:13">
       <c r="K114" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M114" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="115" spans="11:13">
       <c r="K115" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="M115" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="116" spans="11:13">
       <c r="K116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M116" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="117" spans="11:13">
       <c r="K117" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="118" spans="11:13">
       <c r="K118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M118" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="119" spans="11:13">
       <c r="K119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M119" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="120" spans="11:13">
       <c r="K120" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="M120" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="121" spans="11:13">
       <c r="K121" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="122" spans="11:13">
       <c r="K122" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="123" spans="11:13">
       <c r="K123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M123" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" spans="11:13">
       <c r="K124" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M124" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="125" spans="11:13">
       <c r="K125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M125" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="126" spans="11:13">
       <c r="K126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M126" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="127" spans="11:13">
       <c r="K127" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M127" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="128" spans="11:13">
       <c r="K128" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M128" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="129" spans="11:13">
       <c r="K129" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M129" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="130" spans="11:13">
       <c r="K130" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M130" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="131" spans="11:13">
       <c r="K131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M131" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="11:13">
       <c r="K132" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M132" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="11:13">
       <c r="K133" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="M133" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="134" spans="11:13">
       <c r="K134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M134" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="135" spans="11:13">
       <c r="K135" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M135" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="136" spans="11:13">
       <c r="K136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M136" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="137" spans="11:13">
       <c r="K137" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="11:13">
       <c r="K138" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M138" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="139" spans="11:13">
       <c r="K139" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="M139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="140" spans="11:13">
       <c r="K140" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M140" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="141" spans="11:13">
       <c r="K141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M141" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="142" spans="11:13">
       <c r="K142" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M142" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="143" spans="11:13">
       <c r="K143" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="11:13">
       <c r="K144" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="145" spans="11:13">
       <c r="K145" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="M145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="146" spans="11:13">
       <c r="K146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M146" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="147" spans="11:13">
       <c r="K147" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M147" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="11:13">
       <c r="K148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M148" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="149" spans="11:13">
       <c r="K149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M149" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="150" spans="11:13">
       <c r="K150" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M150" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="151" spans="11:13">
       <c r="K151" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="M151" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="152" spans="11:13">
       <c r="K152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M152" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="153" spans="11:13">
       <c r="K153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M153" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="154" spans="11:13">
       <c r="K154" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M154" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="155" spans="11:13">
       <c r="K155" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M155" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="156" spans="11:13">
       <c r="K156" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="M156" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="157" spans="11:13">
       <c r="K157" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M157" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="158" spans="11:13">
       <c r="K158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M158" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="159" spans="11:13">
       <c r="K159" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="160" spans="11:13">
       <c r="K160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M160" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="161" spans="11:13">
       <c r="K161" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M161" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="162" spans="11:13">
       <c r="K162" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M162" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="163" spans="11:13">
       <c r="K163" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M163" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="164" spans="11:13">
       <c r="K164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M164" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="165" spans="11:13">
       <c r="K165" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M165" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="11:13">
       <c r="K166" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M166" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="167" spans="11:13">
       <c r="K167" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M167" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="168" spans="11:13">
       <c r="K168" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M168" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="169" spans="11:13">
       <c r="K169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M169" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="170" spans="11:13">
       <c r="K170" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M170" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="171" spans="11:13">
       <c r="K171" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M171" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="172" spans="11:13">
       <c r="K172" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M172" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="173" spans="11:13">
       <c r="K173" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M173" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="11:13">
       <c r="K174" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M174" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="175" spans="11:13">
       <c r="K175" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M175" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="11:13">
       <c r="K176" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M176" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="177" spans="11:13">
       <c r="K177" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M177" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="178" spans="11:13">
       <c r="K178" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="M178" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="179" spans="11:13">
       <c r="K179" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="M179" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="180" spans="11:13">
       <c r="K180" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M180" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="181" spans="11:13">
       <c r="K181" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M181" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="182" spans="11:13">
       <c r="K182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M182" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" spans="11:13">
       <c r="K183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M183" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="184" spans="11:13">
       <c r="K184" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M184" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="185" spans="11:13">
       <c r="K185" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M185" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="186" spans="11:13">
       <c r="K186" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M186" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="187" spans="11:13">
       <c r="K187" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M187" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="188" spans="11:13">
       <c r="K188" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M188" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="189" spans="11:13">
       <c r="K189" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="M189" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="190" spans="11:13">
       <c r="K190" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M190" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="191" spans="11:13">
       <c r="K191" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M191" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="192" spans="11:13">
       <c r="K192" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="M192" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="193" spans="11:13">
       <c r="K193" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M193" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="194" spans="11:13">
       <c r="K194" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M194" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="195" spans="11:13">
       <c r="K195" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="M195" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="196" spans="11:13">
       <c r="K196" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="M196" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="197" spans="11:13">
       <c r="K197" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M197" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="198" spans="11:13">
       <c r="K198" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M198" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="199" spans="11:13">
       <c r="K199" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M199" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="200" spans="11:13">
       <c r="K200" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M200" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="201" spans="11:13">
       <c r="K201" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M201" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="202" spans="11:13">
       <c r="K202" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M202" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="203" spans="11:13">
       <c r="K203" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M203" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="204" spans="11:13">
       <c r="K204" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="M204" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="205" spans="11:13">
       <c r="K205" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="M205" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="206" spans="11:13">
       <c r="K206" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M206" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="207" spans="11:13">
       <c r="K207" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M207" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="208" spans="11:13">
       <c r="K208" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M208" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="209" spans="11:13">
       <c r="K209" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="M209" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="210" spans="11:13">
       <c r="K210" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M210" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="211" spans="11:13">
       <c r="K211" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M211" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="212" spans="11:13">
       <c r="K212" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M212" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="213" spans="11:13">
       <c r="K213" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="M213" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="214" spans="11:13">
       <c r="K214" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M214" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="215" spans="11:13">
       <c r="K215" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M215" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="216" spans="11:13">
       <c r="K216" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M216" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="217" spans="11:13">
       <c r="K217" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M217" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="218" spans="11:13">
       <c r="K218" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M218" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="219" spans="11:13">
       <c r="K219" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M219" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="220" spans="11:13">
       <c r="K220" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M220" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="221" spans="11:13">
       <c r="K221" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="M221" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="222" spans="11:13">
       <c r="K222" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M222" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="11:13">
       <c r="K223" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M223" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="11:13">
       <c r="K224" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M224" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="11:13">
       <c r="K225" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M225" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="226" spans="11:13">
       <c r="K226" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M226" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="227" spans="11:13">
       <c r="K227" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M227" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="228" spans="11:13">
       <c r="K228" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="M228" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="229" spans="11:13">
       <c r="K229" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="M229" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="11:13">
       <c r="K230" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M230" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="231" spans="11:13">
       <c r="K231" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M231" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="232" spans="11:13">
       <c r="K232" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M232" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="233" spans="11:13">
       <c r="K233" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M233" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="234" spans="11:13">
       <c r="K234" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M234" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="235" spans="11:13">
       <c r="K235" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="M235" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="236" spans="11:13">
       <c r="K236" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M236" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="237" spans="11:13">
       <c r="K237" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M237" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="238" spans="11:13">
       <c r="K238" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="M238" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="239" spans="11:13">
       <c r="K239" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M239" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="240" spans="11:13">
       <c r="K240" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M240" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="241" spans="11:13">
       <c r="K241" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M241" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="242" spans="11:13">
       <c r="K242" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M242" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="243" spans="11:13">
       <c r="K243" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="M243" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="11:13">
       <c r="K244" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="M244" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="245" spans="11:13">
       <c r="K245" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M245" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="11:13">
       <c r="K246" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M246" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="11:13">
       <c r="K247" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M247" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="248" spans="11:13">
       <c r="K248" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M248" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="249" spans="11:13">
       <c r="K249" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="M249" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="11:13">
       <c r="K250" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M250" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="11:13">
       <c r="K251" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M251" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="252" spans="11:13">
       <c r="K252" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M252" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="253" spans="11:13">
       <c r="K253" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="M253" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="254" spans="11:13">
       <c r="K254" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M254" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="255" spans="11:13">
       <c r="K255" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M255" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="256" spans="11:13">
       <c r="K256" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="M256" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="257" spans="11:13">
       <c r="K257" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="M257" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="258" spans="11:13">
       <c r="K258" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="M258" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="259" spans="11:13">
       <c r="K259" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M259" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="260" spans="11:13">
       <c r="K260" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M260" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="261" spans="11:13">
       <c r="K261" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M261" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="262" spans="11:13">
       <c r="K262" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="M262" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="11:13">
       <c r="K263" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="M263" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="264" spans="11:13">
       <c r="K264" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M264" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="265" spans="11:13">
       <c r="K265" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M265" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="266" spans="11:13">
       <c r="K266" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="M266" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="267" spans="11:13">
       <c r="K267" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="M267" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="268" spans="11:13">
       <c r="K268" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="M268" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="269" spans="11:13">
       <c r="K269" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M269" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="270" spans="11:13">
       <c r="K270" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M270" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="271" spans="11:13">
       <c r="K271" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M271" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="272" spans="11:13">
       <c r="K272" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="M272" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="273" spans="11:13">
       <c r="K273" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="M273" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="274" spans="11:13">
       <c r="M274" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="11:13">
       <c r="M275" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="276" spans="11:13">
       <c r="M276" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="277" spans="11:13">
       <c r="M277" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="278" spans="11:13">
       <c r="M278" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="279" spans="11:13">
       <c r="M279" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="280" spans="11:13">
       <c r="M280" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="281" spans="11:13">
       <c r="M281" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="282" spans="11:13">
       <c r="M282" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="283" spans="11:13">
       <c r="M283" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="284" spans="11:13">
       <c r="M284" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="285" spans="11:13">
       <c r="M285" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="286" spans="11:13">
       <c r="M286" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="287" spans="11:13">
       <c r="M287" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="288" spans="11:13">
       <c r="M288" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -117,7 +117,7 @@
     <t>(Mandatory) Unique identificator for each experiment. this is used to link runs to experiments.</t>
   </si>
   <si>
-    <t>(Optional) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
+    <t>(Mandatory) Short text that can be used to call out experiment records in searches or in displays. this element is technically optional but should be used for all new records.</t>
   </si>
   <si>
     <t>study_alias</t>
@@ -135,7 +135,7 @@
     <t>design_description</t>
   </si>
   <si>
-    <t>(Optional) Goal and setup of the individual library including library was constructed.</t>
+    <t>(Mandatory) Goal and setup of the individual library including library was constructed.</t>
   </si>
   <si>
     <t>library_name</t>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$J$1:$J$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$M$1:$M$288</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="640">
   <si>
     <t>alias</t>
   </si>
@@ -1719,6 +1719,30 @@
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
+    <t>geographic location (latitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (longitude)</t>
+  </si>
+  <si>
+    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
+  </si>
+  <si>
+    <t>geographic location (region and locality)</t>
+  </si>
+  <si>
+    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
+  </si>
+  <si>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+  </si>
+  <si>
     <t>Arctic Ocean</t>
   </si>
   <si>
@@ -1773,6 +1797,9 @@
     <t>Tasman Sea</t>
   </si>
   <si>
+    <t>missing</t>
+  </si>
+  <si>
     <t>missing: control sample</t>
   </si>
   <si>
@@ -1813,30 +1840,6 @@
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
-  </si>
-  <si>
-    <t>geographic location (latitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (longitude)</t>
-  </si>
-  <si>
-    <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
-  </si>
-  <si>
-    <t>geographic location (region and locality)</t>
-  </si>
-  <si>
-    <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
-  </si>
-  <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>dead</t>
@@ -3514,64 +3517,64 @@
         <v>558</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>590</v>
+        <v>560</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>592</v>
+        <v>562</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>594</v>
+        <v>564</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>596</v>
+        <v>566</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
@@ -3612,64 +3615,64 @@
         <v>559</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>591</v>
+        <v>561</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>593</v>
+        <v>563</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>595</v>
+        <v>565</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
@@ -3683,7 +3686,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
@@ -3702,7 +3705,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:W288"/>
+  <dimension ref="I1:W289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3718,17 +3721,17 @@
       <c r="K1" t="s">
         <v>283</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>283</v>
       </c>
       <c r="R1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="V1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="W1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="2" spans="9:23">
@@ -3741,17 +3744,17 @@
       <c r="K2" t="s">
         <v>284</v>
       </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
         <v>284</v>
       </c>
       <c r="R2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="9:23">
@@ -3761,189 +3764,189 @@
       <c r="K3" t="s">
         <v>285</v>
       </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
         <v>285</v>
       </c>
       <c r="R3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="V3" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="W3" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
         <v>286</v>
       </c>
-      <c r="M4" t="s">
+      <c r="Q4" t="s">
         <v>286</v>
       </c>
       <c r="V4" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="W4" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
         <v>287</v>
       </c>
-      <c r="M5" t="s">
+      <c r="Q5" t="s">
         <v>287</v>
       </c>
       <c r="V5" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
       <c r="W5" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
         <v>288</v>
       </c>
-      <c r="M6" t="s">
+      <c r="Q6" t="s">
         <v>288</v>
       </c>
       <c r="V6" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="W6" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
         <v>289</v>
       </c>
-      <c r="M7" t="s">
+      <c r="Q7" t="s">
         <v>289</v>
       </c>
       <c r="V7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="W7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
         <v>290</v>
       </c>
-      <c r="M8" t="s">
+      <c r="Q8" t="s">
         <v>290</v>
       </c>
       <c r="V8" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="W8" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
         <v>291</v>
       </c>
-      <c r="M9" t="s">
+      <c r="Q9" t="s">
         <v>291</v>
       </c>
       <c r="V9" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="W9" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
         <v>292</v>
       </c>
-      <c r="M10" t="s">
-        <v>560</v>
+      <c r="Q10" t="s">
+        <v>568</v>
       </c>
       <c r="V10" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="W10" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
         <v>293</v>
       </c>
-      <c r="M11" t="s">
+      <c r="Q11" t="s">
         <v>292</v>
       </c>
       <c r="V11" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="W11" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
         <v>294</v>
       </c>
-      <c r="M12" t="s">
+      <c r="Q12" t="s">
         <v>293</v>
       </c>
       <c r="V12" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="W12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
         <v>295</v>
       </c>
-      <c r="M13" t="s">
+      <c r="Q13" t="s">
         <v>294</v>
       </c>
       <c r="V13" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="W13" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
         <v>296</v>
       </c>
-      <c r="M14" t="s">
+      <c r="Q14" t="s">
         <v>295</v>
       </c>
       <c r="V14" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="W14" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
         <v>297</v>
       </c>
-      <c r="M15" t="s">
-        <v>561</v>
+      <c r="Q15" t="s">
+        <v>569</v>
       </c>
       <c r="W15" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
         <v>298</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>296</v>
       </c>
       <c r="W16" t="s">
@@ -3954,18 +3957,18 @@
       <c r="K17" t="s">
         <v>299</v>
       </c>
-      <c r="M17" t="s">
+      <c r="Q17" t="s">
         <v>297</v>
       </c>
       <c r="W17" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
         <v>300</v>
       </c>
-      <c r="M18" t="s">
+      <c r="Q18" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3973,7 +3976,7 @@
       <c r="K19" t="s">
         <v>301</v>
       </c>
-      <c r="M19" t="s">
+      <c r="Q19" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3981,7 +3984,7 @@
       <c r="K20" t="s">
         <v>302</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Q20" t="s">
         <v>300</v>
       </c>
     </row>
@@ -3989,7 +3992,7 @@
       <c r="K21" t="s">
         <v>303</v>
       </c>
-      <c r="M21" t="s">
+      <c r="Q21" t="s">
         <v>301</v>
       </c>
     </row>
@@ -3997,15 +4000,15 @@
       <c r="K22" t="s">
         <v>304</v>
       </c>
-      <c r="M22" t="s">
-        <v>562</v>
+      <c r="Q22" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
         <v>305</v>
       </c>
-      <c r="M23" t="s">
+      <c r="Q23" t="s">
         <v>302</v>
       </c>
     </row>
@@ -4013,7 +4016,7 @@
       <c r="K24" t="s">
         <v>306</v>
       </c>
-      <c r="M24" t="s">
+      <c r="Q24" t="s">
         <v>303</v>
       </c>
     </row>
@@ -4021,7 +4024,7 @@
       <c r="K25" t="s">
         <v>307</v>
       </c>
-      <c r="M25" t="s">
+      <c r="Q25" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4029,7 +4032,7 @@
       <c r="K26" t="s">
         <v>308</v>
       </c>
-      <c r="M26" t="s">
+      <c r="Q26" t="s">
         <v>305</v>
       </c>
     </row>
@@ -4037,7 +4040,7 @@
       <c r="K27" t="s">
         <v>309</v>
       </c>
-      <c r="M27" t="s">
+      <c r="Q27" t="s">
         <v>306</v>
       </c>
     </row>
@@ -4045,7 +4048,7 @@
       <c r="K28" t="s">
         <v>310</v>
       </c>
-      <c r="M28" t="s">
+      <c r="Q28" t="s">
         <v>307</v>
       </c>
     </row>
@@ -4053,7 +4056,7 @@
       <c r="K29" t="s">
         <v>311</v>
       </c>
-      <c r="M29" t="s">
+      <c r="Q29" t="s">
         <v>308</v>
       </c>
     </row>
@@ -4061,7 +4064,7 @@
       <c r="K30" t="s">
         <v>312</v>
       </c>
-      <c r="M30" t="s">
+      <c r="Q30" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4069,7 +4072,7 @@
       <c r="K31" t="s">
         <v>313</v>
       </c>
-      <c r="M31" t="s">
+      <c r="Q31" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4077,2011 +4080,2016 @@
       <c r="K32" t="s">
         <v>314</v>
       </c>
-      <c r="M32" t="s">
+      <c r="Q32" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="33" spans="11:13">
+    <row r="33" spans="11:17">
       <c r="K33" t="s">
         <v>315</v>
       </c>
-      <c r="M33" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="34" spans="11:13">
+      <c r="Q33" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="34" spans="11:17">
       <c r="K34" t="s">
         <v>316</v>
       </c>
-      <c r="M34" t="s">
+      <c r="Q34" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="35" spans="11:13">
+    <row r="35" spans="11:17">
       <c r="K35" t="s">
         <v>317</v>
       </c>
-      <c r="M35" t="s">
+      <c r="Q35" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="11:13">
+    <row r="36" spans="11:17">
       <c r="K36" t="s">
         <v>318</v>
       </c>
-      <c r="M36" t="s">
+      <c r="Q36" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="37" spans="11:13">
+    <row r="37" spans="11:17">
       <c r="K37" t="s">
         <v>319</v>
       </c>
-      <c r="M37" t="s">
+      <c r="Q37" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="38" spans="11:13">
+    <row r="38" spans="11:17">
       <c r="K38" t="s">
         <v>320</v>
       </c>
-      <c r="M38" t="s">
+      <c r="Q38" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="11:13">
+    <row r="39" spans="11:17">
       <c r="K39" t="s">
         <v>321</v>
       </c>
-      <c r="M39" t="s">
+      <c r="Q39" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="40" spans="11:13">
+    <row r="40" spans="11:17">
       <c r="K40" t="s">
         <v>322</v>
       </c>
-      <c r="M40" t="s">
+      <c r="Q40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="41" spans="11:13">
+    <row r="41" spans="11:17">
       <c r="K41" t="s">
         <v>323</v>
       </c>
-      <c r="M41" t="s">
+      <c r="Q41" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="42" spans="11:13">
+    <row r="42" spans="11:17">
       <c r="K42" t="s">
         <v>324</v>
       </c>
-      <c r="M42" t="s">
+      <c r="Q42" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="43" spans="11:13">
+    <row r="43" spans="11:17">
       <c r="K43" t="s">
         <v>325</v>
       </c>
-      <c r="M43" t="s">
+      <c r="Q43" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="44" spans="11:13">
+    <row r="44" spans="11:17">
       <c r="K44" t="s">
         <v>326</v>
       </c>
-      <c r="M44" t="s">
+      <c r="Q44" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="45" spans="11:13">
+    <row r="45" spans="11:17">
       <c r="K45" t="s">
         <v>327</v>
       </c>
-      <c r="M45" t="s">
+      <c r="Q45" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="46" spans="11:13">
+    <row r="46" spans="11:17">
       <c r="K46" t="s">
         <v>328</v>
       </c>
-      <c r="M46" t="s">
+      <c r="Q46" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="47" spans="11:13">
+    <row r="47" spans="11:17">
       <c r="K47" t="s">
         <v>329</v>
       </c>
-      <c r="M47" t="s">
+      <c r="Q47" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="48" spans="11:13">
+    <row r="48" spans="11:17">
       <c r="K48" t="s">
         <v>330</v>
       </c>
-      <c r="M48" t="s">
+      <c r="Q48" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="49" spans="11:13">
+    <row r="49" spans="11:17">
       <c r="K49" t="s">
         <v>331</v>
       </c>
-      <c r="M49" t="s">
+      <c r="Q49" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="50" spans="11:13">
+    <row r="50" spans="11:17">
       <c r="K50" t="s">
         <v>332</v>
       </c>
-      <c r="M50" t="s">
+      <c r="Q50" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="51" spans="11:13">
+    <row r="51" spans="11:17">
       <c r="K51" t="s">
         <v>333</v>
       </c>
-      <c r="M51" t="s">
+      <c r="Q51" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="52" spans="11:13">
+    <row r="52" spans="11:17">
       <c r="K52" t="s">
         <v>334</v>
       </c>
-      <c r="M52" t="s">
+      <c r="Q52" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="53" spans="11:13">
+    <row r="53" spans="11:17">
       <c r="K53" t="s">
         <v>335</v>
       </c>
-      <c r="M53" t="s">
+      <c r="Q53" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="54" spans="11:13">
+    <row r="54" spans="11:17">
       <c r="K54" t="s">
         <v>336</v>
       </c>
-      <c r="M54" t="s">
+      <c r="Q54" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="55" spans="11:13">
+    <row r="55" spans="11:17">
       <c r="K55" t="s">
         <v>337</v>
       </c>
-      <c r="M55" t="s">
+      <c r="Q55" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="56" spans="11:13">
+    <row r="56" spans="11:17">
       <c r="K56" t="s">
         <v>338</v>
       </c>
-      <c r="M56" t="s">
+      <c r="Q56" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="11:13">
+    <row r="57" spans="11:17">
       <c r="K57" t="s">
         <v>339</v>
       </c>
-      <c r="M57" t="s">
+      <c r="Q57" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="11:13">
+    <row r="58" spans="11:17">
       <c r="K58" t="s">
         <v>340</v>
       </c>
-      <c r="M58" t="s">
+      <c r="Q58" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="59" spans="11:13">
+    <row r="59" spans="11:17">
       <c r="K59" t="s">
         <v>341</v>
       </c>
-      <c r="M59" t="s">
+      <c r="Q59" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="60" spans="11:13">
+    <row r="60" spans="11:17">
       <c r="K60" t="s">
         <v>342</v>
       </c>
-      <c r="M60" t="s">
+      <c r="Q60" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="61" spans="11:13">
+    <row r="61" spans="11:17">
       <c r="K61" t="s">
         <v>343</v>
       </c>
-      <c r="M61" t="s">
+      <c r="Q61" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="11:13">
+    <row r="62" spans="11:17">
       <c r="K62" t="s">
         <v>344</v>
       </c>
-      <c r="M62" t="s">
+      <c r="Q62" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="63" spans="11:13">
+    <row r="63" spans="11:17">
       <c r="K63" t="s">
         <v>345</v>
       </c>
-      <c r="M63" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="11:13">
+      <c r="Q63" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="64" spans="11:17">
       <c r="K64" t="s">
         <v>346</v>
       </c>
-      <c r="M64" t="s">
+      <c r="Q64" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="65" spans="11:13">
+    <row r="65" spans="11:17">
       <c r="K65" t="s">
         <v>347</v>
       </c>
-      <c r="M65" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="66" spans="11:13">
+      <c r="Q65" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="66" spans="11:17">
       <c r="K66" t="s">
         <v>348</v>
       </c>
-      <c r="M66" t="s">
+      <c r="Q66" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="67" spans="11:13">
+    <row r="67" spans="11:17">
       <c r="K67" t="s">
         <v>349</v>
       </c>
-      <c r="M67" t="s">
+      <c r="Q67" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="11:13">
+    <row r="68" spans="11:17">
       <c r="K68" t="s">
         <v>350</v>
       </c>
-      <c r="M68" t="s">
+      <c r="Q68" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="11:13">
+    <row r="69" spans="11:17">
       <c r="K69" t="s">
         <v>351</v>
       </c>
-      <c r="M69" t="s">
+      <c r="Q69" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="70" spans="11:13">
+    <row r="70" spans="11:17">
       <c r="K70" t="s">
         <v>352</v>
       </c>
-      <c r="M70" t="s">
+      <c r="Q70" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="11:13">
+    <row r="71" spans="11:17">
       <c r="K71" t="s">
         <v>353</v>
       </c>
-      <c r="M71" t="s">
+      <c r="Q71" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="72" spans="11:13">
+    <row r="72" spans="11:17">
       <c r="K72" t="s">
         <v>354</v>
       </c>
-      <c r="M72" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="73" spans="11:13">
+      <c r="Q72" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="73" spans="11:17">
       <c r="K73" t="s">
         <v>355</v>
       </c>
-      <c r="M73" t="s">
+      <c r="Q73" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="74" spans="11:13">
+    <row r="74" spans="11:17">
       <c r="K74" t="s">
         <v>356</v>
       </c>
-      <c r="M74" t="s">
+      <c r="Q74" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="11:13">
+    <row r="75" spans="11:17">
       <c r="K75" t="s">
         <v>357</v>
       </c>
-      <c r="M75" t="s">
+      <c r="Q75" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="11:13">
+    <row r="76" spans="11:17">
       <c r="K76" t="s">
         <v>358</v>
       </c>
-      <c r="M76" t="s">
+      <c r="Q76" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="77" spans="11:13">
+    <row r="77" spans="11:17">
       <c r="K77" t="s">
         <v>359</v>
       </c>
-      <c r="M77" t="s">
+      <c r="Q77" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="78" spans="11:13">
+    <row r="78" spans="11:17">
       <c r="K78" t="s">
         <v>360</v>
       </c>
-      <c r="M78" t="s">
+      <c r="Q78" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="79" spans="11:13">
+    <row r="79" spans="11:17">
       <c r="K79" t="s">
         <v>361</v>
       </c>
-      <c r="M79" t="s">
+      <c r="Q79" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="80" spans="11:13">
+    <row r="80" spans="11:17">
       <c r="K80" t="s">
         <v>362</v>
       </c>
-      <c r="M80" t="s">
+      <c r="Q80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="11:13">
+    <row r="81" spans="11:17">
       <c r="K81" t="s">
         <v>363</v>
       </c>
-      <c r="M81" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="82" spans="11:13">
+      <c r="Q81" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="82" spans="11:17">
       <c r="K82" t="s">
         <v>364</v>
       </c>
-      <c r="M82" t="s">
+      <c r="Q82" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="83" spans="11:13">
+    <row r="83" spans="11:17">
       <c r="K83" t="s">
         <v>365</v>
       </c>
-      <c r="M83" t="s">
+      <c r="Q83" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="84" spans="11:13">
+    <row r="84" spans="11:17">
       <c r="K84" t="s">
         <v>366</v>
       </c>
-      <c r="M84" t="s">
+      <c r="Q84" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="11:13">
+    <row r="85" spans="11:17">
       <c r="K85" t="s">
         <v>367</v>
       </c>
-      <c r="M85" t="s">
+      <c r="Q85" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="86" spans="11:13">
+    <row r="86" spans="11:17">
       <c r="K86" t="s">
         <v>368</v>
       </c>
-      <c r="M86" t="s">
+      <c r="Q86" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="87" spans="11:13">
+    <row r="87" spans="11:17">
       <c r="K87" t="s">
         <v>369</v>
       </c>
-      <c r="M87" t="s">
+      <c r="Q87" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="88" spans="11:13">
+    <row r="88" spans="11:17">
       <c r="K88" t="s">
         <v>370</v>
       </c>
-      <c r="M88" t="s">
+      <c r="Q88" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="89" spans="11:13">
+    <row r="89" spans="11:17">
       <c r="K89" t="s">
         <v>371</v>
       </c>
-      <c r="M89" t="s">
+      <c r="Q89" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="90" spans="11:13">
+    <row r="90" spans="11:17">
       <c r="K90" t="s">
         <v>372</v>
       </c>
-      <c r="M90" t="s">
+      <c r="Q90" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="91" spans="11:13">
+    <row r="91" spans="11:17">
       <c r="K91" t="s">
         <v>373</v>
       </c>
-      <c r="M91" t="s">
+      <c r="Q91" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="92" spans="11:13">
+    <row r="92" spans="11:17">
       <c r="K92" t="s">
         <v>374</v>
       </c>
-      <c r="M92" t="s">
+      <c r="Q92" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="11:13">
+    <row r="93" spans="11:17">
       <c r="K93" t="s">
         <v>375</v>
       </c>
-      <c r="M93" t="s">
+      <c r="Q93" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="94" spans="11:13">
+    <row r="94" spans="11:17">
       <c r="K94" t="s">
         <v>376</v>
       </c>
-      <c r="M94" t="s">
+      <c r="Q94" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="95" spans="11:13">
+    <row r="95" spans="11:17">
       <c r="K95" t="s">
         <v>377</v>
       </c>
-      <c r="M95" t="s">
+      <c r="Q95" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="96" spans="11:13">
+    <row r="96" spans="11:17">
       <c r="K96" t="s">
         <v>378</v>
       </c>
-      <c r="M96" t="s">
+      <c r="Q96" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="11:13">
+    <row r="97" spans="11:17">
       <c r="K97" t="s">
         <v>379</v>
       </c>
-      <c r="M97" t="s">
+      <c r="Q97" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="98" spans="11:13">
+    <row r="98" spans="11:17">
       <c r="K98" t="s">
         <v>380</v>
       </c>
-      <c r="M98" t="s">
+      <c r="Q98" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="99" spans="11:13">
+    <row r="99" spans="11:17">
       <c r="K99" t="s">
         <v>381</v>
       </c>
-      <c r="M99" t="s">
+      <c r="Q99" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="100" spans="11:13">
+    <row r="100" spans="11:17">
       <c r="K100" t="s">
         <v>382</v>
       </c>
-      <c r="M100" t="s">
+      <c r="Q100" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="101" spans="11:13">
+    <row r="101" spans="11:17">
       <c r="K101" t="s">
         <v>383</v>
       </c>
-      <c r="M101" t="s">
+      <c r="Q101" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="11:13">
+    <row r="102" spans="11:17">
       <c r="K102" t="s">
         <v>384</v>
       </c>
-      <c r="M102" t="s">
+      <c r="Q102" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="11:13">
+    <row r="103" spans="11:17">
       <c r="K103" t="s">
         <v>385</v>
       </c>
-      <c r="M103" t="s">
+      <c r="Q103" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="104" spans="11:13">
+    <row r="104" spans="11:17">
       <c r="K104" t="s">
         <v>386</v>
       </c>
-      <c r="M104" t="s">
+      <c r="Q104" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="105" spans="11:13">
+    <row r="105" spans="11:17">
       <c r="K105" t="s">
         <v>387</v>
       </c>
-      <c r="M105" t="s">
+      <c r="Q105" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="11:13">
+    <row r="106" spans="11:17">
       <c r="K106" t="s">
         <v>388</v>
       </c>
-      <c r="M106" t="s">
+      <c r="Q106" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="107" spans="11:13">
+    <row r="107" spans="11:17">
       <c r="K107" t="s">
         <v>389</v>
       </c>
-      <c r="M107" t="s">
+      <c r="Q107" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="108" spans="11:13">
+    <row r="108" spans="11:17">
       <c r="K108" t="s">
         <v>390</v>
       </c>
-      <c r="M108" t="s">
+      <c r="Q108" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="109" spans="11:13">
+    <row r="109" spans="11:17">
       <c r="K109" t="s">
         <v>391</v>
       </c>
-      <c r="M109" t="s">
+      <c r="Q109" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="110" spans="11:13">
+    <row r="110" spans="11:17">
       <c r="K110" t="s">
         <v>392</v>
       </c>
-      <c r="M110" t="s">
+      <c r="Q110" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="111" spans="11:13">
+    <row r="111" spans="11:17">
       <c r="K111" t="s">
         <v>393</v>
       </c>
-      <c r="M111" t="s">
+      <c r="Q111" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="112" spans="11:13">
+    <row r="112" spans="11:17">
       <c r="K112" t="s">
         <v>394</v>
       </c>
-      <c r="M112" t="s">
+      <c r="Q112" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="113" spans="11:13">
+    <row r="113" spans="11:17">
       <c r="K113" t="s">
         <v>395</v>
       </c>
-      <c r="M113" t="s">
+      <c r="Q113" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="114" spans="11:13">
+    <row r="114" spans="11:17">
       <c r="K114" t="s">
         <v>396</v>
       </c>
-      <c r="M114" t="s">
+      <c r="Q114" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="115" spans="11:13">
+    <row r="115" spans="11:17">
       <c r="K115" t="s">
         <v>397</v>
       </c>
-      <c r="M115" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="116" spans="11:13">
+      <c r="Q115" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="116" spans="11:17">
       <c r="K116" t="s">
         <v>398</v>
       </c>
-      <c r="M116" t="s">
+      <c r="Q116" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="117" spans="11:13">
+    <row r="117" spans="11:17">
       <c r="K117" t="s">
         <v>399</v>
       </c>
-      <c r="M117" t="s">
+      <c r="Q117" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="118" spans="11:13">
+    <row r="118" spans="11:17">
       <c r="K118" t="s">
         <v>400</v>
       </c>
-      <c r="M118" t="s">
+      <c r="Q118" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="119" spans="11:13">
+    <row r="119" spans="11:17">
       <c r="K119" t="s">
         <v>401</v>
       </c>
-      <c r="M119" t="s">
+      <c r="Q119" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="120" spans="11:13">
+    <row r="120" spans="11:17">
       <c r="K120" t="s">
         <v>402</v>
       </c>
-      <c r="M120" t="s">
+      <c r="Q120" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="121" spans="11:13">
+    <row r="121" spans="11:17">
       <c r="K121" t="s">
         <v>403</v>
       </c>
-      <c r="M121" t="s">
+      <c r="Q121" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="122" spans="11:13">
+    <row r="122" spans="11:17">
       <c r="K122" t="s">
         <v>404</v>
       </c>
-      <c r="M122" t="s">
+      <c r="Q122" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="123" spans="11:13">
+    <row r="123" spans="11:17">
       <c r="K123" t="s">
         <v>405</v>
       </c>
-      <c r="M123" t="s">
+      <c r="Q123" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="124" spans="11:13">
+    <row r="124" spans="11:17">
       <c r="K124" t="s">
         <v>406</v>
       </c>
-      <c r="M124" t="s">
+      <c r="Q124" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="125" spans="11:13">
+    <row r="125" spans="11:17">
       <c r="K125" t="s">
         <v>407</v>
       </c>
-      <c r="M125" t="s">
+      <c r="Q125" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="11:13">
+    <row r="126" spans="11:17">
       <c r="K126" t="s">
         <v>408</v>
       </c>
-      <c r="M126" t="s">
+      <c r="Q126" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="11:13">
+    <row r="127" spans="11:17">
       <c r="K127" t="s">
         <v>409</v>
       </c>
-      <c r="M127" t="s">
+      <c r="Q127" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="128" spans="11:13">
+    <row r="128" spans="11:17">
       <c r="K128" t="s">
         <v>410</v>
       </c>
-      <c r="M128" t="s">
+      <c r="Q128" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="11:13">
+    <row r="129" spans="11:17">
       <c r="K129" t="s">
         <v>411</v>
       </c>
-      <c r="M129" t="s">
+      <c r="Q129" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="130" spans="11:13">
+    <row r="130" spans="11:17">
       <c r="K130" t="s">
         <v>412</v>
       </c>
-      <c r="M130" t="s">
+      <c r="Q130" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="131" spans="11:13">
+    <row r="131" spans="11:17">
       <c r="K131" t="s">
         <v>413</v>
       </c>
-      <c r="M131" t="s">
+      <c r="Q131" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="132" spans="11:13">
+    <row r="132" spans="11:17">
       <c r="K132" t="s">
         <v>414</v>
       </c>
-      <c r="M132" t="s">
+      <c r="Q132" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="133" spans="11:13">
+    <row r="133" spans="11:17">
       <c r="K133" t="s">
         <v>415</v>
       </c>
-      <c r="M133" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="134" spans="11:13">
+      <c r="Q133" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="134" spans="11:17">
       <c r="K134" t="s">
         <v>416</v>
       </c>
-      <c r="M134" t="s">
+      <c r="Q134" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="135" spans="11:13">
+    <row r="135" spans="11:17">
       <c r="K135" t="s">
         <v>417</v>
       </c>
-      <c r="M135" t="s">
+      <c r="Q135" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="136" spans="11:13">
+    <row r="136" spans="11:17">
       <c r="K136" t="s">
         <v>418</v>
       </c>
-      <c r="M136" t="s">
+      <c r="Q136" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="137" spans="11:13">
+    <row r="137" spans="11:17">
       <c r="K137" t="s">
         <v>419</v>
       </c>
-      <c r="M137" t="s">
+      <c r="Q137" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="138" spans="11:13">
+    <row r="138" spans="11:17">
       <c r="K138" t="s">
         <v>420</v>
       </c>
-      <c r="M138" t="s">
+      <c r="Q138" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="139" spans="11:13">
+    <row r="139" spans="11:17">
       <c r="K139" t="s">
         <v>421</v>
       </c>
-      <c r="M139" t="s">
+      <c r="Q139" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="11:13">
+    <row r="140" spans="11:17">
       <c r="K140" t="s">
         <v>422</v>
       </c>
-      <c r="M140" t="s">
+      <c r="Q140" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="141" spans="11:13">
+    <row r="141" spans="11:17">
       <c r="K141" t="s">
         <v>423</v>
       </c>
-      <c r="M141" t="s">
+      <c r="Q141" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="142" spans="11:13">
+    <row r="142" spans="11:17">
       <c r="K142" t="s">
         <v>424</v>
       </c>
-      <c r="M142" t="s">
+      <c r="Q142" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="143" spans="11:13">
+    <row r="143" spans="11:17">
       <c r="K143" t="s">
         <v>425</v>
       </c>
-      <c r="M143" t="s">
+      <c r="Q143" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="144" spans="11:13">
+    <row r="144" spans="11:17">
       <c r="K144" t="s">
         <v>426</v>
       </c>
-      <c r="M144" t="s">
+      <c r="Q144" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="145" spans="11:13">
+    <row r="145" spans="11:17">
       <c r="K145" t="s">
         <v>427</v>
       </c>
-      <c r="M145" t="s">
+      <c r="Q145" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="146" spans="11:13">
+    <row r="146" spans="11:17">
       <c r="K146" t="s">
         <v>428</v>
       </c>
-      <c r="M146" t="s">
+      <c r="Q146" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="147" spans="11:13">
+    <row r="147" spans="11:17">
       <c r="K147" t="s">
         <v>429</v>
       </c>
-      <c r="M147" t="s">
+      <c r="Q147" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="148" spans="11:13">
+    <row r="148" spans="11:17">
       <c r="K148" t="s">
         <v>430</v>
       </c>
-      <c r="M148" t="s">
+      <c r="Q148" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="149" spans="11:13">
+    <row r="149" spans="11:17">
       <c r="K149" t="s">
         <v>431</v>
       </c>
-      <c r="M149" t="s">
+      <c r="Q149" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="150" spans="11:13">
+    <row r="150" spans="11:17">
       <c r="K150" t="s">
         <v>432</v>
       </c>
-      <c r="M150" t="s">
+      <c r="Q150" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="151" spans="11:13">
+    <row r="151" spans="11:17">
       <c r="K151" t="s">
         <v>433</v>
       </c>
-      <c r="M151" t="s">
+      <c r="Q151" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="152" spans="11:13">
+    <row r="152" spans="11:17">
       <c r="K152" t="s">
         <v>434</v>
       </c>
-      <c r="M152" t="s">
+      <c r="Q152" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="153" spans="11:13">
+    <row r="153" spans="11:17">
       <c r="K153" t="s">
         <v>435</v>
       </c>
-      <c r="M153" t="s">
+      <c r="Q153" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="154" spans="11:13">
+    <row r="154" spans="11:17">
       <c r="K154" t="s">
         <v>436</v>
       </c>
-      <c r="M154" t="s">
+      <c r="Q154" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="11:13">
+    <row r="155" spans="11:17">
       <c r="K155" t="s">
         <v>437</v>
       </c>
-      <c r="M155" t="s">
+      <c r="Q155" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="156" spans="11:13">
+    <row r="156" spans="11:17">
       <c r="K156" t="s">
         <v>438</v>
       </c>
-      <c r="M156" t="s">
+      <c r="Q156" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="157" spans="11:13">
+    <row r="157" spans="11:17">
       <c r="K157" t="s">
         <v>439</v>
       </c>
-      <c r="M157" t="s">
+      <c r="Q157" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="158" spans="11:13">
+    <row r="158" spans="11:17">
       <c r="K158" t="s">
         <v>440</v>
       </c>
-      <c r="M158" t="s">
+      <c r="Q158" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="159" spans="11:13">
+    <row r="159" spans="11:17">
       <c r="K159" t="s">
         <v>441</v>
       </c>
-      <c r="M159" t="s">
+      <c r="Q159" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="160" spans="11:13">
+    <row r="160" spans="11:17">
       <c r="K160" t="s">
         <v>442</v>
       </c>
-      <c r="M160" t="s">
+      <c r="Q160" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="161" spans="11:13">
+    <row r="161" spans="11:17">
       <c r="K161" t="s">
         <v>443</v>
       </c>
-      <c r="M161" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="162" spans="11:13">
+      <c r="Q161" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="162" spans="11:17">
       <c r="K162" t="s">
         <v>444</v>
       </c>
-      <c r="M162" t="s">
+      <c r="Q162" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="163" spans="11:13">
+    <row r="163" spans="11:17">
       <c r="K163" t="s">
         <v>445</v>
       </c>
-      <c r="M163" t="s">
+      <c r="Q163" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="164" spans="11:13">
+    <row r="164" spans="11:17">
       <c r="K164" t="s">
         <v>446</v>
       </c>
-      <c r="M164" t="s">
+      <c r="Q164" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="165" spans="11:13">
+    <row r="165" spans="11:17">
       <c r="K165" t="s">
         <v>447</v>
       </c>
-      <c r="M165" t="s">
+      <c r="Q165" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="166" spans="11:13">
+    <row r="166" spans="11:17">
       <c r="K166" t="s">
         <v>448</v>
       </c>
-      <c r="M166" t="s">
+      <c r="Q166" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="167" spans="11:13">
+    <row r="167" spans="11:17">
       <c r="K167" t="s">
         <v>449</v>
       </c>
-      <c r="M167" t="s">
+      <c r="Q167" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="168" spans="11:13">
+    <row r="168" spans="11:17">
       <c r="K168" t="s">
         <v>450</v>
       </c>
-      <c r="M168" t="s">
+      <c r="Q168" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="169" spans="11:13">
+    <row r="169" spans="11:17">
       <c r="K169" t="s">
         <v>451</v>
       </c>
-      <c r="M169" t="s">
+      <c r="Q169" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="170" spans="11:13">
+    <row r="170" spans="11:17">
       <c r="K170" t="s">
         <v>452</v>
       </c>
-      <c r="M170" t="s">
+      <c r="Q170" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="171" spans="11:13">
+    <row r="171" spans="11:17">
       <c r="K171" t="s">
         <v>453</v>
       </c>
-      <c r="M171" t="s">
+      <c r="Q171" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="172" spans="11:13">
+    <row r="172" spans="11:17">
       <c r="K172" t="s">
         <v>454</v>
       </c>
-      <c r="M172" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="173" spans="11:13">
+      <c r="Q172" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="173" spans="11:17">
       <c r="K173" t="s">
         <v>455</v>
       </c>
-      <c r="M173" t="s">
+      <c r="Q173" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="174" spans="11:13">
+    <row r="174" spans="11:17">
       <c r="K174" t="s">
         <v>456</v>
       </c>
-      <c r="M174" t="s">
+      <c r="Q174" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="11:13">
+    <row r="175" spans="11:17">
       <c r="K175" t="s">
         <v>457</v>
       </c>
-      <c r="M175" t="s">
+      <c r="Q175" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="176" spans="11:13">
+    <row r="176" spans="11:17">
       <c r="K176" t="s">
         <v>458</v>
       </c>
-      <c r="M176" t="s">
+      <c r="Q176" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="177" spans="11:13">
+    <row r="177" spans="11:17">
       <c r="K177" t="s">
         <v>459</v>
       </c>
-      <c r="M177" t="s">
+      <c r="Q177" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="178" spans="11:13">
+    <row r="178" spans="11:17">
       <c r="K178" t="s">
         <v>460</v>
       </c>
-      <c r="M178" t="s">
+      <c r="Q178" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="179" spans="11:13">
+    <row r="179" spans="11:17">
       <c r="K179" t="s">
         <v>461</v>
       </c>
-      <c r="M179" t="s">
+      <c r="Q179" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="180" spans="11:13">
+    <row r="180" spans="11:17">
       <c r="K180" t="s">
         <v>462</v>
       </c>
-      <c r="M180" t="s">
+      <c r="Q180" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="181" spans="11:13">
+    <row r="181" spans="11:17">
       <c r="K181" t="s">
         <v>463</v>
       </c>
-      <c r="M181" t="s">
+      <c r="Q181" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="182" spans="11:13">
+    <row r="182" spans="11:17">
       <c r="K182" t="s">
         <v>464</v>
       </c>
-      <c r="M182" t="s">
+      <c r="Q182" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="183" spans="11:13">
+    <row r="183" spans="11:17">
       <c r="K183" t="s">
         <v>465</v>
       </c>
-      <c r="M183" t="s">
+      <c r="Q183" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="184" spans="11:13">
+    <row r="184" spans="11:17">
       <c r="K184" t="s">
         <v>466</v>
       </c>
-      <c r="M184" t="s">
+      <c r="Q184" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="185" spans="11:13">
+    <row r="185" spans="11:17">
       <c r="K185" t="s">
         <v>467</v>
       </c>
-      <c r="M185" t="s">
+      <c r="Q185" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="186" spans="11:13">
+    <row r="186" spans="11:17">
       <c r="K186" t="s">
         <v>468</v>
       </c>
-      <c r="M186" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="187" spans="11:13">
+      <c r="Q186" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="187" spans="11:17">
       <c r="K187" t="s">
         <v>469</v>
       </c>
-      <c r="M187" t="s">
+      <c r="Q187" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="188" spans="11:13">
+    <row r="188" spans="11:17">
       <c r="K188" t="s">
         <v>470</v>
       </c>
-      <c r="M188" t="s">
+      <c r="Q188" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="189" spans="11:13">
+    <row r="189" spans="11:17">
       <c r="K189" t="s">
         <v>471</v>
       </c>
-      <c r="M189" t="s">
+      <c r="Q189" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="190" spans="11:13">
+    <row r="190" spans="11:17">
       <c r="K190" t="s">
         <v>472</v>
       </c>
-      <c r="M190" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="191" spans="11:13">
+      <c r="Q190" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="191" spans="11:17">
       <c r="K191" t="s">
         <v>473</v>
       </c>
-      <c r="M191" t="s">
+      <c r="Q191" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="192" spans="11:13">
+    <row r="192" spans="11:17">
       <c r="K192" t="s">
         <v>474</v>
       </c>
-      <c r="M192" t="s">
+      <c r="Q192" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="193" spans="11:13">
+    <row r="193" spans="11:17">
       <c r="K193" t="s">
         <v>475</v>
       </c>
-      <c r="M193" t="s">
+      <c r="Q193" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="194" spans="11:13">
+    <row r="194" spans="11:17">
       <c r="K194" t="s">
         <v>476</v>
       </c>
-      <c r="M194" t="s">
+      <c r="Q194" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="195" spans="11:13">
+    <row r="195" spans="11:17">
       <c r="K195" t="s">
         <v>477</v>
       </c>
-      <c r="M195" t="s">
+      <c r="Q195" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="196" spans="11:13">
+    <row r="196" spans="11:17">
       <c r="K196" t="s">
         <v>478</v>
       </c>
-      <c r="M196" t="s">
+      <c r="Q196" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="197" spans="11:13">
+    <row r="197" spans="11:17">
       <c r="K197" t="s">
         <v>479</v>
       </c>
-      <c r="M197" t="s">
+      <c r="Q197" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="198" spans="11:13">
+    <row r="198" spans="11:17">
       <c r="K198" t="s">
         <v>480</v>
       </c>
-      <c r="M198" t="s">
+      <c r="Q198" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="199" spans="11:13">
+    <row r="199" spans="11:17">
       <c r="K199" t="s">
         <v>481</v>
       </c>
-      <c r="M199" t="s">
+      <c r="Q199" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="200" spans="11:13">
+    <row r="200" spans="11:17">
       <c r="K200" t="s">
         <v>482</v>
       </c>
-      <c r="M200" t="s">
+      <c r="Q200" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="11:13">
+    <row r="201" spans="11:17">
       <c r="K201" t="s">
         <v>483</v>
       </c>
-      <c r="M201" t="s">
+      <c r="Q201" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="202" spans="11:13">
+    <row r="202" spans="11:17">
       <c r="K202" t="s">
         <v>484</v>
       </c>
-      <c r="M202" t="s">
+      <c r="Q202" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="203" spans="11:13">
+    <row r="203" spans="11:17">
       <c r="K203" t="s">
         <v>485</v>
       </c>
-      <c r="M203" t="s">
+      <c r="Q203" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="204" spans="11:13">
+    <row r="204" spans="11:17">
       <c r="K204" t="s">
         <v>486</v>
       </c>
-      <c r="M204" t="s">
+      <c r="Q204" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="205" spans="11:13">
+    <row r="205" spans="11:17">
       <c r="K205" t="s">
         <v>487</v>
       </c>
-      <c r="M205" t="s">
+      <c r="Q205" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="206" spans="11:13">
+    <row r="206" spans="11:17">
       <c r="K206" t="s">
         <v>488</v>
       </c>
-      <c r="M206" t="s">
+      <c r="Q206" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="11:13">
+    <row r="207" spans="11:17">
       <c r="K207" t="s">
         <v>489</v>
       </c>
-      <c r="M207" t="s">
+      <c r="Q207" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="208" spans="11:13">
+    <row r="208" spans="11:17">
       <c r="K208" t="s">
         <v>490</v>
       </c>
-      <c r="M208" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="209" spans="11:13">
+      <c r="Q208" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="209" spans="11:17">
       <c r="K209" t="s">
         <v>491</v>
       </c>
-      <c r="M209" t="s">
+      <c r="Q209" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="210" spans="11:13">
+    <row r="210" spans="11:17">
       <c r="K210" t="s">
         <v>492</v>
       </c>
-      <c r="M210" t="s">
+      <c r="Q210" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="211" spans="11:13">
+    <row r="211" spans="11:17">
       <c r="K211" t="s">
         <v>493</v>
       </c>
-      <c r="M211" t="s">
+      <c r="Q211" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="212" spans="11:13">
+    <row r="212" spans="11:17">
       <c r="K212" t="s">
         <v>494</v>
       </c>
-      <c r="M212" t="s">
+      <c r="Q212" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="213" spans="11:13">
+    <row r="213" spans="11:17">
       <c r="K213" t="s">
         <v>495</v>
       </c>
-      <c r="M213" t="s">
+      <c r="Q213" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="214" spans="11:13">
+    <row r="214" spans="11:17">
       <c r="K214" t="s">
         <v>496</v>
       </c>
-      <c r="M214" t="s">
+      <c r="Q214" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="215" spans="11:13">
+    <row r="215" spans="11:17">
       <c r="K215" t="s">
         <v>497</v>
       </c>
-      <c r="M215" t="s">
+      <c r="Q215" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="216" spans="11:13">
+    <row r="216" spans="11:17">
       <c r="K216" t="s">
         <v>498</v>
       </c>
-      <c r="M216" t="s">
+      <c r="Q216" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="217" spans="11:13">
+    <row r="217" spans="11:17">
       <c r="K217" t="s">
         <v>499</v>
       </c>
-      <c r="M217" t="s">
+      <c r="Q217" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="218" spans="11:13">
+    <row r="218" spans="11:17">
       <c r="K218" t="s">
         <v>500</v>
       </c>
-      <c r="M218" t="s">
+      <c r="Q218" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="219" spans="11:13">
+    <row r="219" spans="11:17">
       <c r="K219" t="s">
         <v>501</v>
       </c>
-      <c r="M219" t="s">
+      <c r="Q219" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="220" spans="11:13">
+    <row r="220" spans="11:17">
       <c r="K220" t="s">
         <v>502</v>
       </c>
-      <c r="M220" t="s">
+      <c r="Q220" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="221" spans="11:13">
+    <row r="221" spans="11:17">
       <c r="K221" t="s">
         <v>503</v>
       </c>
-      <c r="M221" t="s">
+      <c r="Q221" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="222" spans="11:13">
+    <row r="222" spans="11:17">
       <c r="K222" t="s">
         <v>504</v>
       </c>
-      <c r="M222" t="s">
+      <c r="Q222" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="223" spans="11:13">
+    <row r="223" spans="11:17">
       <c r="K223" t="s">
         <v>505</v>
       </c>
-      <c r="M223" t="s">
+      <c r="Q223" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="224" spans="11:13">
+    <row r="224" spans="11:17">
       <c r="K224" t="s">
         <v>506</v>
       </c>
-      <c r="M224" t="s">
+      <c r="Q224" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="225" spans="11:13">
+    <row r="225" spans="11:17">
       <c r="K225" t="s">
         <v>507</v>
       </c>
-      <c r="M225" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="226" spans="11:13">
+      <c r="Q225" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="226" spans="11:17">
       <c r="K226" t="s">
         <v>508</v>
       </c>
-      <c r="M226" t="s">
+      <c r="Q226" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="227" spans="11:13">
+    <row r="227" spans="11:17">
       <c r="K227" t="s">
         <v>509</v>
       </c>
-      <c r="M227" t="s">
+      <c r="Q227" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="228" spans="11:13">
+    <row r="228" spans="11:17">
       <c r="K228" t="s">
         <v>510</v>
       </c>
-      <c r="M228" t="s">
+      <c r="Q228" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="229" spans="11:13">
+    <row r="229" spans="11:17">
       <c r="K229" t="s">
         <v>511</v>
       </c>
-      <c r="M229" t="s">
+      <c r="Q229" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="230" spans="11:13">
+    <row r="230" spans="11:17">
       <c r="K230" t="s">
         <v>512</v>
       </c>
-      <c r="M230" t="s">
+      <c r="Q230" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="231" spans="11:13">
+    <row r="231" spans="11:17">
       <c r="K231" t="s">
         <v>513</v>
       </c>
-      <c r="M231" t="s">
+      <c r="Q231" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="232" spans="11:13">
+    <row r="232" spans="11:17">
       <c r="K232" t="s">
         <v>514</v>
       </c>
-      <c r="M232" t="s">
+      <c r="Q232" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="233" spans="11:13">
+    <row r="233" spans="11:17">
       <c r="K233" t="s">
         <v>515</v>
       </c>
-      <c r="M233" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="234" spans="11:13">
+      <c r="Q233" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="234" spans="11:17">
       <c r="K234" t="s">
         <v>516</v>
       </c>
-      <c r="M234" t="s">
+      <c r="Q234" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="235" spans="11:13">
+    <row r="235" spans="11:17">
       <c r="K235" t="s">
         <v>517</v>
       </c>
-      <c r="M235" t="s">
+      <c r="Q235" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="236" spans="11:13">
+    <row r="236" spans="11:17">
       <c r="K236" t="s">
         <v>518</v>
       </c>
-      <c r="M236" t="s">
+      <c r="Q236" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="237" spans="11:13">
+    <row r="237" spans="11:17">
       <c r="K237" t="s">
         <v>519</v>
       </c>
-      <c r="M237" t="s">
+      <c r="Q237" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="238" spans="11:13">
+    <row r="238" spans="11:17">
       <c r="K238" t="s">
         <v>520</v>
       </c>
-      <c r="M238" t="s">
+      <c r="Q238" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="239" spans="11:13">
+    <row r="239" spans="11:17">
       <c r="K239" t="s">
         <v>521</v>
       </c>
-      <c r="M239" t="s">
+      <c r="Q239" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="240" spans="11:13">
+    <row r="240" spans="11:17">
       <c r="K240" t="s">
         <v>522</v>
       </c>
-      <c r="M240" t="s">
+      <c r="Q240" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="241" spans="11:13">
+    <row r="241" spans="11:17">
       <c r="K241" t="s">
         <v>523</v>
       </c>
-      <c r="M241" t="s">
+      <c r="Q241" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="242" spans="11:13">
+    <row r="242" spans="11:17">
       <c r="K242" t="s">
         <v>524</v>
       </c>
-      <c r="M242" t="s">
+      <c r="Q242" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="243" spans="11:13">
+    <row r="243" spans="11:17">
       <c r="K243" t="s">
         <v>525</v>
       </c>
-      <c r="M243" t="s">
+      <c r="Q243" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="244" spans="11:13">
+    <row r="244" spans="11:17">
       <c r="K244" t="s">
         <v>526</v>
       </c>
-      <c r="M244" t="s">
+      <c r="Q244" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="245" spans="11:13">
+    <row r="245" spans="11:17">
       <c r="K245" t="s">
         <v>527</v>
       </c>
-      <c r="M245" t="s">
+      <c r="Q245" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="246" spans="11:13">
+    <row r="246" spans="11:17">
       <c r="K246" t="s">
         <v>528</v>
       </c>
-      <c r="M246" t="s">
+      <c r="Q246" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="247" spans="11:13">
+    <row r="247" spans="11:17">
       <c r="K247" t="s">
         <v>529</v>
       </c>
-      <c r="M247" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="248" spans="11:13">
+      <c r="Q247" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="248" spans="11:17">
       <c r="K248" t="s">
         <v>530</v>
       </c>
-      <c r="M248" t="s">
+      <c r="Q248" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="249" spans="11:13">
+    <row r="249" spans="11:17">
       <c r="K249" t="s">
         <v>531</v>
       </c>
-      <c r="M249" t="s">
+      <c r="Q249" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="250" spans="11:13">
+    <row r="250" spans="11:17">
       <c r="K250" t="s">
         <v>532</v>
       </c>
-      <c r="M250" t="s">
+      <c r="Q250" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="251" spans="11:13">
+    <row r="251" spans="11:17">
       <c r="K251" t="s">
         <v>533</v>
       </c>
-      <c r="M251" t="s">
+      <c r="Q251" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="252" spans="11:13">
+    <row r="252" spans="11:17">
       <c r="K252" t="s">
         <v>534</v>
       </c>
-      <c r="M252" t="s">
+      <c r="Q252" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="253" spans="11:13">
+    <row r="253" spans="11:17">
       <c r="K253" t="s">
         <v>535</v>
       </c>
-      <c r="M253" t="s">
+      <c r="Q253" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="254" spans="11:13">
+    <row r="254" spans="11:17">
       <c r="K254" t="s">
         <v>536</v>
       </c>
-      <c r="M254" t="s">
+      <c r="Q254" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="255" spans="11:13">
+    <row r="255" spans="11:17">
       <c r="K255" t="s">
         <v>537</v>
       </c>
-      <c r="M255" t="s">
+      <c r="Q255" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="256" spans="11:13">
+    <row r="256" spans="11:17">
       <c r="K256" t="s">
         <v>538</v>
       </c>
-      <c r="M256" t="s">
+      <c r="Q256" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="257" spans="11:13">
+    <row r="257" spans="11:17">
       <c r="K257" t="s">
         <v>539</v>
       </c>
-      <c r="M257" t="s">
+      <c r="Q257" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="258" spans="11:13">
+    <row r="258" spans="11:17">
       <c r="K258" t="s">
         <v>540</v>
       </c>
-      <c r="M258" t="s">
+      <c r="Q258" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="259" spans="11:13">
+    <row r="259" spans="11:17">
       <c r="K259" t="s">
         <v>541</v>
       </c>
-      <c r="M259" t="s">
+      <c r="Q259" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="260" spans="11:13">
+    <row r="260" spans="11:17">
       <c r="K260" t="s">
         <v>542</v>
       </c>
-      <c r="M260" t="s">
+      <c r="Q260" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="261" spans="11:13">
+    <row r="261" spans="11:17">
       <c r="K261" t="s">
         <v>543</v>
       </c>
-      <c r="M261" t="s">
+      <c r="Q261" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="262" spans="11:13">
+    <row r="262" spans="11:17">
       <c r="K262" t="s">
         <v>544</v>
       </c>
-      <c r="M262" t="s">
+      <c r="Q262" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="263" spans="11:13">
+    <row r="263" spans="11:17">
       <c r="K263" t="s">
         <v>545</v>
       </c>
-      <c r="M263" t="s">
+      <c r="Q263" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="264" spans="11:13">
+    <row r="264" spans="11:17">
       <c r="K264" t="s">
         <v>546</v>
       </c>
-      <c r="M264" t="s">
+      <c r="Q264" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="265" spans="11:13">
+    <row r="265" spans="11:17">
       <c r="K265" t="s">
         <v>547</v>
       </c>
-      <c r="M265" t="s">
+      <c r="Q265" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="266" spans="11:13">
+    <row r="266" spans="11:17">
       <c r="K266" t="s">
         <v>548</v>
       </c>
-      <c r="M266" t="s">
+      <c r="Q266" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="267" spans="11:13">
+    <row r="267" spans="11:17">
       <c r="K267" t="s">
         <v>549</v>
       </c>
-      <c r="M267" t="s">
+      <c r="Q267" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="268" spans="11:13">
+    <row r="268" spans="11:17">
       <c r="K268" t="s">
         <v>550</v>
       </c>
-      <c r="M268" t="s">
+      <c r="Q268" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="269" spans="11:13">
+    <row r="269" spans="11:17">
       <c r="K269" t="s">
         <v>551</v>
       </c>
-      <c r="M269" t="s">
+      <c r="Q269" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="270" spans="11:13">
+    <row r="270" spans="11:17">
       <c r="K270" t="s">
         <v>552</v>
       </c>
-      <c r="M270" t="s">
+      <c r="Q270" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="271" spans="11:13">
+    <row r="271" spans="11:17">
       <c r="K271" t="s">
         <v>553</v>
       </c>
-      <c r="M271" t="s">
+      <c r="Q271" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="272" spans="11:13">
+    <row r="272" spans="11:17">
       <c r="K272" t="s">
         <v>554</v>
       </c>
-      <c r="M272" t="s">
+      <c r="Q272" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="273" spans="11:13">
+    <row r="273" spans="11:17">
       <c r="K273" t="s">
         <v>555</v>
       </c>
-      <c r="M273" t="s">
+      <c r="Q273" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="274" spans="11:13">
-      <c r="M274" t="s">
+    <row r="274" spans="11:17">
+      <c r="Q274" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="275" spans="11:13">
-      <c r="M275" t="s">
+    <row r="275" spans="11:17">
+      <c r="Q275" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="276" spans="11:13">
-      <c r="M276" t="s">
+    <row r="276" spans="11:17">
+      <c r="Q276" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="277" spans="11:13">
-      <c r="M277" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="278" spans="11:13">
-      <c r="M278" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="279" spans="11:13">
-      <c r="M279" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="280" spans="11:13">
-      <c r="M280" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="281" spans="11:13">
-      <c r="M281" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="282" spans="11:13">
-      <c r="M282" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="283" spans="11:13">
-      <c r="M283" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="284" spans="11:13">
-      <c r="M284" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="285" spans="11:13">
-      <c r="M285" t="s">
+    <row r="277" spans="11:17">
+      <c r="Q277" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="286" spans="11:13">
-      <c r="M286" t="s">
+    <row r="278" spans="11:17">
+      <c r="Q278" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="287" spans="11:13">
-      <c r="M287" t="s">
+    <row r="279" spans="11:17">
+      <c r="Q279" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="288" spans="11:13">
-      <c r="M288" t="s">
+    <row r="280" spans="11:17">
+      <c r="Q280" t="s">
         <v>589</v>
+      </c>
+    </row>
+    <row r="281" spans="11:17">
+      <c r="Q281" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="282" spans="11:17">
+      <c r="Q282" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="283" spans="11:17">
+      <c r="Q283" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="284" spans="11:17">
+      <c r="Q284" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="285" spans="11:17">
+      <c r="Q285" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="286" spans="11:17">
+      <c r="Q286" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="287" spans="11:17">
+      <c r="Q287" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="288" spans="11:17">
+      <c r="Q288" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="289" spans="17:17">
+      <c r="Q289" t="s">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -24,7 +24,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$83</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="641">
   <si>
     <t>alias</t>
   </si>
@@ -640,6 +640,9 @@
   </si>
   <si>
     <t>Illumina NovaSeq X</t>
+  </si>
+  <si>
+    <t>Illumina NovaSeq X Plus</t>
   </si>
   <si>
     <t>Illumina iSeq 100</t>
@@ -2495,7 +2498,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2539,7 +2542,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -2566,7 +2569,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N83"/>
+  <dimension ref="G1:N84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3278,6 +3281,11 @@
     </row>
     <row r="83" spans="14:14">
       <c r="N83" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="84" spans="14:14">
+      <c r="N84" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3302,27 +3310,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3345,122 +3353,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -3487,192 +3495,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -3713,241 +3721,241 @@
   <sheetData>
     <row r="1" spans="9:23">
       <c r="I1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="R1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="V1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="W1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="9:23">
       <c r="I2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="V2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="9:23">
       <c r="I3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="V3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V4" t="s">
+        <v>589</v>
+      </c>
+      <c r="W4" t="s">
         <v>588</v>
-      </c>
-      <c r="W4" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V5" t="s">
+        <v>590</v>
+      </c>
+      <c r="W5" t="s">
         <v>589</v>
-      </c>
-      <c r="W5" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q6" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V6" t="s">
+        <v>591</v>
+      </c>
+      <c r="W6" t="s">
         <v>590</v>
-      </c>
-      <c r="W6" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V7" t="s">
+        <v>592</v>
+      </c>
+      <c r="W7" t="s">
         <v>591</v>
-      </c>
-      <c r="W7" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q8" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V8" t="s">
+        <v>593</v>
+      </c>
+      <c r="W8" t="s">
         <v>592</v>
-      </c>
-      <c r="W8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V9" t="s">
+        <v>594</v>
+      </c>
+      <c r="W9" t="s">
         <v>593</v>
-      </c>
-      <c r="W9" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="V10" t="s">
+        <v>595</v>
+      </c>
+      <c r="W10" t="s">
         <v>594</v>
-      </c>
-      <c r="W10" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" t="s">
         <v>293</v>
       </c>
-      <c r="Q11" t="s">
-        <v>292</v>
-      </c>
       <c r="V11" t="s">
+        <v>596</v>
+      </c>
+      <c r="W11" t="s">
         <v>595</v>
-      </c>
-      <c r="W11" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" t="s">
         <v>294</v>
       </c>
-      <c r="Q12" t="s">
-        <v>293</v>
-      </c>
       <c r="V12" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="W12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q13" t="s">
         <v>295</v>
       </c>
-      <c r="Q13" t="s">
-        <v>294</v>
-      </c>
       <c r="V13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q14" t="s">
         <v>296</v>
       </c>
-      <c r="Q14" t="s">
-        <v>295</v>
-      </c>
       <c r="V14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W14" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q15" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="W15" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q16" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3955,2141 +3963,2141 @@
     </row>
     <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q17" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W17" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q19" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q21" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q22" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q24" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q25" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q26" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q27" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q28" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q29" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q30" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q31" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q32" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="11:17">
       <c r="K33" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q33" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="34" spans="11:17">
       <c r="K34" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q34" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="35" spans="11:17">
       <c r="K35" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q35" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="36" spans="11:17">
       <c r="K36" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q36" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="11:17">
       <c r="K37" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q37" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="38" spans="11:17">
       <c r="K38" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q38" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="39" spans="11:17">
       <c r="K39" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q39" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="40" spans="11:17">
       <c r="K40" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="41" spans="11:17">
       <c r="K41" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q41" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="42" spans="11:17">
       <c r="K42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q42" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="11:17">
       <c r="K43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q43" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" spans="11:17">
       <c r="K44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q44" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="45" spans="11:17">
       <c r="K45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q45" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="46" spans="11:17">
       <c r="K46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q46" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="47" spans="11:17">
       <c r="K47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q47" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="11:17">
       <c r="K48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q48" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="49" spans="11:17">
       <c r="K49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q49" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="50" spans="11:17">
       <c r="K50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q50" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" spans="11:17">
       <c r="K51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q51" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="52" spans="11:17">
       <c r="K52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q52" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="53" spans="11:17">
       <c r="K53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q53" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="54" spans="11:17">
       <c r="K54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q54" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="55" spans="11:17">
       <c r="K55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="56" spans="11:17">
       <c r="K56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="57" spans="11:17">
       <c r="K57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q57" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="58" spans="11:17">
       <c r="K58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q58" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="59" spans="11:17">
       <c r="K59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q59" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60" spans="11:17">
       <c r="K60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q60" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="61" spans="11:17">
       <c r="K61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q61" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="11:17">
       <c r="K62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q62" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="63" spans="11:17">
       <c r="K63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q63" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="64" spans="11:17">
       <c r="K64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="65" spans="11:17">
       <c r="K65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q65" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="66" spans="11:17">
       <c r="K66" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q66" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="67" spans="11:17">
       <c r="K67" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q67" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="68" spans="11:17">
       <c r="K68" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q68" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="11:17">
       <c r="K69" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q69" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="70" spans="11:17">
       <c r="K70" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="11:17">
       <c r="K71" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q71" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="72" spans="11:17">
       <c r="K72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q72" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="73" spans="11:17">
       <c r="K73" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q73" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" spans="11:17">
       <c r="K74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q74" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="11:17">
       <c r="K75" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q75" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="76" spans="11:17">
       <c r="K76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q76" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77" spans="11:17">
       <c r="K77" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="78" spans="11:17">
       <c r="K78" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q78" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="79" spans="11:17">
       <c r="K79" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="80" spans="11:17">
       <c r="K80" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q80" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="81" spans="11:17">
       <c r="K81" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q81" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="11:17">
       <c r="K82" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="83" spans="11:17">
       <c r="K83" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q83" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="84" spans="11:17">
       <c r="K84" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q84" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="85" spans="11:17">
       <c r="K85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q85" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" spans="11:17">
       <c r="K86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q86" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="87" spans="11:17">
       <c r="K87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q87" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="11:17">
       <c r="K88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q88" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="89" spans="11:17">
       <c r="K89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q89" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="90" spans="11:17">
       <c r="K90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q90" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="91" spans="11:17">
       <c r="K91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q91" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="92" spans="11:17">
       <c r="K92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q92" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="93" spans="11:17">
       <c r="K93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q93" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="94" spans="11:17">
       <c r="K94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q94" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="95" spans="11:17">
       <c r="K95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q95" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="96" spans="11:17">
       <c r="K96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q96" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="97" spans="11:17">
       <c r="K97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q97" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="98" spans="11:17">
       <c r="K98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q98" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="99" spans="11:17">
       <c r="K99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q99" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="100" spans="11:17">
       <c r="K100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q100" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="11:17">
       <c r="K101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q101" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="11:17">
       <c r="K102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q102" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="103" spans="11:17">
       <c r="K103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q103" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="104" spans="11:17">
       <c r="K104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q104" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="105" spans="11:17">
       <c r="K105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q105" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="106" spans="11:17">
       <c r="K106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q106" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="107" spans="11:17">
       <c r="K107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q107" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="108" spans="11:17">
       <c r="K108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q108" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="109" spans="11:17">
       <c r="K109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q109" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="110" spans="11:17">
       <c r="K110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q110" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="111" spans="11:17">
       <c r="K111" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q111" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="112" spans="11:17">
       <c r="K112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q112" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="113" spans="11:17">
       <c r="K113" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q113" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="114" spans="11:17">
       <c r="K114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="115" spans="11:17">
       <c r="K115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q115" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="116" spans="11:17">
       <c r="K116" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="117" spans="11:17">
       <c r="K117" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q117" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="118" spans="11:17">
       <c r="K118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="119" spans="11:17">
       <c r="K119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="120" spans="11:17">
       <c r="K120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="121" spans="11:17">
       <c r="K121" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q121" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="122" spans="11:17">
       <c r="K122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q122" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="11:17">
       <c r="K123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q123" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="124" spans="11:17">
       <c r="K124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q124" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" spans="11:17">
       <c r="K125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q125" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="126" spans="11:17">
       <c r="K126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q126" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="11:17">
       <c r="K127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q127" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="128" spans="11:17">
       <c r="K128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q128" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="129" spans="11:17">
       <c r="K129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q129" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="130" spans="11:17">
       <c r="K130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q130" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="11:17">
       <c r="K131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q131" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="11:17">
       <c r="K132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q132" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="133" spans="11:17">
       <c r="K133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q133" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="134" spans="11:17">
       <c r="K134" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q134" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="135" spans="11:17">
       <c r="K135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q135" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="136" spans="11:17">
       <c r="K136" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="137" spans="11:17">
       <c r="K137" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q137" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138" spans="11:17">
       <c r="K138" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="139" spans="11:17">
       <c r="K139" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q139" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="140" spans="11:17">
       <c r="K140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q140" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="141" spans="11:17">
       <c r="K141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="142" spans="11:17">
       <c r="K142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q142" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="143" spans="11:17">
       <c r="K143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q143" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="11:17">
       <c r="K144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q144" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="145" spans="11:17">
       <c r="K145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q145" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="146" spans="11:17">
       <c r="K146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q146" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="147" spans="11:17">
       <c r="K147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q147" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="148" spans="11:17">
       <c r="K148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q148" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="11:17">
       <c r="K149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q149" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="150" spans="11:17">
       <c r="K150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q150" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="151" spans="11:17">
       <c r="K151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q151" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="152" spans="11:17">
       <c r="K152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q152" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="153" spans="11:17">
       <c r="K153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q153" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="154" spans="11:17">
       <c r="K154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q154" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="155" spans="11:17">
       <c r="K155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q155" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="156" spans="11:17">
       <c r="K156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q156" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="157" spans="11:17">
       <c r="K157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q157" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="158" spans="11:17">
       <c r="K158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q158" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="159" spans="11:17">
       <c r="K159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="160" spans="11:17">
       <c r="K160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q160" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="161" spans="11:17">
       <c r="K161" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q161" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="162" spans="11:17">
       <c r="K162" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q162" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="163" spans="11:17">
       <c r="K163" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q163" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="164" spans="11:17">
       <c r="K164" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q164" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="11:17">
       <c r="K165" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q165" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="166" spans="11:17">
       <c r="K166" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q166" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="167" spans="11:17">
       <c r="K167" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q167" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="168" spans="11:17">
       <c r="K168" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q168" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="169" spans="11:17">
       <c r="K169" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q169" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="170" spans="11:17">
       <c r="K170" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q170" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="171" spans="11:17">
       <c r="K171" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q171" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="172" spans="11:17">
       <c r="K172" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q172" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="173" spans="11:17">
       <c r="K173" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q173" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="11:17">
       <c r="K174" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q174" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="175" spans="11:17">
       <c r="K175" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q175" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="176" spans="11:17">
       <c r="K176" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q176" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="177" spans="11:17">
       <c r="K177" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q177" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="178" spans="11:17">
       <c r="K178" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q178" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="179" spans="11:17">
       <c r="K179" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q179" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="180" spans="11:17">
       <c r="K180" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q180" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="181" spans="11:17">
       <c r="K181" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q181" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="182" spans="11:17">
       <c r="K182" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q182" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="183" spans="11:17">
       <c r="K183" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q183" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="184" spans="11:17">
       <c r="K184" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q184" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="185" spans="11:17">
       <c r="K185" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q185" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="186" spans="11:17">
       <c r="K186" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q186" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="187" spans="11:17">
       <c r="K187" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q187" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="188" spans="11:17">
       <c r="K188" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q188" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="189" spans="11:17">
       <c r="K189" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q189" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="190" spans="11:17">
       <c r="K190" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q190" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="191" spans="11:17">
       <c r="K191" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q191" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="192" spans="11:17">
       <c r="K192" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q192" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="193" spans="11:17">
       <c r="K193" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q193" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="194" spans="11:17">
       <c r="K194" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q194" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="11:17">
       <c r="K195" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q195" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="196" spans="11:17">
       <c r="K196" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q196" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="197" spans="11:17">
       <c r="K197" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q197" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="198" spans="11:17">
       <c r="K198" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q198" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="199" spans="11:17">
       <c r="K199" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q199" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="200" spans="11:17">
       <c r="K200" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q200" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="201" spans="11:17">
       <c r="K201" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q201" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="202" spans="11:17">
       <c r="K202" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q202" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="203" spans="11:17">
       <c r="K203" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q203" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="204" spans="11:17">
       <c r="K204" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q204" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="205" spans="11:17">
       <c r="K205" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q205" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="206" spans="11:17">
       <c r="K206" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q206" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="207" spans="11:17">
       <c r="K207" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q207" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="208" spans="11:17">
       <c r="K208" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q208" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="209" spans="11:17">
       <c r="K209" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q209" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="210" spans="11:17">
       <c r="K210" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q210" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="211" spans="11:17">
       <c r="K211" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q211" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="212" spans="11:17">
       <c r="K212" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q212" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="11:17">
       <c r="K213" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q213" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="214" spans="11:17">
       <c r="K214" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q214" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="11:17">
       <c r="K215" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q215" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="11:17">
       <c r="K216" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q216" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="217" spans="11:17">
       <c r="K217" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q217" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="218" spans="11:17">
       <c r="K218" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q218" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="219" spans="11:17">
       <c r="K219" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q219" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="220" spans="11:17">
       <c r="K220" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q220" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="11:17">
       <c r="K221" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q221" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="11:17">
       <c r="K222" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q222" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="223" spans="11:17">
       <c r="K223" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q223" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="224" spans="11:17">
       <c r="K224" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q224" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="225" spans="11:17">
       <c r="K225" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q225" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="226" spans="11:17">
       <c r="K226" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q226" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="227" spans="11:17">
       <c r="K227" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q227" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="228" spans="11:17">
       <c r="K228" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q228" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="229" spans="11:17">
       <c r="K229" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q229" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="11:17">
       <c r="K230" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q230" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="11:17">
       <c r="K231" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q231" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="11:17">
       <c r="K232" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q232" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="11:17">
       <c r="K233" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q233" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="234" spans="11:17">
       <c r="K234" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q234" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="11:17">
       <c r="K235" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q235" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="11:17">
       <c r="K236" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q236" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="11:17">
       <c r="K237" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q237" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="238" spans="11:17">
       <c r="K238" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q238" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="239" spans="11:17">
       <c r="K239" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q239" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="240" spans="11:17">
       <c r="K240" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q240" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="241" spans="11:17">
       <c r="K241" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q241" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="11:17">
       <c r="K242" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q242" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="243" spans="11:17">
       <c r="K243" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q243" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="244" spans="11:17">
       <c r="K244" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q244" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="245" spans="11:17">
       <c r="K245" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="246" spans="11:17">
       <c r="K246" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q246" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="247" spans="11:17">
       <c r="K247" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q247" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="248" spans="11:17">
       <c r="K248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q248" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="11:17">
       <c r="K249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q249" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="250" spans="11:17">
       <c r="K250" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q250" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="251" spans="11:17">
       <c r="K251" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q251" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="252" spans="11:17">
       <c r="K252" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q252" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="253" spans="11:17">
       <c r="K253" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q253" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="254" spans="11:17">
       <c r="K254" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q254" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="255" spans="11:17">
       <c r="K255" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q255" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="11:17">
       <c r="K256" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q256" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="11:17">
       <c r="K257" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q257" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="11:17">
       <c r="K258" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q258" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="259" spans="11:17">
       <c r="K259" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q259" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="260" spans="11:17">
       <c r="K260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q260" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="261" spans="11:17">
       <c r="K261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q261" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="11:17">
       <c r="K262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q262" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="263" spans="11:17">
       <c r="K263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q263" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="264" spans="11:17">
       <c r="K264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q264" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="265" spans="11:17">
       <c r="K265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q265" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="266" spans="11:17">
       <c r="K266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q266" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="267" spans="11:17">
       <c r="K267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q267" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="268" spans="11:17">
       <c r="K268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q268" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="269" spans="11:17">
       <c r="K269" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q269" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="270" spans="11:17">
       <c r="K270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q270" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="271" spans="11:17">
       <c r="K271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q271" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="272" spans="11:17">
       <c r="K272" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q272" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="273" spans="11:17">
       <c r="K273" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q273" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -24,7 +24,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$84</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="642">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T10x4RS</t>
   </si>
   <si>
     <t>DNBSEQ-T7</t>
@@ -2498,7 +2501,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2542,7 +2545,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2572,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N84"/>
+  <dimension ref="G1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3286,6 +3289,11 @@
     </row>
     <row r="84" spans="14:14">
       <c r="N84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="14:14">
+      <c r="N85" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3310,27 +3318,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3353,122 +3361,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3495,192 +3503,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -3721,241 +3729,241 @@
   <sheetData>
     <row r="1" spans="9:23">
       <c r="I1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="R1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="V1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="W1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="2" spans="9:23">
       <c r="I2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="V2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="3" spans="9:23">
       <c r="I3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="V3" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="W3" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="V4" t="s">
+        <v>590</v>
+      </c>
+      <c r="W4" t="s">
         <v>589</v>
-      </c>
-      <c r="W4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V5" t="s">
+        <v>591</v>
+      </c>
+      <c r="W5" t="s">
         <v>590</v>
-      </c>
-      <c r="W5" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V6" t="s">
+        <v>592</v>
+      </c>
+      <c r="W6" t="s">
         <v>591</v>
-      </c>
-      <c r="W6" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V7" t="s">
+        <v>593</v>
+      </c>
+      <c r="W7" t="s">
         <v>592</v>
-      </c>
-      <c r="W7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V8" t="s">
+        <v>594</v>
+      </c>
+      <c r="W8" t="s">
         <v>593</v>
-      </c>
-      <c r="W8" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V9" t="s">
+        <v>595</v>
+      </c>
+      <c r="W9" t="s">
         <v>594</v>
-      </c>
-      <c r="W9" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="V10" t="s">
+        <v>596</v>
+      </c>
+      <c r="W10" t="s">
         <v>595</v>
-      </c>
-      <c r="W10" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q11" t="s">
         <v>294</v>
       </c>
-      <c r="Q11" t="s">
-        <v>293</v>
-      </c>
       <c r="V11" t="s">
+        <v>597</v>
+      </c>
+      <c r="W11" t="s">
         <v>596</v>
-      </c>
-      <c r="W11" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q12" t="s">
         <v>295</v>
       </c>
-      <c r="Q12" t="s">
-        <v>294</v>
-      </c>
       <c r="V12" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W12" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q13" t="s">
         <v>296</v>
       </c>
-      <c r="Q13" t="s">
-        <v>295</v>
-      </c>
       <c r="V13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q14" t="s">
         <v>297</v>
       </c>
-      <c r="Q14" t="s">
-        <v>296</v>
-      </c>
       <c r="V14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W14" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q15" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="W15" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q16" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3963,2141 +3971,2141 @@
     </row>
     <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q17" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W17" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q18" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q19" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q20" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q21" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q22" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q24" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q25" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q26" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q27" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q28" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q29" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q30" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q31" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q32" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33" spans="11:17">
       <c r="K33" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q33" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="34" spans="11:17">
       <c r="K34" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q34" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="35" spans="11:17">
       <c r="K35" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q35" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="11:17">
       <c r="K36" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="37" spans="11:17">
       <c r="K37" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q37" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38" spans="11:17">
       <c r="K38" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q38" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="39" spans="11:17">
       <c r="K39" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q39" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="40" spans="11:17">
       <c r="K40" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q40" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="41" spans="11:17">
       <c r="K41" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q41" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="11:17">
       <c r="K42" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q42" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="43" spans="11:17">
       <c r="K43" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q43" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="44" spans="11:17">
       <c r="K44" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q44" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="11:17">
       <c r="K45" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q45" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="46" spans="11:17">
       <c r="K46" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q46" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="47" spans="11:17">
       <c r="K47" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q47" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48" spans="11:17">
       <c r="K48" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q48" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="11:17">
       <c r="K49" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q49" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="11:17">
       <c r="K50" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q50" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="51" spans="11:17">
       <c r="K51" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q51" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="52" spans="11:17">
       <c r="K52" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q52" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="53" spans="11:17">
       <c r="K53" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q53" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="54" spans="11:17">
       <c r="K54" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q54" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" spans="11:17">
       <c r="K55" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q55" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="56" spans="11:17">
       <c r="K56" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="57" spans="11:17">
       <c r="K57" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="58" spans="11:17">
       <c r="K58" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="59" spans="11:17">
       <c r="K59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q59" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="60" spans="11:17">
       <c r="K60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q60" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="11:17">
       <c r="K61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="62" spans="11:17">
       <c r="K62" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="63" spans="11:17">
       <c r="K63" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q63" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="11:17">
       <c r="K64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="65" spans="11:17">
       <c r="K65" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q65" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="66" spans="11:17">
       <c r="K66" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q66" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="67" spans="11:17">
       <c r="K67" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="68" spans="11:17">
       <c r="K68" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="11:17">
       <c r="K69" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q69" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="70" spans="11:17">
       <c r="K70" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q70" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="71" spans="11:17">
       <c r="K71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q71" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="72" spans="11:17">
       <c r="K72" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q72" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="11:17">
       <c r="K73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q73" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="11:17">
       <c r="K74" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q74" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="75" spans="11:17">
       <c r="K75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q75" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="76" spans="11:17">
       <c r="K76" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="11:17">
       <c r="K77" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q77" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="78" spans="11:17">
       <c r="K78" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79" spans="11:17">
       <c r="K79" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q79" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="80" spans="11:17">
       <c r="K80" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="81" spans="11:17">
       <c r="K81" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q81" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="82" spans="11:17">
       <c r="K82" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q82" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="11:17">
       <c r="K83" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q83" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="84" spans="11:17">
       <c r="K84" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="85" spans="11:17">
       <c r="K85" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q85" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="86" spans="11:17">
       <c r="K86" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q86" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="11:17">
       <c r="K87" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q87" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="11:17">
       <c r="K88" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q88" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="89" spans="11:17">
       <c r="K89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q89" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="90" spans="11:17">
       <c r="K90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q90" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="91" spans="11:17">
       <c r="K91" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q91" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="92" spans="11:17">
       <c r="K92" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q92" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="93" spans="11:17">
       <c r="K93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q93" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="11:17">
       <c r="K94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q94" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="95" spans="11:17">
       <c r="K95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q95" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="96" spans="11:17">
       <c r="K96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q96" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="97" spans="11:17">
       <c r="K97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q97" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="98" spans="11:17">
       <c r="K98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q98" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="99" spans="11:17">
       <c r="K99" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q99" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="100" spans="11:17">
       <c r="K100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q100" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="101" spans="11:17">
       <c r="K101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q101" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="11:17">
       <c r="K102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q102" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="11:17">
       <c r="K103" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q103" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="104" spans="11:17">
       <c r="K104" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q104" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="105" spans="11:17">
       <c r="K105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q105" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="106" spans="11:17">
       <c r="K106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q106" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="11:17">
       <c r="K107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q107" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="108" spans="11:17">
       <c r="K108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q108" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="109" spans="11:17">
       <c r="K109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q109" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="110" spans="11:17">
       <c r="K110" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q110" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="111" spans="11:17">
       <c r="K111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q111" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="112" spans="11:17">
       <c r="K112" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q112" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="113" spans="11:17">
       <c r="K113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="114" spans="11:17">
       <c r="K114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q114" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="115" spans="11:17">
       <c r="K115" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q115" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="116" spans="11:17">
       <c r="K116" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q116" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="117" spans="11:17">
       <c r="K117" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="118" spans="11:17">
       <c r="K118" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q118" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="119" spans="11:17">
       <c r="K119" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q119" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="120" spans="11:17">
       <c r="K120" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q120" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="121" spans="11:17">
       <c r="K121" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q121" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="122" spans="11:17">
       <c r="K122" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q122" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="123" spans="11:17">
       <c r="K123" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q123" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="124" spans="11:17">
       <c r="K124" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q124" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" spans="11:17">
       <c r="K125" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q125" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="126" spans="11:17">
       <c r="K126" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q126" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="127" spans="11:17">
       <c r="K127" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q127" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="128" spans="11:17">
       <c r="K128" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q128" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="129" spans="11:17">
       <c r="K129" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q129" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="11:17">
       <c r="K130" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q130" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="11:17">
       <c r="K131" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="132" spans="11:17">
       <c r="K132" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q132" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="133" spans="11:17">
       <c r="K133" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q133" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="134" spans="11:17">
       <c r="K134" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q134" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="135" spans="11:17">
       <c r="K135" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q135" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="136" spans="11:17">
       <c r="K136" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q136" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="137" spans="11:17">
       <c r="K137" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q137" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="138" spans="11:17">
       <c r="K138" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q138" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="11:17">
       <c r="K139" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q139" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="140" spans="11:17">
       <c r="K140" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q140" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="141" spans="11:17">
       <c r="K141" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q141" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="142" spans="11:17">
       <c r="K142" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q142" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="11:17">
       <c r="K143" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q143" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="144" spans="11:17">
       <c r="K144" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q144" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="145" spans="11:17">
       <c r="K145" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q145" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="146" spans="11:17">
       <c r="K146" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q146" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="147" spans="11:17">
       <c r="K147" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q147" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="11:17">
       <c r="K148" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q148" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="149" spans="11:17">
       <c r="K149" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q149" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="150" spans="11:17">
       <c r="K150" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q150" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="151" spans="11:17">
       <c r="K151" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q151" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="152" spans="11:17">
       <c r="K152" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q152" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="153" spans="11:17">
       <c r="K153" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q153" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="154" spans="11:17">
       <c r="K154" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q154" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="155" spans="11:17">
       <c r="K155" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q155" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="156" spans="11:17">
       <c r="K156" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q156" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="157" spans="11:17">
       <c r="K157" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q157" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="158" spans="11:17">
       <c r="K158" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q158" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="159" spans="11:17">
       <c r="K159" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q159" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="160" spans="11:17">
       <c r="K160" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q160" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="161" spans="11:17">
       <c r="K161" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q161" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="162" spans="11:17">
       <c r="K162" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q162" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="163" spans="11:17">
       <c r="K163" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q163" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="11:17">
       <c r="K164" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q164" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="165" spans="11:17">
       <c r="K165" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q165" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="166" spans="11:17">
       <c r="K166" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q166" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="167" spans="11:17">
       <c r="K167" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q167" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="168" spans="11:17">
       <c r="K168" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q168" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="169" spans="11:17">
       <c r="K169" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q169" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="170" spans="11:17">
       <c r="K170" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q170" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="171" spans="11:17">
       <c r="K171" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q171" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="172" spans="11:17">
       <c r="K172" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q172" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="173" spans="11:17">
       <c r="K173" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="174" spans="11:17">
       <c r="K174" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q174" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="175" spans="11:17">
       <c r="K175" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q175" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="176" spans="11:17">
       <c r="K176" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q176" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="177" spans="11:17">
       <c r="K177" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q177" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="178" spans="11:17">
       <c r="K178" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q178" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="179" spans="11:17">
       <c r="K179" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q179" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="180" spans="11:17">
       <c r="K180" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q180" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="181" spans="11:17">
       <c r="K181" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q181" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="182" spans="11:17">
       <c r="K182" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q182" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="183" spans="11:17">
       <c r="K183" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q183" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="184" spans="11:17">
       <c r="K184" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q184" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="185" spans="11:17">
       <c r="K185" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q185" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="186" spans="11:17">
       <c r="K186" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q186" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="187" spans="11:17">
       <c r="K187" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q187" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="188" spans="11:17">
       <c r="K188" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q188" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="189" spans="11:17">
       <c r="K189" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q189" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="190" spans="11:17">
       <c r="K190" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q190" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="191" spans="11:17">
       <c r="K191" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q191" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="192" spans="11:17">
       <c r="K192" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q192" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="193" spans="11:17">
       <c r="K193" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q193" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="194" spans="11:17">
       <c r="K194" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q194" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="195" spans="11:17">
       <c r="K195" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q195" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="196" spans="11:17">
       <c r="K196" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q196" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="197" spans="11:17">
       <c r="K197" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q197" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="198" spans="11:17">
       <c r="K198" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q198" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="199" spans="11:17">
       <c r="K199" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q199" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="200" spans="11:17">
       <c r="K200" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q200" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="201" spans="11:17">
       <c r="K201" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q201" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="202" spans="11:17">
       <c r="K202" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q202" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="203" spans="11:17">
       <c r="K203" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q203" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="204" spans="11:17">
       <c r="K204" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q204" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="205" spans="11:17">
       <c r="K205" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q205" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="206" spans="11:17">
       <c r="K206" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q206" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="207" spans="11:17">
       <c r="K207" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q207" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="208" spans="11:17">
       <c r="K208" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q208" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="209" spans="11:17">
       <c r="K209" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q209" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="210" spans="11:17">
       <c r="K210" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q210" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="211" spans="11:17">
       <c r="K211" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q211" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="11:17">
       <c r="K212" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q212" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="11:17">
       <c r="K213" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q213" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="11:17">
       <c r="K214" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q214" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="215" spans="11:17">
       <c r="K215" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q215" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="216" spans="11:17">
       <c r="K216" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q216" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="11:17">
       <c r="K217" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q217" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="11:17">
       <c r="K218" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q218" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="11:17">
       <c r="K219" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q219" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="11:17">
       <c r="K220" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q220" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="221" spans="11:17">
       <c r="K221" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q221" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="222" spans="11:17">
       <c r="K222" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q222" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="223" spans="11:17">
       <c r="K223" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q223" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="224" spans="11:17">
       <c r="K224" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q224" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="225" spans="11:17">
       <c r="K225" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q225" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="226" spans="11:17">
       <c r="K226" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q226" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="11:17">
       <c r="K227" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q227" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="11:17">
       <c r="K228" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q228" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="229" spans="11:17">
       <c r="K229" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q229" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="230" spans="11:17">
       <c r="K230" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q230" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="231" spans="11:17">
       <c r="K231" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q231" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="232" spans="11:17">
       <c r="K232" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q232" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="233" spans="11:17">
       <c r="K233" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q233" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="234" spans="11:17">
       <c r="K234" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q234" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="235" spans="11:17">
       <c r="K235" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q235" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="236" spans="11:17">
       <c r="K236" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q236" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="237" spans="11:17">
       <c r="K237" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q237" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="238" spans="11:17">
       <c r="K238" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q238" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="239" spans="11:17">
       <c r="K239" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q239" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="240" spans="11:17">
       <c r="K240" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q240" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="241" spans="11:17">
       <c r="K241" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q241" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="242" spans="11:17">
       <c r="K242" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q242" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="243" spans="11:17">
       <c r="K243" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q243" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="244" spans="11:17">
       <c r="K244" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q244" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="245" spans="11:17">
       <c r="K245" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q245" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="246" spans="11:17">
       <c r="K246" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="247" spans="11:17">
       <c r="K247" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q247" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="248" spans="11:17">
       <c r="K248" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q248" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="249" spans="11:17">
       <c r="K249" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q249" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="250" spans="11:17">
       <c r="K250" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q250" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="251" spans="11:17">
       <c r="K251" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q251" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="252" spans="11:17">
       <c r="K252" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q252" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="253" spans="11:17">
       <c r="K253" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q253" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="254" spans="11:17">
       <c r="K254" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q254" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="255" spans="11:17">
       <c r="K255" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q255" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="256" spans="11:17">
       <c r="K256" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q256" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="257" spans="11:17">
       <c r="K257" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q257" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="258" spans="11:17">
       <c r="K258" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q258" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="259" spans="11:17">
       <c r="K259" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q259" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="260" spans="11:17">
       <c r="K260" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q260" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261" spans="11:17">
       <c r="K261" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="11:17">
       <c r="K262" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q262" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="11:17">
       <c r="K263" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q263" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="11:17">
       <c r="K264" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q264" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="11:17">
       <c r="K265" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q265" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="266" spans="11:17">
       <c r="K266" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q266" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="267" spans="11:17">
       <c r="K267" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q267" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="268" spans="11:17">
       <c r="K268" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q268" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="269" spans="11:17">
       <c r="K269" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q269" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="270" spans="11:17">
       <c r="K270" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q270" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="271" spans="11:17">
       <c r="K271" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q271" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="272" spans="11:17">
       <c r="K272" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q272" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="273" spans="11:17">
       <c r="K273" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q273" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -24,7 +24,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$85</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="643">
   <si>
     <t>alias</t>
   </si>
@@ -724,6 +724,9 @@
   </si>
   <si>
     <t>UG 100</t>
+  </si>
+  <si>
+    <t>Vega</t>
   </si>
   <si>
     <t>instrument_model</t>
@@ -2501,7 +2504,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2545,7 +2548,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -2572,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N85"/>
+  <dimension ref="G1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3294,6 +3297,11 @@
     </row>
     <row r="85" spans="14:14">
       <c r="N85" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="86" spans="14:14">
+      <c r="N86" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3318,27 +3326,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3361,122 +3369,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3503,192 +3511,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -3729,241 +3737,241 @@
   <sheetData>
     <row r="1" spans="9:23">
       <c r="I1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="V1" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="W1" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2" spans="9:23">
       <c r="I2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R2" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="V2" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="W2" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="9:23">
       <c r="I3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R3" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="V3" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W3" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="V4" t="s">
+        <v>591</v>
+      </c>
+      <c r="W4" t="s">
         <v>590</v>
-      </c>
-      <c r="W4" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V5" t="s">
+        <v>592</v>
+      </c>
+      <c r="W5" t="s">
         <v>591</v>
-      </c>
-      <c r="W5" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V6" t="s">
+        <v>593</v>
+      </c>
+      <c r="W6" t="s">
         <v>592</v>
-      </c>
-      <c r="W6" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V7" t="s">
+        <v>594</v>
+      </c>
+      <c r="W7" t="s">
         <v>593</v>
-      </c>
-      <c r="W7" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q8" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V8" t="s">
+        <v>595</v>
+      </c>
+      <c r="W8" t="s">
         <v>594</v>
-      </c>
-      <c r="W8" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V9" t="s">
+        <v>596</v>
+      </c>
+      <c r="W9" t="s">
         <v>595</v>
-      </c>
-      <c r="W9" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="V10" t="s">
+        <v>597</v>
+      </c>
+      <c r="W10" t="s">
         <v>596</v>
-      </c>
-      <c r="W10" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q11" t="s">
         <v>295</v>
       </c>
-      <c r="Q11" t="s">
-        <v>294</v>
-      </c>
       <c r="V11" t="s">
+        <v>598</v>
+      </c>
+      <c r="W11" t="s">
         <v>597</v>
-      </c>
-      <c r="W11" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q12" t="s">
         <v>296</v>
       </c>
-      <c r="Q12" t="s">
-        <v>295</v>
-      </c>
       <c r="V12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="W12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q13" t="s">
         <v>297</v>
       </c>
-      <c r="Q13" t="s">
-        <v>296</v>
-      </c>
       <c r="V13" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W13" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q14" t="s">
         <v>298</v>
       </c>
-      <c r="Q14" t="s">
-        <v>297</v>
-      </c>
       <c r="V14" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W14" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q15" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="W15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q16" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3971,2141 +3979,2141 @@
     </row>
     <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W17" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q18" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q19" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q21" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q22" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q25" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q26" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q27" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q28" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q29" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q30" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q31" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q32" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="11:17">
       <c r="K33" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q33" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="11:17">
       <c r="K34" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q34" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="11:17">
       <c r="K35" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q35" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="36" spans="11:17">
       <c r="K36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="37" spans="11:17">
       <c r="K37" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q37" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="11:17">
       <c r="K38" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q38" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39" spans="11:17">
       <c r="K39" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q39" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="40" spans="11:17">
       <c r="K40" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q40" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="11:17">
       <c r="K41" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q41" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="11:17">
       <c r="K42" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q42" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="11:17">
       <c r="K43" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q43" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="44" spans="11:17">
       <c r="K44" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q44" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="11:17">
       <c r="K45" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q45" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" spans="11:17">
       <c r="K46" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q46" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="47" spans="11:17">
       <c r="K47" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q47" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="48" spans="11:17">
       <c r="K48" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q48" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="49" spans="11:17">
       <c r="K49" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q49" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="11:17">
       <c r="K50" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q50" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="11:17">
       <c r="K51" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="52" spans="11:17">
       <c r="K52" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q52" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="11:17">
       <c r="K53" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q53" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="54" spans="11:17">
       <c r="K54" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q54" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="55" spans="11:17">
       <c r="K55" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q55" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="56" spans="11:17">
       <c r="K56" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q56" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="57" spans="11:17">
       <c r="K57" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q57" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="58" spans="11:17">
       <c r="K58" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="59" spans="11:17">
       <c r="K59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="60" spans="11:17">
       <c r="K60" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q60" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="61" spans="11:17">
       <c r="K61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q61" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62" spans="11:17">
       <c r="K62" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="11:17">
       <c r="K63" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q63" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="64" spans="11:17">
       <c r="K64" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q64" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="65" spans="11:17">
       <c r="K65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q65" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="66" spans="11:17">
       <c r="K66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q66" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="67" spans="11:17">
       <c r="K67" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="68" spans="11:17">
       <c r="K68" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="11:17">
       <c r="K69" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q69" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="11:17">
       <c r="K70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q70" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="71" spans="11:17">
       <c r="K71" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q71" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="11:17">
       <c r="K72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q72" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="73" spans="11:17">
       <c r="K73" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q73" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="74" spans="11:17">
       <c r="K74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q74" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" spans="11:17">
       <c r="K75" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="76" spans="11:17">
       <c r="K76" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q76" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="77" spans="11:17">
       <c r="K77" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="78" spans="11:17">
       <c r="K78" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q78" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="79" spans="11:17">
       <c r="K79" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="80" spans="11:17">
       <c r="K80" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q80" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81" spans="11:17">
       <c r="K81" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q81" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="82" spans="11:17">
       <c r="K82" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q82" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="83" spans="11:17">
       <c r="K83" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q83" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="11:17">
       <c r="K84" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="85" spans="11:17">
       <c r="K85" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q85" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="86" spans="11:17">
       <c r="K86" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q86" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="11:17">
       <c r="K87" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q87" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="11:17">
       <c r="K88" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q88" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="89" spans="11:17">
       <c r="K89" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q89" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="90" spans="11:17">
       <c r="K90" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q90" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="91" spans="11:17">
       <c r="K91" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q91" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="92" spans="11:17">
       <c r="K92" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q92" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="93" spans="11:17">
       <c r="K93" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q93" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="94" spans="11:17">
       <c r="K94" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q94" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="95" spans="11:17">
       <c r="K95" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q95" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="96" spans="11:17">
       <c r="K96" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q96" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="97" spans="11:17">
       <c r="K97" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q97" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="98" spans="11:17">
       <c r="K98" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q98" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="99" spans="11:17">
       <c r="K99" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q99" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="11:17">
       <c r="K100" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q100" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="101" spans="11:17">
       <c r="K101" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q101" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="102" spans="11:17">
       <c r="K102" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q102" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="11:17">
       <c r="K103" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q103" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="104" spans="11:17">
       <c r="K104" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q104" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="105" spans="11:17">
       <c r="K105" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q105" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="106" spans="11:17">
       <c r="K106" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q106" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="107" spans="11:17">
       <c r="K107" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q107" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="108" spans="11:17">
       <c r="K108" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q108" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="109" spans="11:17">
       <c r="K109" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q109" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="110" spans="11:17">
       <c r="K110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q110" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="111" spans="11:17">
       <c r="K111" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q111" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="112" spans="11:17">
       <c r="K112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="113" spans="11:17">
       <c r="K113" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q113" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="114" spans="11:17">
       <c r="K114" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="115" spans="11:17">
       <c r="K115" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q115" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" spans="11:17">
       <c r="K116" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="117" spans="11:17">
       <c r="K117" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q117" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="118" spans="11:17">
       <c r="K118" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q118" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="119" spans="11:17">
       <c r="K119" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q119" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="120" spans="11:17">
       <c r="K120" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q120" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="121" spans="11:17">
       <c r="K121" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q121" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="122" spans="11:17">
       <c r="K122" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q122" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="123" spans="11:17">
       <c r="K123" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q123" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="11:17">
       <c r="K124" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q124" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="125" spans="11:17">
       <c r="K125" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q125" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" spans="11:17">
       <c r="K126" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q126" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="127" spans="11:17">
       <c r="K127" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q127" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="11:17">
       <c r="K128" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q128" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="11:17">
       <c r="K129" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q129" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="11:17">
       <c r="K130" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q130" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="131" spans="11:17">
       <c r="K131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q131" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="132" spans="11:17">
       <c r="K132" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q132" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="11:17">
       <c r="K133" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q133" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="134" spans="11:17">
       <c r="K134" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q134" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="135" spans="11:17">
       <c r="K135" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q135" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="136" spans="11:17">
       <c r="K136" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="137" spans="11:17">
       <c r="K137" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q137" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="138" spans="11:17">
       <c r="K138" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q138" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="139" spans="11:17">
       <c r="K139" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q139" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="140" spans="11:17">
       <c r="K140" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q140" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="141" spans="11:17">
       <c r="K141" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q141" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="142" spans="11:17">
       <c r="K142" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q142" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="143" spans="11:17">
       <c r="K143" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q143" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="144" spans="11:17">
       <c r="K144" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q144" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="145" spans="11:17">
       <c r="K145" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q145" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="146" spans="11:17">
       <c r="K146" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q146" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="147" spans="11:17">
       <c r="K147" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q147" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="11:17">
       <c r="K148" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q148" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="11:17">
       <c r="K149" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q149" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="11:17">
       <c r="K150" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q150" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="151" spans="11:17">
       <c r="K151" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q151" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="152" spans="11:17">
       <c r="K152" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q152" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="153" spans="11:17">
       <c r="K153" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q153" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="154" spans="11:17">
       <c r="K154" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q154" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="155" spans="11:17">
       <c r="K155" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q155" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="156" spans="11:17">
       <c r="K156" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q156" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="157" spans="11:17">
       <c r="K157" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q157" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="158" spans="11:17">
       <c r="K158" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q158" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="159" spans="11:17">
       <c r="K159" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q159" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="160" spans="11:17">
       <c r="K160" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q160" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="161" spans="11:17">
       <c r="K161" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q161" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="162" spans="11:17">
       <c r="K162" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q162" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="11:17">
       <c r="K163" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q163" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="164" spans="11:17">
       <c r="K164" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q164" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="165" spans="11:17">
       <c r="K165" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q165" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="166" spans="11:17">
       <c r="K166" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q166" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="167" spans="11:17">
       <c r="K167" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q167" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="168" spans="11:17">
       <c r="K168" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q168" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="169" spans="11:17">
       <c r="K169" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q169" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="170" spans="11:17">
       <c r="K170" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q170" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="171" spans="11:17">
       <c r="K171" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q171" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="172" spans="11:17">
       <c r="K172" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q172" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="173" spans="11:17">
       <c r="K173" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q173" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="11:17">
       <c r="K174" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q174" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="175" spans="11:17">
       <c r="K175" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q175" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="176" spans="11:17">
       <c r="K176" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q176" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="177" spans="11:17">
       <c r="K177" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q177" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="178" spans="11:17">
       <c r="K178" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q178" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="179" spans="11:17">
       <c r="K179" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q179" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="180" spans="11:17">
       <c r="K180" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q180" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="181" spans="11:17">
       <c r="K181" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q181" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="182" spans="11:17">
       <c r="K182" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q182" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="183" spans="11:17">
       <c r="K183" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q183" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" spans="11:17">
       <c r="K184" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q184" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="185" spans="11:17">
       <c r="K185" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q185" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="186" spans="11:17">
       <c r="K186" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q186" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="187" spans="11:17">
       <c r="K187" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q187" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="188" spans="11:17">
       <c r="K188" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q188" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="11:17">
       <c r="K189" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q189" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="11:17">
       <c r="K190" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q190" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="191" spans="11:17">
       <c r="K191" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q191" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="192" spans="11:17">
       <c r="K192" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q192" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="11:17">
       <c r="K193" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q193" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="11:17">
       <c r="K194" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q194" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="11:17">
       <c r="K195" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q195" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="11:17">
       <c r="K196" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q196" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="11:17">
       <c r="K197" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q197" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="11:17">
       <c r="K198" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q198" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="11:17">
       <c r="K199" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q199" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="11:17">
       <c r="K200" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q200" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="11:17">
       <c r="K201" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q201" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="11:17">
       <c r="K202" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q202" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="11:17">
       <c r="K203" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q203" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="11:17">
       <c r="K204" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q204" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="11:17">
       <c r="K205" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q205" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="11:17">
       <c r="K206" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q206" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="11:17">
       <c r="K207" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q207" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="11:17">
       <c r="K208" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q208" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="209" spans="11:17">
       <c r="K209" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q209" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="210" spans="11:17">
       <c r="K210" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q210" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="11:17">
       <c r="K211" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q211" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="212" spans="11:17">
       <c r="K212" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q212" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="213" spans="11:17">
       <c r="K213" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q213" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="214" spans="11:17">
       <c r="K214" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q214" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="215" spans="11:17">
       <c r="K215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q215" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="216" spans="11:17">
       <c r="K216" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q216" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="217" spans="11:17">
       <c r="K217" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q217" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="218" spans="11:17">
       <c r="K218" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q218" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="219" spans="11:17">
       <c r="K219" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q219" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="220" spans="11:17">
       <c r="K220" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q220" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="221" spans="11:17">
       <c r="K221" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q221" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="222" spans="11:17">
       <c r="K222" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q222" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="223" spans="11:17">
       <c r="K223" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q223" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="224" spans="11:17">
       <c r="K224" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q224" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="225" spans="11:17">
       <c r="K225" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q225" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="226" spans="11:17">
       <c r="K226" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q226" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="227" spans="11:17">
       <c r="K227" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q227" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="228" spans="11:17">
       <c r="K228" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q228" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="229" spans="11:17">
       <c r="K229" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q229" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="230" spans="11:17">
       <c r="K230" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q230" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="231" spans="11:17">
       <c r="K231" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q231" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="232" spans="11:17">
       <c r="K232" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q232" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="11:17">
       <c r="K233" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q233" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="234" spans="11:17">
       <c r="K234" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q234" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="235" spans="11:17">
       <c r="K235" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q235" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="236" spans="11:17">
       <c r="K236" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q236" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="237" spans="11:17">
       <c r="K237" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q237" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="238" spans="11:17">
       <c r="K238" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q238" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="11:17">
       <c r="K239" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q239" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="11:17">
       <c r="K240" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q240" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="11:17">
       <c r="K241" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q241" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="11:17">
       <c r="K242" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q242" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="11:17">
       <c r="K243" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q243" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="11:17">
       <c r="K244" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q244" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="11:17">
       <c r="K245" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q245" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="246" spans="11:17">
       <c r="K246" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q246" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="247" spans="11:17">
       <c r="K247" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q247" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="248" spans="11:17">
       <c r="K248" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q248" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="249" spans="11:17">
       <c r="K249" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q249" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="11:17">
       <c r="K250" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q250" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="251" spans="11:17">
       <c r="K251" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q251" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="252" spans="11:17">
       <c r="K252" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q252" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="11:17">
       <c r="K253" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q253" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="11:17">
       <c r="K254" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q254" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="11:17">
       <c r="K255" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q255" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="11:17">
       <c r="K256" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q256" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="11:17">
       <c r="K257" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q257" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="11:17">
       <c r="K258" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q258" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="11:17">
       <c r="K259" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q259" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="11:17">
       <c r="K260" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q260" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="261" spans="11:17">
       <c r="K261" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q261" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="262" spans="11:17">
       <c r="K262" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q262" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="263" spans="11:17">
       <c r="K263" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q263" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="264" spans="11:17">
       <c r="K264" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q264" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="265" spans="11:17">
       <c r="K265" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q265" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="11:17">
       <c r="K266" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q266" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="11:17">
       <c r="K267" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q267" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="11:17">
       <c r="K268" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q268" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="11:17">
       <c r="K269" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q269" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="11:17">
       <c r="K270" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q270" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="11:17">
       <c r="K271" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q271" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="11:17">
       <c r="K272" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q272" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="11:17">
       <c r="K273" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q273" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -24,7 +24,7 @@
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
-    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$86</definedName>
+    <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="644">
   <si>
     <t>alias</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>DNBSEQ-G50</t>
+  </si>
+  <si>
+    <t>DNBSEQ-G800</t>
   </si>
   <si>
     <t>DNBSEQ-T10x4RS</t>
@@ -2504,7 +2507,7 @@
         <v>143</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="150" customHeight="1">
@@ -2548,7 +2551,7 @@
         <v>144</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2575,7 +2578,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G1:N86"/>
+  <dimension ref="G1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3302,6 +3305,11 @@
     </row>
     <row r="86" spans="14:14">
       <c r="N86" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="87" spans="14:14">
+      <c r="N87" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3326,27 +3334,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -3369,122 +3377,122 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="4:4">
       <c r="D2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="4:4">
       <c r="D3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="4:4">
       <c r="D4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="4:4">
       <c r="D5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="4:4">
       <c r="D6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="4:4">
       <c r="D7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="8" spans="4:4">
       <c r="D8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9" spans="4:4">
       <c r="D9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="4:4">
       <c r="D10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="4:4">
       <c r="D12" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="4:4">
       <c r="D13" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="4:4">
       <c r="D14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="4:4">
       <c r="D15" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="16" spans="4:4">
       <c r="D16" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -3511,192 +3519,192 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -3737,241 +3745,241 @@
   <sheetData>
     <row r="1" spans="9:23">
       <c r="I1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="R1" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="V1" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="W1" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="9:23">
       <c r="I2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="R2" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="V2" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="W2" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="9:23">
       <c r="I3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="R3" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="V3" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="W3" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="9:23">
       <c r="K4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="V4" t="s">
+        <v>592</v>
+      </c>
+      <c r="W4" t="s">
         <v>591</v>
-      </c>
-      <c r="W4" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="5" spans="9:23">
       <c r="K5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="V5" t="s">
+        <v>593</v>
+      </c>
+      <c r="W5" t="s">
         <v>592</v>
-      </c>
-      <c r="W5" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="6" spans="9:23">
       <c r="K6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q6" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="V6" t="s">
+        <v>594</v>
+      </c>
+      <c r="W6" t="s">
         <v>593</v>
-      </c>
-      <c r="W6" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="7" spans="9:23">
       <c r="K7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="V7" t="s">
+        <v>595</v>
+      </c>
+      <c r="W7" t="s">
         <v>594</v>
-      </c>
-      <c r="W7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="8" spans="9:23">
       <c r="K8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q8" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="V8" t="s">
+        <v>596</v>
+      </c>
+      <c r="W8" t="s">
         <v>595</v>
-      </c>
-      <c r="W8" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="9" spans="9:23">
       <c r="K9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="V9" t="s">
+        <v>597</v>
+      </c>
+      <c r="W9" t="s">
         <v>596</v>
-      </c>
-      <c r="W9" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="10" spans="9:23">
       <c r="K10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="V10" t="s">
+        <v>598</v>
+      </c>
+      <c r="W10" t="s">
         <v>597</v>
-      </c>
-      <c r="W10" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="11" spans="9:23">
       <c r="K11" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q11" t="s">
         <v>296</v>
       </c>
-      <c r="Q11" t="s">
-        <v>295</v>
-      </c>
       <c r="V11" t="s">
+        <v>599</v>
+      </c>
+      <c r="W11" t="s">
         <v>598</v>
-      </c>
-      <c r="W11" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="12" spans="9:23">
       <c r="K12" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q12" t="s">
         <v>297</v>
       </c>
-      <c r="Q12" t="s">
-        <v>296</v>
-      </c>
       <c r="V12" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="W12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="9:23">
       <c r="K13" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q13" t="s">
         <v>298</v>
       </c>
-      <c r="Q13" t="s">
-        <v>297</v>
-      </c>
       <c r="V13" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W13" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="9:23">
       <c r="K14" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q14" t="s">
         <v>299</v>
       </c>
-      <c r="Q14" t="s">
-        <v>298</v>
-      </c>
       <c r="V14" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="W14" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="9:23">
       <c r="K15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q15" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="W15" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="9:23">
       <c r="K16" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q16" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="W16" t="s">
         <v>116</v>
@@ -3979,2141 +3987,2141 @@
     </row>
     <row r="17" spans="11:23">
       <c r="K17" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="W17" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="11:23">
       <c r="K18" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q18" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="11:23">
       <c r="K19" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q19" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="20" spans="11:23">
       <c r="K20" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q20" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="21" spans="11:23">
       <c r="K21" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q21" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="11:23">
       <c r="K22" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q22" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="23" spans="11:23">
       <c r="K23" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q23" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="11:23">
       <c r="K24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="11:23">
       <c r="K25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q25" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="26" spans="11:23">
       <c r="K26" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q26" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="27" spans="11:23">
       <c r="K27" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q27" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28" spans="11:23">
       <c r="K28" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q28" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="11:23">
       <c r="K29" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q29" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="30" spans="11:23">
       <c r="K30" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q30" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="11:23">
       <c r="K31" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q31" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="32" spans="11:23">
       <c r="K32" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q32" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="11:17">
       <c r="K33" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q33" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="34" spans="11:17">
       <c r="K34" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q34" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="11:17">
       <c r="K35" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q35" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="11:17">
       <c r="K36" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q36" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37" spans="11:17">
       <c r="K37" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q37" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38" spans="11:17">
       <c r="K38" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q38" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="39" spans="11:17">
       <c r="K39" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q39" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="11:17">
       <c r="K40" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q40" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="11:17">
       <c r="K41" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q41" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="11:17">
       <c r="K42" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q42" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="11:17">
       <c r="K43" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q43" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="44" spans="11:17">
       <c r="K44" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q44" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="45" spans="11:17">
       <c r="K45" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q45" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46" spans="11:17">
       <c r="K46" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q46" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="11:17">
       <c r="K47" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q47" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="48" spans="11:17">
       <c r="K48" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q48" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="11:17">
       <c r="K49" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q49" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="50" spans="11:17">
       <c r="K50" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q50" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" spans="11:17">
       <c r="K51" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q51" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="11:17">
       <c r="K52" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q52" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="11:17">
       <c r="K53" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q53" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="54" spans="11:17">
       <c r="K54" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q54" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="55" spans="11:17">
       <c r="K55" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q55" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="56" spans="11:17">
       <c r="K56" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q56" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="57" spans="11:17">
       <c r="K57" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q57" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="58" spans="11:17">
       <c r="K58" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q58" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="59" spans="11:17">
       <c r="K59" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q59" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="60" spans="11:17">
       <c r="K60" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q60" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="61" spans="11:17">
       <c r="K61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="62" spans="11:17">
       <c r="K62" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q62" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63" spans="11:17">
       <c r="K63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q63" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64" spans="11:17">
       <c r="K64" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q64" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="11:17">
       <c r="K65" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q65" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="66" spans="11:17">
       <c r="K66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q66" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="67" spans="11:17">
       <c r="K67" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="68" spans="11:17">
       <c r="K68" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q68" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="11:17">
       <c r="K69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q69" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="70" spans="11:17">
       <c r="K70" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q70" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="11:17">
       <c r="K71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q71" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="72" spans="11:17">
       <c r="K72" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q72" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="11:17">
       <c r="K73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q73" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="11:17">
       <c r="K74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="11:17">
       <c r="K75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q75" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="11:17">
       <c r="K76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="11:17">
       <c r="K77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q77" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="11:17">
       <c r="K78" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="11:17">
       <c r="K79" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q79" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="11:17">
       <c r="K80" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q80" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="81" spans="11:17">
       <c r="K81" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q81" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="82" spans="11:17">
       <c r="K82" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q82" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="83" spans="11:17">
       <c r="K83" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q83" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="84" spans="11:17">
       <c r="K84" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="85" spans="11:17">
       <c r="K85" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q85" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="86" spans="11:17">
       <c r="K86" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q86" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="87" spans="11:17">
       <c r="K87" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q87" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="88" spans="11:17">
       <c r="K88" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q88" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="89" spans="11:17">
       <c r="K89" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q89" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="90" spans="11:17">
       <c r="K90" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q90" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="91" spans="11:17">
       <c r="K91" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q91" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="92" spans="11:17">
       <c r="K92" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q92" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="93" spans="11:17">
       <c r="K93" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q93" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="11:17">
       <c r="K94" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Q94" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="11:17">
       <c r="K95" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q95" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="96" spans="11:17">
       <c r="K96" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q96" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="97" spans="11:17">
       <c r="K97" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Q97" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="98" spans="11:17">
       <c r="K98" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q98" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="99" spans="11:17">
       <c r="K99" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q99" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="100" spans="11:17">
       <c r="K100" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="Q100" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="11:17">
       <c r="K101" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q101" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="102" spans="11:17">
       <c r="K102" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q102" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="103" spans="11:17">
       <c r="K103" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q103" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="11:17">
       <c r="K104" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q104" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="105" spans="11:17">
       <c r="K105" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q105" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="106" spans="11:17">
       <c r="K106" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q106" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="107" spans="11:17">
       <c r="K107" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="Q107" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="108" spans="11:17">
       <c r="K108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Q108" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="109" spans="11:17">
       <c r="K109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Q109" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="110" spans="11:17">
       <c r="K110" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q110" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="111" spans="11:17">
       <c r="K111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="112" spans="11:17">
       <c r="K112" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Q112" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="113" spans="11:17">
       <c r="K113" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="114" spans="11:17">
       <c r="K114" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Q114" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="115" spans="11:17">
       <c r="K115" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Q115" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="116" spans="11:17">
       <c r="K116" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Q116" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="117" spans="11:17">
       <c r="K117" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="Q117" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="118" spans="11:17">
       <c r="K118" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q118" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="119" spans="11:17">
       <c r="K119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q119" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="120" spans="11:17">
       <c r="K120" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="Q120" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="121" spans="11:17">
       <c r="K121" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Q121" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="122" spans="11:17">
       <c r="K122" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="Q122" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="123" spans="11:17">
       <c r="K123" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Q123" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="124" spans="11:17">
       <c r="K124" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q124" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="125" spans="11:17">
       <c r="K125" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="Q125" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" spans="11:17">
       <c r="K126" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="Q126" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="127" spans="11:17">
       <c r="K127" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Q127" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="11:17">
       <c r="K128" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Q128" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="11:17">
       <c r="K129" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Q129" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="11:17">
       <c r="K130" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Q130" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="131" spans="11:17">
       <c r="K131" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Q131" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="132" spans="11:17">
       <c r="K132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="11:17">
       <c r="K133" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="Q133" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="134" spans="11:17">
       <c r="K134" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="Q134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="135" spans="11:17">
       <c r="K135" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="Q135" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="11:17">
       <c r="K136" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Q136" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="137" spans="11:17">
       <c r="K137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Q137" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="138" spans="11:17">
       <c r="K138" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Q138" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="139" spans="11:17">
       <c r="K139" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q139" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="11:17">
       <c r="K140" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="Q140" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="141" spans="11:17">
       <c r="K141" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="Q141" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="142" spans="11:17">
       <c r="K142" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="Q142" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="143" spans="11:17">
       <c r="K143" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="Q143" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="144" spans="11:17">
       <c r="K144" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="Q144" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="145" spans="11:17">
       <c r="K145" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q145" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="146" spans="11:17">
       <c r="K146" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Q146" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="11:17">
       <c r="K147" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="11:17">
       <c r="K148" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="11:17">
       <c r="K149" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="Q149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="11:17">
       <c r="K150" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Q150" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="151" spans="11:17">
       <c r="K151" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Q151" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="152" spans="11:17">
       <c r="K152" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q152" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="153" spans="11:17">
       <c r="K153" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q153" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="154" spans="11:17">
       <c r="K154" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="Q154" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="155" spans="11:17">
       <c r="K155" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="Q155" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="156" spans="11:17">
       <c r="K156" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Q156" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="157" spans="11:17">
       <c r="K157" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Q157" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="158" spans="11:17">
       <c r="K158" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Q158" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="159" spans="11:17">
       <c r="K159" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="Q159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="160" spans="11:17">
       <c r="K160" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q160" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="11:17">
       <c r="K161" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q161" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="11:17">
       <c r="K162" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q162" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="163" spans="11:17">
       <c r="K163" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="Q163" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="11:17">
       <c r="K164" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Q164" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="165" spans="11:17">
       <c r="K165" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q165" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="166" spans="11:17">
       <c r="K166" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Q166" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="167" spans="11:17">
       <c r="K167" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="Q167" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="168" spans="11:17">
       <c r="K168" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="Q168" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="169" spans="11:17">
       <c r="K169" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Q169" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="170" spans="11:17">
       <c r="K170" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="Q170" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="171" spans="11:17">
       <c r="K171" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="Q171" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="172" spans="11:17">
       <c r="K172" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="Q172" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="173" spans="11:17">
       <c r="K173" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="Q173" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="174" spans="11:17">
       <c r="K174" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="Q174" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="175" spans="11:17">
       <c r="K175" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="Q175" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="176" spans="11:17">
       <c r="K176" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Q176" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="177" spans="11:17">
       <c r="K177" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="Q177" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="178" spans="11:17">
       <c r="K178" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="Q178" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="179" spans="11:17">
       <c r="K179" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="Q179" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="180" spans="11:17">
       <c r="K180" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="Q180" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="181" spans="11:17">
       <c r="K181" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Q181" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="182" spans="11:17">
       <c r="K182" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="Q182" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="11:17">
       <c r="K183" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="Q183" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="184" spans="11:17">
       <c r="K184" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="Q184" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" spans="11:17">
       <c r="K185" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q185" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="186" spans="11:17">
       <c r="K186" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="Q186" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="11:17">
       <c r="K187" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Q187" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="11:17">
       <c r="K188" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Q188" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="11:17">
       <c r="K189" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="Q189" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="11:17">
       <c r="K190" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="Q190" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="11:17">
       <c r="K191" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q191" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="11:17">
       <c r="K192" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Q192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="11:17">
       <c r="K193" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Q193" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="11:17">
       <c r="K194" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Q194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="11:17">
       <c r="K195" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="Q195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="11:17">
       <c r="K196" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="Q196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="11:17">
       <c r="K197" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Q197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="11:17">
       <c r="K198" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="Q198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="11:17">
       <c r="K199" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="11:17">
       <c r="K200" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q200" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="11:17">
       <c r="K201" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="Q201" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="11:17">
       <c r="K202" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="Q202" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="11:17">
       <c r="K203" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Q203" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="11:17">
       <c r="K204" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Q204" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="11:17">
       <c r="K205" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q205" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="11:17">
       <c r="K206" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q206" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="11:17">
       <c r="K207" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q207" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="11:17">
       <c r="K208" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="Q208" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="11:17">
       <c r="K209" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Q209" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="11:17">
       <c r="K210" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="11:17">
       <c r="K211" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="Q211" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="11:17">
       <c r="K212" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="Q212" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="11:17">
       <c r="K213" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="Q213" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="11:17">
       <c r="K214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="Q214" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="11:17">
       <c r="K215" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q215" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="11:17">
       <c r="K216" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Q216" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="11:17">
       <c r="K217" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="Q217" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="11:17">
       <c r="K218" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="Q218" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="11:17">
       <c r="K219" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="Q219" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="11:17">
       <c r="K220" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Q220" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="11:17">
       <c r="K221" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="Q221" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="11:17">
       <c r="K222" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q222" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="11:17">
       <c r="K223" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="Q223" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="11:17">
       <c r="K224" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="Q224" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="11:17">
       <c r="K225" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="Q225" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="11:17">
       <c r="K226" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Q226" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="11:17">
       <c r="K227" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q227" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="11:17">
       <c r="K228" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="Q228" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="11:17">
       <c r="K229" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="Q229" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="11:17">
       <c r="K230" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="Q230" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="11:17">
       <c r="K231" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Q231" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="11:17">
       <c r="K232" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Q232" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="11:17">
       <c r="K233" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="Q233" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="11:17">
       <c r="K234" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="Q234" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="11:17">
       <c r="K235" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="Q235" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="11:17">
       <c r="K236" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="Q236" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="11:17">
       <c r="K237" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q237" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="11:17">
       <c r="K238" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Q238" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="11:17">
       <c r="K239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="Q239" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="11:17">
       <c r="K240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q240" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="11:17">
       <c r="K241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="Q241" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="11:17">
       <c r="K242" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="Q242" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="11:17">
       <c r="K243" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="Q243" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="11:17">
       <c r="K244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="Q244" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245" spans="11:17">
       <c r="K245" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="Q245" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="11:17">
       <c r="K246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q246" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="11:17">
       <c r="K247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="Q247" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="11:17">
       <c r="K248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="Q248" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="11:17">
       <c r="K249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="Q249" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="11:17">
       <c r="K250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="Q250" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="11:17">
       <c r="K251" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Q251" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="11:17">
       <c r="K252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Q252" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="11:17">
       <c r="K253" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="Q253" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="11:17">
       <c r="K254" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="Q254" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="11:17">
       <c r="K255" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="Q255" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="11:17">
       <c r="K256" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="Q256" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="11:17">
       <c r="K257" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="Q257" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="11:17">
       <c r="K258" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="Q258" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="11:17">
       <c r="K259" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="Q259" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="11:17">
       <c r="K260" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Q260" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="11:17">
       <c r="K261" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Q261" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="11:17">
       <c r="K262" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="Q262" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="11:17">
       <c r="K263" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="Q263" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="11:17">
       <c r="K264" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="Q264" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="11:17">
       <c r="K265" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="Q265" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="11:17">
       <c r="K266" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="Q266" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="11:17">
       <c r="K267" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="Q267" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="11:17">
       <c r="K268" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="Q268" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="11:17">
       <c r="K269" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="Q269" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="11:17">
       <c r="K270" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="Q270" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="11:17">
       <c r="K271" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="Q271" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="11:17">
       <c r="K272" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="Q272" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="11:17">
       <c r="K273" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="Q273" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$J$1:$J$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="647">
   <si>
     <t>alias</t>
   </si>
@@ -855,19 +855,19 @@
     <t>(Mandatory) If the sample was obtained from an organism in a specific developmental stage, it is specified with this qualifier</t>
   </si>
   <si>
-    <t>known pathogenicity</t>
+    <t>known_pathogenicity</t>
   </si>
   <si>
     <t>(Recommended) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
   </si>
   <si>
-    <t>sample storage conditions</t>
+    <t>sample_storage_conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject exposure</t>
+    <t>subject_exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -882,7 +882,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travel-relation</t>
+    <t>travelrelation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -894,7 +894,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical setting</t>
+    <t>clinical_setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1719,40 +1719,40 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country of travel</t>
+    <t>country_of_travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
   </si>
   <si>
-    <t>collection date</t>
+    <t>collection_date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic location (latitude)</t>
+    <t>geographic_location_latitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (longitude)</t>
+    <t>geographic_location_longitude</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic location (region and locality)</t>
+    <t>geographic_location_region_and_locality</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject exposure duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>subject_exposure_duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1773,7 +1773,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1785,12 +1785,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1848,7 +1857,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic location (country and/or sea)</t>
+    <t>geographic_location_country_andor_sea</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1863,25 +1872,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host disease outcome</t>
+    <t>host_disease_outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host common name</t>
+    <t>host_common_name</t>
   </si>
   <si>
     <t>(Recommended) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host subject id</t>
+    <t>host_subject_id</t>
   </si>
   <si>
     <t>(Recommended) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host age</t>
+    <t>host_age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1893,7 +1902,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host health state</t>
+    <t>host_health_state</t>
   </si>
   <si>
     <t>(Recommended) Health status of the host at the time of sample collection.</t>
@@ -1911,25 +1920,25 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host sex</t>
+    <t>host_sex</t>
   </si>
   <si>
     <t>(Recommended) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host scientific name</t>
+    <t>host_scientific_name</t>
   </si>
   <si>
     <t>(Recommended) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>collector name</t>
+    <t>collector_name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting institution</t>
+    <t>collecting_institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
@@ -1947,13 +1956,13 @@
     <t>(Recommended) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>isolation source host-associated</t>
+    <t>isolation_source_hostassociated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>diagnostic method</t>
+    <t>diagnostic_method</t>
   </si>
   <si>
     <t>(Recommended) The method or procedure (imaging, genetic or other) performed to determine or confirm the presence of disease in an individual. examples: microscopy, immunofluorescence, pcr, rapid tests, etc.</t>
@@ -1965,7 +1974,7 @@
     <t>(Recommended) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>isolation source non-host-associated</t>
+    <t>isolation_source_nonhostassociated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3561,52 +3570,52 @@
         <v>570</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
@@ -3659,52 +3668,52 @@
         <v>571</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -3737,7 +3746,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:W289"/>
+  <dimension ref="I1:W294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3757,13 +3766,13 @@
         <v>287</v>
       </c>
       <c r="R1" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="V1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="2" spans="9:23">
@@ -3780,13 +3789,13 @@
         <v>288</v>
       </c>
       <c r="R2" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="V2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="W2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="3" spans="9:23">
@@ -3800,13 +3809,13 @@
         <v>289</v>
       </c>
       <c r="R3" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="V3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="W3" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="4" spans="9:23">
@@ -3817,10 +3826,10 @@
         <v>290</v>
       </c>
       <c r="V4" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
       <c r="W4" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5" spans="9:23">
@@ -3831,10 +3840,10 @@
         <v>291</v>
       </c>
       <c r="V5" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="W5" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6" spans="9:23">
@@ -3845,10 +3854,10 @@
         <v>292</v>
       </c>
       <c r="V6" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="W6" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7" spans="9:23">
@@ -3859,10 +3868,10 @@
         <v>293</v>
       </c>
       <c r="V7" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="W7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="8" spans="9:23">
@@ -3873,10 +3882,10 @@
         <v>294</v>
       </c>
       <c r="V8" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="W8" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9" spans="9:23">
@@ -3887,10 +3896,10 @@
         <v>295</v>
       </c>
       <c r="V9" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="W9" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="10" spans="9:23">
@@ -3901,10 +3910,10 @@
         <v>572</v>
       </c>
       <c r="V10" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="W10" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="9:23">
@@ -3915,10 +3924,10 @@
         <v>296</v>
       </c>
       <c r="V11" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="W11" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="9:23">
@@ -3929,10 +3938,10 @@
         <v>297</v>
       </c>
       <c r="V12" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="W12" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="13" spans="9:23">
@@ -3943,10 +3952,10 @@
         <v>298</v>
       </c>
       <c r="V13" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="W13" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="9:23">
@@ -3957,10 +3966,10 @@
         <v>299</v>
       </c>
       <c r="V14" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="W14" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="9:23">
@@ -3971,7 +3980,7 @@
         <v>573</v>
       </c>
       <c r="W15" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="9:23">
@@ -3993,7 +4002,7 @@
         <v>301</v>
       </c>
       <c r="W17" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="11:23">
@@ -4433,7 +4442,7 @@
         <v>358</v>
       </c>
       <c r="Q72" t="s">
-        <v>578</v>
+        <v>354</v>
       </c>
     </row>
     <row r="73" spans="11:17">
@@ -4441,7 +4450,7 @@
         <v>359</v>
       </c>
       <c r="Q73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="74" spans="11:17">
@@ -4449,7 +4458,7 @@
         <v>360</v>
       </c>
       <c r="Q74" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="75" spans="11:17">
@@ -4457,7 +4466,7 @@
         <v>361</v>
       </c>
       <c r="Q75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="11:17">
@@ -4465,7 +4474,7 @@
         <v>362</v>
       </c>
       <c r="Q76" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77" spans="11:17">
@@ -4473,7 +4482,7 @@
         <v>363</v>
       </c>
       <c r="Q77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="78" spans="11:17">
@@ -4481,7 +4490,7 @@
         <v>364</v>
       </c>
       <c r="Q78" t="s">
-        <v>359</v>
+        <v>578</v>
       </c>
     </row>
     <row r="79" spans="11:17">
@@ -5025,7 +5034,7 @@
         <v>432</v>
       </c>
       <c r="Q146" t="s">
-        <v>429</v>
+        <v>582</v>
       </c>
     </row>
     <row r="147" spans="11:17">
@@ -5033,7 +5042,7 @@
         <v>433</v>
       </c>
       <c r="Q147" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="11:17">
@@ -5041,7 +5050,7 @@
         <v>434</v>
       </c>
       <c r="Q148" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="149" spans="11:17">
@@ -5049,7 +5058,7 @@
         <v>435</v>
       </c>
       <c r="Q149" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="150" spans="11:17">
@@ -5145,7 +5154,7 @@
         <v>447</v>
       </c>
       <c r="Q161" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="162" spans="11:17">
@@ -5161,7 +5170,7 @@
         <v>449</v>
       </c>
       <c r="Q163" t="s">
-        <v>445</v>
+        <v>584</v>
       </c>
     </row>
     <row r="164" spans="11:17">
@@ -5233,7 +5242,7 @@
         <v>458</v>
       </c>
       <c r="Q172" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="173" spans="11:17">
@@ -5345,7 +5354,7 @@
         <v>472</v>
       </c>
       <c r="Q186" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187" spans="11:17">
@@ -5353,7 +5362,7 @@
         <v>473</v>
       </c>
       <c r="Q187" t="s">
-        <v>468</v>
+        <v>587</v>
       </c>
     </row>
     <row r="188" spans="11:17">
@@ -5361,7 +5370,7 @@
         <v>474</v>
       </c>
       <c r="Q188" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="189" spans="11:17">
@@ -5369,7 +5378,7 @@
         <v>475</v>
       </c>
       <c r="Q189" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="190" spans="11:17">
@@ -5377,7 +5386,7 @@
         <v>476</v>
       </c>
       <c r="Q190" t="s">
-        <v>585</v>
+        <v>470</v>
       </c>
     </row>
     <row r="191" spans="11:17">
@@ -5385,7 +5394,7 @@
         <v>477</v>
       </c>
       <c r="Q191" t="s">
-        <v>471</v>
+        <v>588</v>
       </c>
     </row>
     <row r="192" spans="11:17">
@@ -5393,7 +5402,7 @@
         <v>478</v>
       </c>
       <c r="Q192" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="193" spans="11:17">
@@ -5401,7 +5410,7 @@
         <v>479</v>
       </c>
       <c r="Q193" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="194" spans="11:17">
@@ -5409,7 +5418,7 @@
         <v>480</v>
       </c>
       <c r="Q194" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="195" spans="11:17">
@@ -5417,7 +5426,7 @@
         <v>481</v>
       </c>
       <c r="Q195" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="196" spans="11:17">
@@ -5425,7 +5434,7 @@
         <v>482</v>
       </c>
       <c r="Q196" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="197" spans="11:17">
@@ -5433,7 +5442,7 @@
         <v>483</v>
       </c>
       <c r="Q197" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="198" spans="11:17">
@@ -5441,7 +5450,7 @@
         <v>484</v>
       </c>
       <c r="Q198" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="199" spans="11:17">
@@ -5449,7 +5458,7 @@
         <v>485</v>
       </c>
       <c r="Q199" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="200" spans="11:17">
@@ -5457,7 +5466,7 @@
         <v>486</v>
       </c>
       <c r="Q200" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="201" spans="11:17">
@@ -5465,7 +5474,7 @@
         <v>487</v>
       </c>
       <c r="Q201" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="202" spans="11:17">
@@ -5473,7 +5482,7 @@
         <v>488</v>
       </c>
       <c r="Q202" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="203" spans="11:17">
@@ -5481,7 +5490,7 @@
         <v>489</v>
       </c>
       <c r="Q203" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="204" spans="11:17">
@@ -5489,7 +5498,7 @@
         <v>490</v>
       </c>
       <c r="Q204" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="205" spans="11:17">
@@ -5497,7 +5506,7 @@
         <v>491</v>
       </c>
       <c r="Q205" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="206" spans="11:17">
@@ -5505,7 +5514,7 @@
         <v>492</v>
       </c>
       <c r="Q206" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="207" spans="11:17">
@@ -5513,7 +5522,7 @@
         <v>493</v>
       </c>
       <c r="Q207" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="208" spans="11:17">
@@ -5521,7 +5530,7 @@
         <v>494</v>
       </c>
       <c r="Q208" t="s">
-        <v>586</v>
+        <v>487</v>
       </c>
     </row>
     <row r="209" spans="11:17">
@@ -5529,7 +5538,7 @@
         <v>495</v>
       </c>
       <c r="Q209" t="s">
-        <v>488</v>
+        <v>589</v>
       </c>
     </row>
     <row r="210" spans="11:17">
@@ -5537,7 +5546,7 @@
         <v>496</v>
       </c>
       <c r="Q210" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="211" spans="11:17">
@@ -5545,7 +5554,7 @@
         <v>497</v>
       </c>
       <c r="Q211" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="212" spans="11:17">
@@ -5553,7 +5562,7 @@
         <v>498</v>
       </c>
       <c r="Q212" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="213" spans="11:17">
@@ -5561,7 +5570,7 @@
         <v>499</v>
       </c>
       <c r="Q213" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="214" spans="11:17">
@@ -5569,7 +5578,7 @@
         <v>500</v>
       </c>
       <c r="Q214" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="215" spans="11:17">
@@ -5577,7 +5586,7 @@
         <v>501</v>
       </c>
       <c r="Q215" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="216" spans="11:17">
@@ -5585,7 +5594,7 @@
         <v>502</v>
       </c>
       <c r="Q216" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="217" spans="11:17">
@@ -5593,7 +5602,7 @@
         <v>503</v>
       </c>
       <c r="Q217" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="218" spans="11:17">
@@ -5601,7 +5610,7 @@
         <v>504</v>
       </c>
       <c r="Q218" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="219" spans="11:17">
@@ -5609,7 +5618,7 @@
         <v>505</v>
       </c>
       <c r="Q219" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="220" spans="11:17">
@@ -5617,7 +5626,7 @@
         <v>506</v>
       </c>
       <c r="Q220" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="221" spans="11:17">
@@ -5625,7 +5634,7 @@
         <v>507</v>
       </c>
       <c r="Q221" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="222" spans="11:17">
@@ -5633,7 +5642,7 @@
         <v>508</v>
       </c>
       <c r="Q222" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="223" spans="11:17">
@@ -5641,7 +5650,7 @@
         <v>509</v>
       </c>
       <c r="Q223" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="224" spans="11:17">
@@ -5649,7 +5658,7 @@
         <v>510</v>
       </c>
       <c r="Q224" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="225" spans="11:17">
@@ -5657,7 +5666,7 @@
         <v>511</v>
       </c>
       <c r="Q225" t="s">
-        <v>587</v>
+        <v>504</v>
       </c>
     </row>
     <row r="226" spans="11:17">
@@ -5665,7 +5674,7 @@
         <v>512</v>
       </c>
       <c r="Q226" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
     </row>
     <row r="227" spans="11:17">
@@ -5673,7 +5682,7 @@
         <v>513</v>
       </c>
       <c r="Q227" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="228" spans="11:17">
@@ -5681,7 +5690,7 @@
         <v>514</v>
       </c>
       <c r="Q228" t="s">
-        <v>509</v>
+        <v>590</v>
       </c>
     </row>
     <row r="229" spans="11:17">
@@ -5689,7 +5698,7 @@
         <v>515</v>
       </c>
       <c r="Q229" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="230" spans="11:17">
@@ -5697,7 +5706,7 @@
         <v>516</v>
       </c>
       <c r="Q230" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="11:17">
@@ -5705,7 +5714,7 @@
         <v>517</v>
       </c>
       <c r="Q231" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="232" spans="11:17">
@@ -5713,7 +5722,7 @@
         <v>518</v>
       </c>
       <c r="Q232" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="233" spans="11:17">
@@ -5721,7 +5730,7 @@
         <v>519</v>
       </c>
       <c r="Q233" t="s">
-        <v>588</v>
+        <v>511</v>
       </c>
     </row>
     <row r="234" spans="11:17">
@@ -5729,7 +5738,7 @@
         <v>520</v>
       </c>
       <c r="Q234" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="11:17">
@@ -5737,7 +5746,7 @@
         <v>521</v>
       </c>
       <c r="Q235" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="236" spans="11:17">
@@ -5745,7 +5754,7 @@
         <v>522</v>
       </c>
       <c r="Q236" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="237" spans="11:17">
@@ -5753,7 +5762,7 @@
         <v>523</v>
       </c>
       <c r="Q237" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
     </row>
     <row r="238" spans="11:17">
@@ -5761,7 +5770,7 @@
         <v>524</v>
       </c>
       <c r="Q238" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="239" spans="11:17">
@@ -5769,7 +5778,7 @@
         <v>525</v>
       </c>
       <c r="Q239" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="240" spans="11:17">
@@ -5777,7 +5786,7 @@
         <v>526</v>
       </c>
       <c r="Q240" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="241" spans="11:17">
@@ -5785,7 +5794,7 @@
         <v>527</v>
       </c>
       <c r="Q241" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="242" spans="11:17">
@@ -5793,7 +5802,7 @@
         <v>528</v>
       </c>
       <c r="Q242" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="243" spans="11:17">
@@ -5801,7 +5810,7 @@
         <v>529</v>
       </c>
       <c r="Q243" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="244" spans="11:17">
@@ -5809,7 +5818,7 @@
         <v>530</v>
       </c>
       <c r="Q244" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="245" spans="11:17">
@@ -5817,7 +5826,7 @@
         <v>531</v>
       </c>
       <c r="Q245" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="246" spans="11:17">
@@ -5825,7 +5834,7 @@
         <v>532</v>
       </c>
       <c r="Q246" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="247" spans="11:17">
@@ -5833,7 +5842,7 @@
         <v>533</v>
       </c>
       <c r="Q247" t="s">
-        <v>589</v>
+        <v>525</v>
       </c>
     </row>
     <row r="248" spans="11:17">
@@ -5841,7 +5850,7 @@
         <v>534</v>
       </c>
       <c r="Q248" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="249" spans="11:17">
@@ -5849,7 +5858,7 @@
         <v>535</v>
       </c>
       <c r="Q249" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="250" spans="11:17">
@@ -5857,7 +5866,7 @@
         <v>536</v>
       </c>
       <c r="Q250" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="251" spans="11:17">
@@ -5865,7 +5874,7 @@
         <v>537</v>
       </c>
       <c r="Q251" t="s">
-        <v>533</v>
+        <v>592</v>
       </c>
     </row>
     <row r="252" spans="11:17">
@@ -5873,7 +5882,7 @@
         <v>538</v>
       </c>
       <c r="Q252" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="253" spans="11:17">
@@ -5881,7 +5890,7 @@
         <v>539</v>
       </c>
       <c r="Q253" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="254" spans="11:17">
@@ -5889,7 +5898,7 @@
         <v>540</v>
       </c>
       <c r="Q254" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="255" spans="11:17">
@@ -5897,7 +5906,7 @@
         <v>541</v>
       </c>
       <c r="Q255" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="256" spans="11:17">
@@ -5905,7 +5914,7 @@
         <v>542</v>
       </c>
       <c r="Q256" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="257" spans="11:17">
@@ -5913,7 +5922,7 @@
         <v>543</v>
       </c>
       <c r="Q257" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="258" spans="11:17">
@@ -5921,7 +5930,7 @@
         <v>544</v>
       </c>
       <c r="Q258" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="259" spans="11:17">
@@ -5929,7 +5938,7 @@
         <v>545</v>
       </c>
       <c r="Q259" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="260" spans="11:17">
@@ -5937,7 +5946,7 @@
         <v>546</v>
       </c>
       <c r="Q260" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="261" spans="11:17">
@@ -5945,7 +5954,7 @@
         <v>547</v>
       </c>
       <c r="Q261" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
     </row>
     <row r="262" spans="11:17">
@@ -5953,7 +5962,7 @@
         <v>548</v>
       </c>
       <c r="Q262" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="263" spans="11:17">
@@ -5961,7 +5970,7 @@
         <v>549</v>
       </c>
       <c r="Q263" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="11:17">
@@ -5969,7 +5978,7 @@
         <v>550</v>
       </c>
       <c r="Q264" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="265" spans="11:17">
@@ -5977,7 +5986,7 @@
         <v>551</v>
       </c>
       <c r="Q265" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="266" spans="11:17">
@@ -5985,7 +5994,7 @@
         <v>552</v>
       </c>
       <c r="Q266" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="267" spans="11:17">
@@ -5993,7 +6002,7 @@
         <v>553</v>
       </c>
       <c r="Q267" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="268" spans="11:17">
@@ -6001,7 +6010,7 @@
         <v>554</v>
       </c>
       <c r="Q268" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="269" spans="11:17">
@@ -6009,7 +6018,7 @@
         <v>555</v>
       </c>
       <c r="Q269" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="270" spans="11:17">
@@ -6017,7 +6026,7 @@
         <v>556</v>
       </c>
       <c r="Q270" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="271" spans="11:17">
@@ -6025,7 +6034,7 @@
         <v>557</v>
       </c>
       <c r="Q271" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="272" spans="11:17">
@@ -6033,7 +6042,7 @@
         <v>558</v>
       </c>
       <c r="Q272" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="273" spans="11:17">
@@ -6041,87 +6050,112 @@
         <v>559</v>
       </c>
       <c r="Q273" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>590</v>
+        <v>555</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>591</v>
+        <v>556</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>592</v>
+        <v>557</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="290" spans="17:17">
+      <c r="Q290" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="291" spans="17:17">
+      <c r="Q291" t="s">
         <v>602</v>
+      </c>
+    </row>
+    <row r="292" spans="17:17">
+      <c r="Q292" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="293" spans="17:17">
+      <c r="Q293" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="294" spans="17:17">
+      <c r="Q294" t="s">
+        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$J$1:$J$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$294</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
     <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="644">
   <si>
     <t>alias</t>
   </si>
@@ -855,19 +855,19 @@
     <t>(Mandatory) If the sample was obtained from an organism in a specific developmental stage, it is specified with this qualifier</t>
   </si>
   <si>
-    <t>known_pathogenicity</t>
+    <t>known pathogenicity</t>
   </si>
   <si>
     <t>(Recommended) To what is the entity pathogenic, for instance plant, fungi, bacteria</t>
   </si>
   <si>
-    <t>sample_storage_conditions</t>
+    <t>sample storage conditions</t>
   </si>
   <si>
     <t>(Optional) Conditions at which sample was stored, usually storage temperature, duration and location. in soil context: explain how and for how long the soil sample was stored before dna extraction (fresh/frozen/other).</t>
   </si>
   <si>
-    <t>subject_exposure</t>
+    <t>subject exposure</t>
   </si>
   <si>
     <t>(Optional) Exposure of the subject to infected human or animals, such as poultry, wild bird or swine. if multiple exposures are applicable, please state them separated by semicolon. example: poultry; wild bird</t>
@@ -882,7 +882,7 @@
     <t>travel-related</t>
   </si>
   <si>
-    <t>travelrelation</t>
+    <t>travel-relation</t>
   </si>
   <si>
     <t>(Optional) Designates the relation of the main diagnosis to the patient's travel.</t>
@@ -894,7 +894,7 @@
     <t>during travel</t>
   </si>
   <si>
-    <t>clinical_setting</t>
+    <t>clinical setting</t>
   </si>
   <si>
     <t>(Optional) The timing of the clinic visit in relation to travel.</t>
@@ -1719,40 +1719,40 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>country_of_travel</t>
+    <t>country of travel</t>
   </si>
   <si>
     <t>(Optional) The name of the country of patient's travel.</t>
   </si>
   <si>
-    <t>collection_date</t>
+    <t>collection date</t>
   </si>
   <si>
     <t>(Mandatory) The date the sample was collected with the intention of sequencing, either as an instance (single point in time) or interval. in case no exact time is available, the date/time can be right truncated i.e. all of these are valid iso8601 compliant times: 2008-01-23t19:23:10+00:00; 2008-01-23t19:23:10; 2008-01-23; 2008-01; 2008.</t>
   </si>
   <si>
-    <t>geographic_location_latitude</t>
+    <t>geographic location (latitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by latitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_longitude</t>
+    <t>geographic location (longitude)</t>
   </si>
   <si>
     <t>(Recommended) The geographical origin of the sample as defined by longitude. the values should be reported in decimal degrees and in wgs84 system (Units: DD)</t>
   </si>
   <si>
-    <t>geographic_location_region_and_locality</t>
+    <t>geographic location (region and locality)</t>
   </si>
   <si>
     <t>(Optional) The geographical origin of the sample as defined by the specific region name followed by the locality name.</t>
   </si>
   <si>
-    <t>subject_exposure_duration</t>
-  </si>
-  <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
+    <t>subject exposure duration</t>
+  </si>
+  <si>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1773,7 +1773,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>Eswatini</t>
+    <t>East Timor</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1785,21 +1785,12 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
-    <t>Line Islands</t>
-  </si>
-  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
-    <t>Micronesia, Federated States of</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>North Macedonia</t>
-  </si>
-  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1857,7 +1848,7 @@
     <t>restricted access</t>
   </si>
   <si>
-    <t>geographic_location_country_andor_sea</t>
+    <t>geographic location (country and/or sea)</t>
   </si>
   <si>
     <t>(Mandatory) The geographical origin of where the sample was collected from, with the intention of sequencing, as defined by the country or sea name. country or sea names should be chosen from the insdc country list (http://insdc.org/country.html).</t>
@@ -1872,25 +1863,25 @@
     <t>recovered with sequelae</t>
   </si>
   <si>
-    <t>host_disease_outcome</t>
+    <t>host disease outcome</t>
   </si>
   <si>
     <t>(Recommended) Disease outcome in the host.</t>
   </si>
   <si>
-    <t>host_common_name</t>
+    <t>host common name</t>
   </si>
   <si>
     <t>(Recommended) Common name of the host, e.g. human</t>
   </si>
   <si>
-    <t>host_subject_id</t>
+    <t>host subject id</t>
   </si>
   <si>
     <t>(Recommended) A unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
   </si>
   <si>
-    <t>host_age</t>
+    <t>host age</t>
   </si>
   <si>
     <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
@@ -1902,7 +1893,7 @@
     <t>healthy</t>
   </si>
   <si>
-    <t>host_health_state</t>
+    <t>host health state</t>
   </si>
   <si>
     <t>(Recommended) Health status of the host at the time of sample collection.</t>
@@ -1920,25 +1911,25 @@
     <t>neuter</t>
   </si>
   <si>
-    <t>host_sex</t>
+    <t>host sex</t>
   </si>
   <si>
     <t>(Recommended) Gender or sex of the host.</t>
   </si>
   <si>
-    <t>host_scientific_name</t>
+    <t>host scientific name</t>
   </si>
   <si>
     <t>(Recommended) Scientific name of the natural (as opposed to laboratory) host to the organism from which sample was obtained.</t>
   </si>
   <si>
-    <t>collector_name</t>
+    <t>collector name</t>
   </si>
   <si>
     <t>(Mandatory) Name of the person who collected the specimen. example: john smith</t>
   </si>
   <si>
-    <t>collecting_institution</t>
+    <t>collecting institution</t>
   </si>
   <si>
     <t>(Mandatory) Name of the institution to which the person collecting the specimen belongs. format: institute name, institute address</t>
@@ -1956,13 +1947,13 @@
     <t>(Recommended) Name of the strain from which the sample was obtained.</t>
   </si>
   <si>
-    <t>isolation_source_hostassociated</t>
+    <t>isolation source host-associated</t>
   </si>
   <si>
     <t>(Recommended) Name of host tissue or organ sampled for analysis. example: tracheal tissue</t>
   </si>
   <si>
-    <t>diagnostic_method</t>
+    <t>diagnostic method</t>
   </si>
   <si>
     <t>(Recommended) The method or procedure (imaging, genetic or other) performed to determine or confirm the presence of disease in an individual. examples: microscopy, immunofluorescence, pcr, rapid tests, etc.</t>
@@ -1974,7 +1965,7 @@
     <t>(Recommended) Name or code for genotype of organism</t>
   </si>
   <si>
-    <t>isolation_source_nonhostassociated</t>
+    <t>isolation source non-host-associated</t>
   </si>
   <si>
     <t>(Recommended) Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived. example: soil</t>
@@ -3570,52 +3561,52 @@
         <v>570</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:32" ht="150" customHeight="1">
@@ -3668,52 +3659,52 @@
         <v>571</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3737,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:W294"/>
+  <dimension ref="I1:W289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3766,13 +3757,13 @@
         <v>287</v>
       </c>
       <c r="R1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="V1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="W1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="2" spans="9:23">
@@ -3789,13 +3780,13 @@
         <v>288</v>
       </c>
       <c r="R2" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="V2" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="W2" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="9:23">
@@ -3809,13 +3800,13 @@
         <v>289</v>
       </c>
       <c r="R3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="V3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="W3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="9:23">
@@ -3826,10 +3817,10 @@
         <v>290</v>
       </c>
       <c r="V4" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="W4" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="5" spans="9:23">
@@ -3840,10 +3831,10 @@
         <v>291</v>
       </c>
       <c r="V5" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="W5" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="9:23">
@@ -3854,10 +3845,10 @@
         <v>292</v>
       </c>
       <c r="V6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="W6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="9:23">
@@ -3868,10 +3859,10 @@
         <v>293</v>
       </c>
       <c r="V7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="W7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="9:23">
@@ -3882,10 +3873,10 @@
         <v>294</v>
       </c>
       <c r="V8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="W8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="9:23">
@@ -3896,10 +3887,10 @@
         <v>295</v>
       </c>
       <c r="V9" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="W9" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="10" spans="9:23">
@@ -3910,10 +3901,10 @@
         <v>572</v>
       </c>
       <c r="V10" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="W10" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="9:23">
@@ -3924,10 +3915,10 @@
         <v>296</v>
       </c>
       <c r="V11" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="W11" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="9:23">
@@ -3938,10 +3929,10 @@
         <v>297</v>
       </c>
       <c r="V12" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="W12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="9:23">
@@ -3952,10 +3943,10 @@
         <v>298</v>
       </c>
       <c r="V13" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="W13" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14" spans="9:23">
@@ -3966,10 +3957,10 @@
         <v>299</v>
       </c>
       <c r="V14" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="W14" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15" spans="9:23">
@@ -3980,7 +3971,7 @@
         <v>573</v>
       </c>
       <c r="W15" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="16" spans="9:23">
@@ -4002,7 +3993,7 @@
         <v>301</v>
       </c>
       <c r="W17" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="18" spans="11:23">
@@ -4442,7 +4433,7 @@
         <v>358</v>
       </c>
       <c r="Q72" t="s">
-        <v>354</v>
+        <v>578</v>
       </c>
     </row>
     <row r="73" spans="11:17">
@@ -4450,7 +4441,7 @@
         <v>359</v>
       </c>
       <c r="Q73" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="11:17">
@@ -4458,7 +4449,7 @@
         <v>360</v>
       </c>
       <c r="Q74" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="75" spans="11:17">
@@ -4466,7 +4457,7 @@
         <v>361</v>
       </c>
       <c r="Q75" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="11:17">
@@ -4474,7 +4465,7 @@
         <v>362</v>
       </c>
       <c r="Q76" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="77" spans="11:17">
@@ -4482,7 +4473,7 @@
         <v>363</v>
       </c>
       <c r="Q77" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="78" spans="11:17">
@@ -4490,7 +4481,7 @@
         <v>364</v>
       </c>
       <c r="Q78" t="s">
-        <v>578</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="11:17">
@@ -5034,7 +5025,7 @@
         <v>432</v>
       </c>
       <c r="Q146" t="s">
-        <v>582</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="11:17">
@@ -5042,7 +5033,7 @@
         <v>433</v>
       </c>
       <c r="Q147" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="11:17">
@@ -5050,7 +5041,7 @@
         <v>434</v>
       </c>
       <c r="Q148" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="149" spans="11:17">
@@ -5058,7 +5049,7 @@
         <v>435</v>
       </c>
       <c r="Q149" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="150" spans="11:17">
@@ -5154,7 +5145,7 @@
         <v>447</v>
       </c>
       <c r="Q161" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="162" spans="11:17">
@@ -5170,7 +5161,7 @@
         <v>449</v>
       </c>
       <c r="Q163" t="s">
-        <v>584</v>
+        <v>445</v>
       </c>
     </row>
     <row r="164" spans="11:17">
@@ -5242,7 +5233,7 @@
         <v>458</v>
       </c>
       <c r="Q172" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="173" spans="11:17">
@@ -5354,7 +5345,7 @@
         <v>472</v>
       </c>
       <c r="Q186" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="187" spans="11:17">
@@ -5362,7 +5353,7 @@
         <v>473</v>
       </c>
       <c r="Q187" t="s">
-        <v>587</v>
+        <v>468</v>
       </c>
     </row>
     <row r="188" spans="11:17">
@@ -5370,7 +5361,7 @@
         <v>474</v>
       </c>
       <c r="Q188" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="189" spans="11:17">
@@ -5378,7 +5369,7 @@
         <v>475</v>
       </c>
       <c r="Q189" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="190" spans="11:17">
@@ -5386,7 +5377,7 @@
         <v>476</v>
       </c>
       <c r="Q190" t="s">
-        <v>470</v>
+        <v>585</v>
       </c>
     </row>
     <row r="191" spans="11:17">
@@ -5394,7 +5385,7 @@
         <v>477</v>
       </c>
       <c r="Q191" t="s">
-        <v>588</v>
+        <v>471</v>
       </c>
     </row>
     <row r="192" spans="11:17">
@@ -5402,7 +5393,7 @@
         <v>478</v>
       </c>
       <c r="Q192" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" spans="11:17">
@@ -5410,7 +5401,7 @@
         <v>479</v>
       </c>
       <c r="Q193" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="194" spans="11:17">
@@ -5418,7 +5409,7 @@
         <v>480</v>
       </c>
       <c r="Q194" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="195" spans="11:17">
@@ -5426,7 +5417,7 @@
         <v>481</v>
       </c>
       <c r="Q195" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="196" spans="11:17">
@@ -5434,7 +5425,7 @@
         <v>482</v>
       </c>
       <c r="Q196" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="197" spans="11:17">
@@ -5442,7 +5433,7 @@
         <v>483</v>
       </c>
       <c r="Q197" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="198" spans="11:17">
@@ -5450,7 +5441,7 @@
         <v>484</v>
       </c>
       <c r="Q198" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="199" spans="11:17">
@@ -5458,7 +5449,7 @@
         <v>485</v>
       </c>
       <c r="Q199" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="200" spans="11:17">
@@ -5466,7 +5457,7 @@
         <v>486</v>
       </c>
       <c r="Q200" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
     </row>
     <row r="201" spans="11:17">
@@ -5474,7 +5465,7 @@
         <v>487</v>
       </c>
       <c r="Q201" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="202" spans="11:17">
@@ -5482,7 +5473,7 @@
         <v>488</v>
       </c>
       <c r="Q202" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="203" spans="11:17">
@@ -5490,7 +5481,7 @@
         <v>489</v>
       </c>
       <c r="Q203" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="204" spans="11:17">
@@ -5498,7 +5489,7 @@
         <v>490</v>
       </c>
       <c r="Q204" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="205" spans="11:17">
@@ -5506,7 +5497,7 @@
         <v>491</v>
       </c>
       <c r="Q205" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="206" spans="11:17">
@@ -5514,7 +5505,7 @@
         <v>492</v>
       </c>
       <c r="Q206" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="207" spans="11:17">
@@ -5522,7 +5513,7 @@
         <v>493</v>
       </c>
       <c r="Q207" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="208" spans="11:17">
@@ -5530,7 +5521,7 @@
         <v>494</v>
       </c>
       <c r="Q208" t="s">
-        <v>487</v>
+        <v>586</v>
       </c>
     </row>
     <row r="209" spans="11:17">
@@ -5538,7 +5529,7 @@
         <v>495</v>
       </c>
       <c r="Q209" t="s">
-        <v>589</v>
+        <v>488</v>
       </c>
     </row>
     <row r="210" spans="11:17">
@@ -5546,7 +5537,7 @@
         <v>496</v>
       </c>
       <c r="Q210" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="211" spans="11:17">
@@ -5554,7 +5545,7 @@
         <v>497</v>
       </c>
       <c r="Q211" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="212" spans="11:17">
@@ -5562,7 +5553,7 @@
         <v>498</v>
       </c>
       <c r="Q212" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="213" spans="11:17">
@@ -5570,7 +5561,7 @@
         <v>499</v>
       </c>
       <c r="Q213" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="214" spans="11:17">
@@ -5578,7 +5569,7 @@
         <v>500</v>
       </c>
       <c r="Q214" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="215" spans="11:17">
@@ -5586,7 +5577,7 @@
         <v>501</v>
       </c>
       <c r="Q215" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="216" spans="11:17">
@@ -5594,7 +5585,7 @@
         <v>502</v>
       </c>
       <c r="Q216" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="217" spans="11:17">
@@ -5602,7 +5593,7 @@
         <v>503</v>
       </c>
       <c r="Q217" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="218" spans="11:17">
@@ -5610,7 +5601,7 @@
         <v>504</v>
       </c>
       <c r="Q218" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="219" spans="11:17">
@@ -5618,7 +5609,7 @@
         <v>505</v>
       </c>
       <c r="Q219" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="220" spans="11:17">
@@ -5626,7 +5617,7 @@
         <v>506</v>
       </c>
       <c r="Q220" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="221" spans="11:17">
@@ -5634,7 +5625,7 @@
         <v>507</v>
       </c>
       <c r="Q221" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="222" spans="11:17">
@@ -5642,7 +5633,7 @@
         <v>508</v>
       </c>
       <c r="Q222" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="11:17">
@@ -5650,7 +5641,7 @@
         <v>509</v>
       </c>
       <c r="Q223" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="11:17">
@@ -5658,7 +5649,7 @@
         <v>510</v>
       </c>
       <c r="Q224" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="11:17">
@@ -5666,7 +5657,7 @@
         <v>511</v>
       </c>
       <c r="Q225" t="s">
-        <v>504</v>
+        <v>587</v>
       </c>
     </row>
     <row r="226" spans="11:17">
@@ -5674,7 +5665,7 @@
         <v>512</v>
       </c>
       <c r="Q226" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="227" spans="11:17">
@@ -5682,7 +5673,7 @@
         <v>513</v>
       </c>
       <c r="Q227" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="228" spans="11:17">
@@ -5690,7 +5681,7 @@
         <v>514</v>
       </c>
       <c r="Q228" t="s">
-        <v>590</v>
+        <v>509</v>
       </c>
     </row>
     <row r="229" spans="11:17">
@@ -5698,7 +5689,7 @@
         <v>515</v>
       </c>
       <c r="Q229" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
     </row>
     <row r="230" spans="11:17">
@@ -5706,7 +5697,7 @@
         <v>516</v>
       </c>
       <c r="Q230" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
     </row>
     <row r="231" spans="11:17">
@@ -5714,7 +5705,7 @@
         <v>517</v>
       </c>
       <c r="Q231" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="232" spans="11:17">
@@ -5722,7 +5713,7 @@
         <v>518</v>
       </c>
       <c r="Q232" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="233" spans="11:17">
@@ -5730,7 +5721,7 @@
         <v>519</v>
       </c>
       <c r="Q233" t="s">
-        <v>511</v>
+        <v>588</v>
       </c>
     </row>
     <row r="234" spans="11:17">
@@ -5738,7 +5729,7 @@
         <v>520</v>
       </c>
       <c r="Q234" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="235" spans="11:17">
@@ -5746,7 +5737,7 @@
         <v>521</v>
       </c>
       <c r="Q235" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="236" spans="11:17">
@@ -5754,7 +5745,7 @@
         <v>522</v>
       </c>
       <c r="Q236" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="11:17">
@@ -5762,7 +5753,7 @@
         <v>523</v>
       </c>
       <c r="Q237" t="s">
-        <v>591</v>
+        <v>519</v>
       </c>
     </row>
     <row r="238" spans="11:17">
@@ -5770,7 +5761,7 @@
         <v>524</v>
       </c>
       <c r="Q238" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="239" spans="11:17">
@@ -5778,7 +5769,7 @@
         <v>525</v>
       </c>
       <c r="Q239" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="240" spans="11:17">
@@ -5786,7 +5777,7 @@
         <v>526</v>
       </c>
       <c r="Q240" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
     </row>
     <row r="241" spans="11:17">
@@ -5794,7 +5785,7 @@
         <v>527</v>
       </c>
       <c r="Q241" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="242" spans="11:17">
@@ -5802,7 +5793,7 @@
         <v>528</v>
       </c>
       <c r="Q242" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
     </row>
     <row r="243" spans="11:17">
@@ -5810,7 +5801,7 @@
         <v>529</v>
       </c>
       <c r="Q243" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="244" spans="11:17">
@@ -5818,7 +5809,7 @@
         <v>530</v>
       </c>
       <c r="Q244" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
     </row>
     <row r="245" spans="11:17">
@@ -5826,7 +5817,7 @@
         <v>531</v>
       </c>
       <c r="Q245" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="11:17">
@@ -5834,7 +5825,7 @@
         <v>532</v>
       </c>
       <c r="Q246" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="11:17">
@@ -5842,7 +5833,7 @@
         <v>533</v>
       </c>
       <c r="Q247" t="s">
-        <v>525</v>
+        <v>589</v>
       </c>
     </row>
     <row r="248" spans="11:17">
@@ -5850,7 +5841,7 @@
         <v>534</v>
       </c>
       <c r="Q248" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="249" spans="11:17">
@@ -5858,7 +5849,7 @@
         <v>535</v>
       </c>
       <c r="Q249" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="11:17">
@@ -5866,7 +5857,7 @@
         <v>536</v>
       </c>
       <c r="Q250" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="11:17">
@@ -5874,7 +5865,7 @@
         <v>537</v>
       </c>
       <c r="Q251" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
     </row>
     <row r="252" spans="11:17">
@@ -5882,7 +5873,7 @@
         <v>538</v>
       </c>
       <c r="Q252" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
     </row>
     <row r="253" spans="11:17">
@@ -5890,7 +5881,7 @@
         <v>539</v>
       </c>
       <c r="Q253" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
     </row>
     <row r="254" spans="11:17">
@@ -5898,7 +5889,7 @@
         <v>540</v>
       </c>
       <c r="Q254" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
     </row>
     <row r="255" spans="11:17">
@@ -5906,7 +5897,7 @@
         <v>541</v>
       </c>
       <c r="Q255" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="11:17">
@@ -5914,7 +5905,7 @@
         <v>542</v>
       </c>
       <c r="Q256" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="11:17">
@@ -5922,7 +5913,7 @@
         <v>543</v>
       </c>
       <c r="Q257" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="11:17">
@@ -5930,7 +5921,7 @@
         <v>544</v>
       </c>
       <c r="Q258" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
     </row>
     <row r="259" spans="11:17">
@@ -5938,7 +5929,7 @@
         <v>545</v>
       </c>
       <c r="Q259" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
     </row>
     <row r="260" spans="11:17">
@@ -5946,7 +5937,7 @@
         <v>546</v>
       </c>
       <c r="Q260" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="11:17">
@@ -5954,7 +5945,7 @@
         <v>547</v>
       </c>
       <c r="Q261" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="262" spans="11:17">
@@ -5962,7 +5953,7 @@
         <v>548</v>
       </c>
       <c r="Q262" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="263" spans="11:17">
@@ -5970,7 +5961,7 @@
         <v>549</v>
       </c>
       <c r="Q263" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="264" spans="11:17">
@@ -5978,7 +5969,7 @@
         <v>550</v>
       </c>
       <c r="Q264" t="s">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="265" spans="11:17">
@@ -5986,7 +5977,7 @@
         <v>551</v>
       </c>
       <c r="Q265" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
     </row>
     <row r="266" spans="11:17">
@@ -5994,7 +5985,7 @@
         <v>552</v>
       </c>
       <c r="Q266" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
     </row>
     <row r="267" spans="11:17">
@@ -6002,7 +5993,7 @@
         <v>553</v>
       </c>
       <c r="Q267" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="268" spans="11:17">
@@ -6010,7 +6001,7 @@
         <v>554</v>
       </c>
       <c r="Q268" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="269" spans="11:17">
@@ -6018,7 +6009,7 @@
         <v>555</v>
       </c>
       <c r="Q269" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
     </row>
     <row r="270" spans="11:17">
@@ -6026,7 +6017,7 @@
         <v>556</v>
       </c>
       <c r="Q270" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
     </row>
     <row r="271" spans="11:17">
@@ -6034,7 +6025,7 @@
         <v>557</v>
       </c>
       <c r="Q271" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="272" spans="11:17">
@@ -6042,7 +6033,7 @@
         <v>558</v>
       </c>
       <c r="Q272" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
     </row>
     <row r="273" spans="11:17">
@@ -6050,112 +6041,87 @@
         <v>559</v>
       </c>
       <c r="Q273" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
     </row>
     <row r="274" spans="11:17">
       <c r="Q274" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="11:17">
       <c r="Q275" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="276" spans="11:17">
       <c r="Q276" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
     </row>
     <row r="277" spans="11:17">
       <c r="Q277" t="s">
-        <v>555</v>
+        <v>590</v>
       </c>
     </row>
     <row r="278" spans="11:17">
       <c r="Q278" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
     <row r="279" spans="11:17">
       <c r="Q279" t="s">
-        <v>557</v>
+        <v>592</v>
       </c>
     </row>
     <row r="280" spans="11:17">
       <c r="Q280" t="s">
-        <v>558</v>
+        <v>593</v>
       </c>
     </row>
     <row r="281" spans="11:17">
       <c r="Q281" t="s">
-        <v>559</v>
+        <v>594</v>
       </c>
     </row>
     <row r="282" spans="11:17">
       <c r="Q282" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
     </row>
     <row r="283" spans="11:17">
       <c r="Q283" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="284" spans="11:17">
       <c r="Q284" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
     </row>
     <row r="285" spans="11:17">
       <c r="Q285" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="286" spans="11:17">
       <c r="Q286" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="287" spans="11:17">
       <c r="Q287" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="288" spans="11:17">
       <c r="Q288" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
     </row>
     <row r="289" spans="17:17">
       <c r="Q289" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="290" spans="17:17">
-      <c r="Q290" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="291" spans="17:17">
-      <c r="Q291" t="s">
         <v>602</v>
-      </c>
-    </row>
-    <row r="292" spans="17:17">
-      <c r="Q292" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="293" spans="17:17">
-      <c r="Q293" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="294" spans="17:17">
-      <c r="Q294" t="s">
-        <v>605</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -17,27 +17,27 @@
     <sheet name="cv_sample" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="clinicalsetting">'cv_sample'!$J$1:$J$2</definedName>
-    <definedName name="countryoftravel">'cv_sample'!$K$1:$K$273</definedName>
+    <definedName name="clinicalsetting">'cv_sample'!$L$1:$L$2</definedName>
+    <definedName name="countryoftravel">'cv_sample'!$M$1:$M$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$Q$1:$Q$289</definedName>
-    <definedName name="hostdiseaseoutcome">'cv_sample'!$R$1:$R$3</definedName>
-    <definedName name="hosthealthstate">'cv_sample'!$V$1:$V$14</definedName>
-    <definedName name="hostsex">'cv_sample'!$W$1:$W$17</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="hostdiseaseoutcome">'cv_sample'!$T$1:$T$3</definedName>
+    <definedName name="hosthealthstate">'cv_sample'!$X$1:$X$14</definedName>
+    <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
     <definedName name="instrumentmodel">'cv_experiment'!$N$1:$N$87</definedName>
     <definedName name="libraryselection">'cv_experiment'!$I$1:$I$31</definedName>
     <definedName name="librarysource">'cv_experiment'!$H$1:$H$9</definedName>
     <definedName name="librarystrategy">'cv_experiment'!$G$1:$G$41</definedName>
     <definedName name="platform">'cv_experiment'!$M$1:$M$17</definedName>
     <definedName name="studytype">'cv_study'!$C$1:$C$15</definedName>
-    <definedName name="travelrelation">'cv_sample'!$I$1:$I$3</definedName>
+    <definedName name="travelrelation">'cv_sample'!$K$1:$K$3</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="648">
   <si>
     <t>alias</t>
   </si>
@@ -841,6 +841,18 @@
   </si>
   <si>
     <t>(Mandatory) Ncbi taxonomy identifier.  this is appropriate for individual organisms and some environmental samples.</t>
+  </si>
+  <si>
+    <t>scientific_name</t>
+  </si>
+  <si>
+    <t>(Optional) Scientific name of sample that distinguishes its taxonomy.  please use a name or synonym that is tracked in the insdc taxonomy database. also, this field can be used to confirm the taxon_id setting.</t>
+  </si>
+  <si>
+    <t>common_name</t>
+  </si>
+  <si>
+    <t>(Optional) Genbank common name of the organism.  examples: human, mouse.</t>
   </si>
   <si>
     <t>sample_description</t>
@@ -3502,7 +3514,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AH2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3511,7 +3523,7 @@
     <col min="1" max="301" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:34">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3537,16 +3549,16 @@
         <v>276</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>560</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>562</v>
+        <v>289</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>564</v>
@@ -3561,13 +3573,13 @@
         <v>570</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>603</v>
+        <v>572</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>612</v>
@@ -3576,13 +3588,13 @@
         <v>614</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>624</v>
-      </c>
       <c r="X1" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="Y1" s="1" t="s">
         <v>628</v>
@@ -3608,8 +3620,14 @@
       <c r="AF1" s="1" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" ht="150" customHeight="1">
+      <c r="AG1" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" ht="150" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>264</v>
       </c>
@@ -3635,16 +3653,16 @@
         <v>277</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>561</v>
-      </c>
       <c r="L2" s="2" t="s">
-        <v>563</v>
+        <v>290</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>565</v>
@@ -3659,13 +3677,13 @@
         <v>571</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>604</v>
+        <v>573</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>613</v>
@@ -3674,13 +3692,13 @@
         <v>615</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="W2" s="2" t="s">
-        <v>625</v>
-      </c>
       <c r="X2" s="2" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="Y2" s="2" t="s">
         <v>629</v>
@@ -3706,28 +3724,34 @@
       <c r="AF2" s="2" t="s">
         <v>643</v>
       </c>
+      <c r="AG2" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="AH2" s="2" t="s">
+        <v>647</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
       <formula1>travelrelation</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L101">
       <formula1>clinicalsetting</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M101">
       <formula1>countryoftravel</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3:Q101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S101">
       <formula1>geographiclocationcountryandorsea</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:R101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T3:T101">
       <formula1>hostdiseaseoutcome</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X3:X101">
       <formula1>hosthealthstate</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3:Y101">
       <formula1>hostsex</formula1>
     </dataValidation>
   </dataValidations>
@@ -3737,2391 +3761,2391 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="I1:W289"/>
+  <dimension ref="K1:Y289"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="9:23">
-      <c r="I1" t="s">
-        <v>278</v>
-      </c>
-      <c r="J1" t="s">
+    <row r="1" spans="11:25">
+      <c r="K1" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" t="s">
+        <v>287</v>
+      </c>
+      <c r="M1" t="s">
+        <v>291</v>
+      </c>
+      <c r="S1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T1" t="s">
+        <v>609</v>
+      </c>
+      <c r="X1" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="2" spans="11:25">
+      <c r="K2" t="s">
         <v>283</v>
       </c>
-      <c r="K1" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>287</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="L2" t="s">
+        <v>288</v>
+      </c>
+      <c r="M2" t="s">
+        <v>292</v>
+      </c>
+      <c r="S2" t="s">
+        <v>292</v>
+      </c>
+      <c r="T2" t="s">
+        <v>610</v>
+      </c>
+      <c r="X2" t="s">
+        <v>621</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="3" spans="11:25">
+      <c r="K3" t="s">
+        <v>284</v>
+      </c>
+      <c r="M3" t="s">
+        <v>293</v>
+      </c>
+      <c r="S3" t="s">
+        <v>293</v>
+      </c>
+      <c r="T3" t="s">
+        <v>611</v>
+      </c>
+      <c r="X3" t="s">
+        <v>595</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="4" spans="11:25">
+      <c r="M4" t="s">
+        <v>294</v>
+      </c>
+      <c r="S4" t="s">
+        <v>294</v>
+      </c>
+      <c r="X4" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="5" spans="11:25">
+      <c r="M5" t="s">
+        <v>295</v>
+      </c>
+      <c r="S5" t="s">
+        <v>295</v>
+      </c>
+      <c r="X5" t="s">
+        <v>597</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="6" spans="11:25">
+      <c r="M6" t="s">
+        <v>296</v>
+      </c>
+      <c r="S6" t="s">
+        <v>296</v>
+      </c>
+      <c r="X6" t="s">
+        <v>598</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="7" spans="11:25">
+      <c r="M7" t="s">
+        <v>297</v>
+      </c>
+      <c r="S7" t="s">
+        <v>297</v>
+      </c>
+      <c r="X7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="8" spans="11:25">
+      <c r="M8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S8" t="s">
+        <v>298</v>
+      </c>
+      <c r="X8" t="s">
+        <v>600</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="9" spans="11:25">
+      <c r="M9" t="s">
+        <v>299</v>
+      </c>
+      <c r="S9" t="s">
+        <v>299</v>
+      </c>
+      <c r="X9" t="s">
+        <v>601</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="11:25">
+      <c r="M10" t="s">
+        <v>300</v>
+      </c>
+      <c r="S10" t="s">
+        <v>576</v>
+      </c>
+      <c r="X10" t="s">
+        <v>602</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="11" spans="11:25">
+      <c r="M11" t="s">
+        <v>301</v>
+      </c>
+      <c r="S11" t="s">
+        <v>300</v>
+      </c>
+      <c r="X11" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="12" spans="11:25">
+      <c r="M12" t="s">
+        <v>302</v>
+      </c>
+      <c r="S12" t="s">
+        <v>301</v>
+      </c>
+      <c r="X12" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="13" spans="11:25">
+      <c r="M13" t="s">
+        <v>303</v>
+      </c>
+      <c r="S13" t="s">
+        <v>302</v>
+      </c>
+      <c r="X13" t="s">
         <v>605</v>
       </c>
-      <c r="V1" t="s">
-        <v>616</v>
-      </c>
-      <c r="W1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="2" spans="9:23">
-      <c r="I2" t="s">
-        <v>279</v>
-      </c>
-      <c r="J2" t="s">
-        <v>284</v>
-      </c>
-      <c r="K2" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>288</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="Y13" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="14" spans="11:25">
+      <c r="M14" t="s">
+        <v>304</v>
+      </c>
+      <c r="S14" t="s">
+        <v>303</v>
+      </c>
+      <c r="X14" t="s">
         <v>606</v>
       </c>
-      <c r="V2" t="s">
-        <v>617</v>
-      </c>
-      <c r="W2" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="3" spans="9:23">
-      <c r="I3" t="s">
-        <v>280</v>
-      </c>
-      <c r="K3" t="s">
-        <v>289</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>289</v>
-      </c>
-      <c r="R3" t="s">
-        <v>607</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="Y14" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="15" spans="11:25">
+      <c r="M15" t="s">
+        <v>305</v>
+      </c>
+      <c r="S15" t="s">
+        <v>577</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="16" spans="11:25">
+      <c r="M16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S16" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="13:25">
+      <c r="M17" t="s">
+        <v>307</v>
+      </c>
+      <c r="S17" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="18" spans="13:25">
+      <c r="M18" t="s">
+        <v>308</v>
+      </c>
+      <c r="S18" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="13:25">
+      <c r="M19" t="s">
+        <v>309</v>
+      </c>
+      <c r="S19" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="20" spans="13:25">
+      <c r="M20" t="s">
+        <v>310</v>
+      </c>
+      <c r="S20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="13:25">
+      <c r="M21" t="s">
+        <v>311</v>
+      </c>
+      <c r="S21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="22" spans="13:25">
+      <c r="M22" t="s">
+        <v>312</v>
+      </c>
+      <c r="S22" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="23" spans="13:25">
+      <c r="M23" t="s">
+        <v>313</v>
+      </c>
+      <c r="S23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="24" spans="13:25">
+      <c r="M24" t="s">
+        <v>314</v>
+      </c>
+      <c r="S24" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="25" spans="13:25">
+      <c r="M25" t="s">
+        <v>315</v>
+      </c>
+      <c r="S25" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="26" spans="13:25">
+      <c r="M26" t="s">
+        <v>316</v>
+      </c>
+      <c r="S26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="13:25">
+      <c r="M27" t="s">
+        <v>317</v>
+      </c>
+      <c r="S27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="28" spans="13:25">
+      <c r="M28" t="s">
+        <v>318</v>
+      </c>
+      <c r="S28" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="29" spans="13:25">
+      <c r="M29" t="s">
+        <v>319</v>
+      </c>
+      <c r="S29" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="30" spans="13:25">
+      <c r="M30" t="s">
+        <v>320</v>
+      </c>
+      <c r="S30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="13:25">
+      <c r="M31" t="s">
+        <v>321</v>
+      </c>
+      <c r="S31" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="32" spans="13:25">
+      <c r="M32" t="s">
+        <v>322</v>
+      </c>
+      <c r="S32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="33" spans="13:19">
+      <c r="M33" t="s">
+        <v>323</v>
+      </c>
+      <c r="S33" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="34" spans="13:19">
+      <c r="M34" t="s">
+        <v>324</v>
+      </c>
+      <c r="S34" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="13:19">
+      <c r="M35" t="s">
+        <v>325</v>
+      </c>
+      <c r="S35" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="36" spans="13:19">
+      <c r="M36" t="s">
+        <v>326</v>
+      </c>
+      <c r="S36" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="13:19">
+      <c r="M37" t="s">
+        <v>327</v>
+      </c>
+      <c r="S37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="38" spans="13:19">
+      <c r="M38" t="s">
+        <v>328</v>
+      </c>
+      <c r="S38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="39" spans="13:19">
+      <c r="M39" t="s">
+        <v>329</v>
+      </c>
+      <c r="S39" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="40" spans="13:19">
+      <c r="M40" t="s">
+        <v>330</v>
+      </c>
+      <c r="S40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="13:19">
+      <c r="M41" t="s">
+        <v>331</v>
+      </c>
+      <c r="S41" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="42" spans="13:19">
+      <c r="M42" t="s">
+        <v>332</v>
+      </c>
+      <c r="S42" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="43" spans="13:19">
+      <c r="M43" t="s">
+        <v>333</v>
+      </c>
+      <c r="S43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="44" spans="13:19">
+      <c r="M44" t="s">
+        <v>334</v>
+      </c>
+      <c r="S44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45" spans="13:19">
+      <c r="M45" t="s">
+        <v>335</v>
+      </c>
+      <c r="S45" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="46" spans="13:19">
+      <c r="M46" t="s">
+        <v>336</v>
+      </c>
+      <c r="S46" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="47" spans="13:19">
+      <c r="M47" t="s">
+        <v>337</v>
+      </c>
+      <c r="S47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="48" spans="13:19">
+      <c r="M48" t="s">
+        <v>338</v>
+      </c>
+      <c r="S48" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="13:19">
+      <c r="M49" t="s">
+        <v>339</v>
+      </c>
+      <c r="S49" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="50" spans="13:19">
+      <c r="M50" t="s">
+        <v>340</v>
+      </c>
+      <c r="S50" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="51" spans="13:19">
+      <c r="M51" t="s">
+        <v>341</v>
+      </c>
+      <c r="S51" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="52" spans="13:19">
+      <c r="M52" t="s">
+        <v>342</v>
+      </c>
+      <c r="S52" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="13:19">
+      <c r="M53" t="s">
+        <v>343</v>
+      </c>
+      <c r="S53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54" spans="13:19">
+      <c r="M54" t="s">
+        <v>344</v>
+      </c>
+      <c r="S54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="13:19">
+      <c r="M55" t="s">
+        <v>345</v>
+      </c>
+      <c r="S55" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="56" spans="13:19">
+      <c r="M56" t="s">
+        <v>346</v>
+      </c>
+      <c r="S56" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="57" spans="13:19">
+      <c r="M57" t="s">
+        <v>347</v>
+      </c>
+      <c r="S57" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="58" spans="13:19">
+      <c r="M58" t="s">
+        <v>348</v>
+      </c>
+      <c r="S58" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="59" spans="13:19">
+      <c r="M59" t="s">
+        <v>349</v>
+      </c>
+      <c r="S59" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="13:19">
+      <c r="M60" t="s">
+        <v>350</v>
+      </c>
+      <c r="S60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="61" spans="13:19">
+      <c r="M61" t="s">
+        <v>351</v>
+      </c>
+      <c r="S61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="13:19">
+      <c r="M62" t="s">
+        <v>352</v>
+      </c>
+      <c r="S62" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="63" spans="13:19">
+      <c r="M63" t="s">
+        <v>353</v>
+      </c>
+      <c r="S63" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="64" spans="13:19">
+      <c r="M64" t="s">
+        <v>354</v>
+      </c>
+      <c r="S64" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="13:19">
+      <c r="M65" t="s">
+        <v>355</v>
+      </c>
+      <c r="S65" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="66" spans="13:19">
+      <c r="M66" t="s">
+        <v>356</v>
+      </c>
+      <c r="S66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="13:19">
+      <c r="M67" t="s">
+        <v>357</v>
+      </c>
+      <c r="S67" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="68" spans="13:19">
+      <c r="M68" t="s">
+        <v>358</v>
+      </c>
+      <c r="S68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="13:19">
+      <c r="M69" t="s">
+        <v>359</v>
+      </c>
+      <c r="S69" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="70" spans="13:19">
+      <c r="M70" t="s">
+        <v>360</v>
+      </c>
+      <c r="S70" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="71" spans="13:19">
+      <c r="M71" t="s">
+        <v>361</v>
+      </c>
+      <c r="S71" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="72" spans="13:19">
+      <c r="M72" t="s">
+        <v>362</v>
+      </c>
+      <c r="S72" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="73" spans="13:19">
+      <c r="M73" t="s">
+        <v>363</v>
+      </c>
+      <c r="S73" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="13:19">
+      <c r="M74" t="s">
+        <v>364</v>
+      </c>
+      <c r="S74" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="13:19">
+      <c r="M75" t="s">
+        <v>365</v>
+      </c>
+      <c r="S75" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="76" spans="13:19">
+      <c r="M76" t="s">
+        <v>366</v>
+      </c>
+      <c r="S76" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="77" spans="13:19">
+      <c r="M77" t="s">
+        <v>367</v>
+      </c>
+      <c r="S77" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="78" spans="13:19">
+      <c r="M78" t="s">
+        <v>368</v>
+      </c>
+      <c r="S78" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="79" spans="13:19">
+      <c r="M79" t="s">
+        <v>369</v>
+      </c>
+      <c r="S79" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="80" spans="13:19">
+      <c r="M80" t="s">
+        <v>370</v>
+      </c>
+      <c r="S80" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="81" spans="13:19">
+      <c r="M81" t="s">
+        <v>371</v>
+      </c>
+      <c r="S81" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="82" spans="13:19">
+      <c r="M82" t="s">
+        <v>372</v>
+      </c>
+      <c r="S82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="13:19">
+      <c r="M83" t="s">
+        <v>373</v>
+      </c>
+      <c r="S83" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="84" spans="13:19">
+      <c r="M84" t="s">
+        <v>374</v>
+      </c>
+      <c r="S84" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="85" spans="13:19">
+      <c r="M85" t="s">
+        <v>375</v>
+      </c>
+      <c r="S85" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="86" spans="13:19">
+      <c r="M86" t="s">
+        <v>376</v>
+      </c>
+      <c r="S86" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="87" spans="13:19">
+      <c r="M87" t="s">
+        <v>377</v>
+      </c>
+      <c r="S87" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="88" spans="13:19">
+      <c r="M88" t="s">
+        <v>378</v>
+      </c>
+      <c r="S88" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="89" spans="13:19">
+      <c r="M89" t="s">
+        <v>379</v>
+      </c>
+      <c r="S89" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="90" spans="13:19">
+      <c r="M90" t="s">
+        <v>380</v>
+      </c>
+      <c r="S90" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="91" spans="13:19">
+      <c r="M91" t="s">
+        <v>381</v>
+      </c>
+      <c r="S91" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="92" spans="13:19">
+      <c r="M92" t="s">
+        <v>382</v>
+      </c>
+      <c r="S92" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="93" spans="13:19">
+      <c r="M93" t="s">
+        <v>383</v>
+      </c>
+      <c r="S93" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="94" spans="13:19">
+      <c r="M94" t="s">
+        <v>384</v>
+      </c>
+      <c r="S94" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="95" spans="13:19">
+      <c r="M95" t="s">
+        <v>385</v>
+      </c>
+      <c r="S95" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="96" spans="13:19">
+      <c r="M96" t="s">
+        <v>386</v>
+      </c>
+      <c r="S96" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="97" spans="13:19">
+      <c r="M97" t="s">
+        <v>387</v>
+      </c>
+      <c r="S97" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="98" spans="13:19">
+      <c r="M98" t="s">
+        <v>388</v>
+      </c>
+      <c r="S98" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="99" spans="13:19">
+      <c r="M99" t="s">
+        <v>389</v>
+      </c>
+      <c r="S99" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="100" spans="13:19">
+      <c r="M100" t="s">
+        <v>390</v>
+      </c>
+      <c r="S100" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="101" spans="13:19">
+      <c r="M101" t="s">
+        <v>391</v>
+      </c>
+      <c r="S101" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="13:19">
+      <c r="M102" t="s">
+        <v>392</v>
+      </c>
+      <c r="S102" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="103" spans="13:19">
+      <c r="M103" t="s">
+        <v>393</v>
+      </c>
+      <c r="S103" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="104" spans="13:19">
+      <c r="M104" t="s">
+        <v>394</v>
+      </c>
+      <c r="S104" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="105" spans="13:19">
+      <c r="M105" t="s">
+        <v>395</v>
+      </c>
+      <c r="S105" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="106" spans="13:19">
+      <c r="M106" t="s">
+        <v>396</v>
+      </c>
+      <c r="S106" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="107" spans="13:19">
+      <c r="M107" t="s">
+        <v>397</v>
+      </c>
+      <c r="S107" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="108" spans="13:19">
+      <c r="M108" t="s">
+        <v>398</v>
+      </c>
+      <c r="S108" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="109" spans="13:19">
+      <c r="M109" t="s">
+        <v>399</v>
+      </c>
+      <c r="S109" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="13:19">
+      <c r="M110" t="s">
+        <v>400</v>
+      </c>
+      <c r="S110" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="111" spans="13:19">
+      <c r="M111" t="s">
+        <v>401</v>
+      </c>
+      <c r="S111" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="112" spans="13:19">
+      <c r="M112" t="s">
+        <v>402</v>
+      </c>
+      <c r="S112" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="113" spans="13:19">
+      <c r="M113" t="s">
+        <v>403</v>
+      </c>
+      <c r="S113" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="114" spans="13:19">
+      <c r="M114" t="s">
+        <v>404</v>
+      </c>
+      <c r="S114" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="115" spans="13:19">
+      <c r="M115" t="s">
+        <v>405</v>
+      </c>
+      <c r="S115" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="116" spans="13:19">
+      <c r="M116" t="s">
+        <v>406</v>
+      </c>
+      <c r="S116" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="117" spans="13:19">
+      <c r="M117" t="s">
+        <v>407</v>
+      </c>
+      <c r="S117" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="13:19">
+      <c r="M118" t="s">
+        <v>408</v>
+      </c>
+      <c r="S118" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="119" spans="13:19">
+      <c r="M119" t="s">
+        <v>409</v>
+      </c>
+      <c r="S119" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="13:19">
+      <c r="M120" t="s">
+        <v>410</v>
+      </c>
+      <c r="S120" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="13:19">
+      <c r="M121" t="s">
+        <v>411</v>
+      </c>
+      <c r="S121" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="13:19">
+      <c r="M122" t="s">
+        <v>412</v>
+      </c>
+      <c r="S122" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="123" spans="13:19">
+      <c r="M123" t="s">
+        <v>413</v>
+      </c>
+      <c r="S123" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="124" spans="13:19">
+      <c r="M124" t="s">
+        <v>414</v>
+      </c>
+      <c r="S124" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="125" spans="13:19">
+      <c r="M125" t="s">
+        <v>415</v>
+      </c>
+      <c r="S125" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="126" spans="13:19">
+      <c r="M126" t="s">
+        <v>416</v>
+      </c>
+      <c r="S126" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="127" spans="13:19">
+      <c r="M127" t="s">
+        <v>417</v>
+      </c>
+      <c r="S127" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="128" spans="13:19">
+      <c r="M128" t="s">
+        <v>418</v>
+      </c>
+      <c r="S128" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="129" spans="13:19">
+      <c r="M129" t="s">
+        <v>419</v>
+      </c>
+      <c r="S129" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="130" spans="13:19">
+      <c r="M130" t="s">
+        <v>420</v>
+      </c>
+      <c r="S130" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="131" spans="13:19">
+      <c r="M131" t="s">
+        <v>421</v>
+      </c>
+      <c r="S131" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="132" spans="13:19">
+      <c r="M132" t="s">
+        <v>422</v>
+      </c>
+      <c r="S132" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="133" spans="13:19">
+      <c r="M133" t="s">
+        <v>423</v>
+      </c>
+      <c r="S133" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="134" spans="13:19">
+      <c r="M134" t="s">
+        <v>424</v>
+      </c>
+      <c r="S134" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="135" spans="13:19">
+      <c r="M135" t="s">
+        <v>425</v>
+      </c>
+      <c r="S135" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="136" spans="13:19">
+      <c r="M136" t="s">
+        <v>426</v>
+      </c>
+      <c r="S136" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="137" spans="13:19">
+      <c r="M137" t="s">
+        <v>427</v>
+      </c>
+      <c r="S137" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="138" spans="13:19">
+      <c r="M138" t="s">
+        <v>428</v>
+      </c>
+      <c r="S138" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="139" spans="13:19">
+      <c r="M139" t="s">
+        <v>429</v>
+      </c>
+      <c r="S139" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="140" spans="13:19">
+      <c r="M140" t="s">
+        <v>430</v>
+      </c>
+      <c r="S140" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="141" spans="13:19">
+      <c r="M141" t="s">
+        <v>431</v>
+      </c>
+      <c r="S141" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="142" spans="13:19">
+      <c r="M142" t="s">
+        <v>432</v>
+      </c>
+      <c r="S142" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="143" spans="13:19">
+      <c r="M143" t="s">
+        <v>433</v>
+      </c>
+      <c r="S143" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="144" spans="13:19">
+      <c r="M144" t="s">
+        <v>434</v>
+      </c>
+      <c r="S144" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="145" spans="13:19">
+      <c r="M145" t="s">
+        <v>435</v>
+      </c>
+      <c r="S145" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="146" spans="13:19">
+      <c r="M146" t="s">
+        <v>436</v>
+      </c>
+      <c r="S146" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="147" spans="13:19">
+      <c r="M147" t="s">
+        <v>437</v>
+      </c>
+      <c r="S147" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="148" spans="13:19">
+      <c r="M148" t="s">
+        <v>438</v>
+      </c>
+      <c r="S148" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="149" spans="13:19">
+      <c r="M149" t="s">
+        <v>439</v>
+      </c>
+      <c r="S149" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="150" spans="13:19">
+      <c r="M150" t="s">
+        <v>440</v>
+      </c>
+      <c r="S150" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="151" spans="13:19">
+      <c r="M151" t="s">
+        <v>441</v>
+      </c>
+      <c r="S151" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="152" spans="13:19">
+      <c r="M152" t="s">
+        <v>442</v>
+      </c>
+      <c r="S152" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="153" spans="13:19">
+      <c r="M153" t="s">
+        <v>443</v>
+      </c>
+      <c r="S153" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="154" spans="13:19">
+      <c r="M154" t="s">
+        <v>444</v>
+      </c>
+      <c r="S154" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="13:19">
+      <c r="M155" t="s">
+        <v>445</v>
+      </c>
+      <c r="S155" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="156" spans="13:19">
+      <c r="M156" t="s">
+        <v>446</v>
+      </c>
+      <c r="S156" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="157" spans="13:19">
+      <c r="M157" t="s">
+        <v>447</v>
+      </c>
+      <c r="S157" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="158" spans="13:19">
+      <c r="M158" t="s">
+        <v>448</v>
+      </c>
+      <c r="S158" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="159" spans="13:19">
+      <c r="M159" t="s">
+        <v>449</v>
+      </c>
+      <c r="S159" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="160" spans="13:19">
+      <c r="M160" t="s">
+        <v>450</v>
+      </c>
+      <c r="S160" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="161" spans="13:19">
+      <c r="M161" t="s">
+        <v>451</v>
+      </c>
+      <c r="S161" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="162" spans="13:19">
+      <c r="M162" t="s">
+        <v>452</v>
+      </c>
+      <c r="S162" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="163" spans="13:19">
+      <c r="M163" t="s">
+        <v>453</v>
+      </c>
+      <c r="S163" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="164" spans="13:19">
+      <c r="M164" t="s">
+        <v>454</v>
+      </c>
+      <c r="S164" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="165" spans="13:19">
+      <c r="M165" t="s">
+        <v>455</v>
+      </c>
+      <c r="S165" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="166" spans="13:19">
+      <c r="M166" t="s">
+        <v>456</v>
+      </c>
+      <c r="S166" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="167" spans="13:19">
+      <c r="M167" t="s">
+        <v>457</v>
+      </c>
+      <c r="S167" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="168" spans="13:19">
+      <c r="M168" t="s">
+        <v>458</v>
+      </c>
+      <c r="S168" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="169" spans="13:19">
+      <c r="M169" t="s">
+        <v>459</v>
+      </c>
+      <c r="S169" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="170" spans="13:19">
+      <c r="M170" t="s">
+        <v>460</v>
+      </c>
+      <c r="S170" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="171" spans="13:19">
+      <c r="M171" t="s">
+        <v>461</v>
+      </c>
+      <c r="S171" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="172" spans="13:19">
+      <c r="M172" t="s">
+        <v>462</v>
+      </c>
+      <c r="S172" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="173" spans="13:19">
+      <c r="M173" t="s">
+        <v>463</v>
+      </c>
+      <c r="S173" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="174" spans="13:19">
+      <c r="M174" t="s">
+        <v>464</v>
+      </c>
+      <c r="S174" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="175" spans="13:19">
+      <c r="M175" t="s">
+        <v>465</v>
+      </c>
+      <c r="S175" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="176" spans="13:19">
+      <c r="M176" t="s">
+        <v>466</v>
+      </c>
+      <c r="S176" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="13:19">
+      <c r="M177" t="s">
+        <v>467</v>
+      </c>
+      <c r="S177" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="178" spans="13:19">
+      <c r="M178" t="s">
+        <v>468</v>
+      </c>
+      <c r="S178" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="179" spans="13:19">
+      <c r="M179" t="s">
+        <v>469</v>
+      </c>
+      <c r="S179" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="180" spans="13:19">
+      <c r="M180" t="s">
+        <v>470</v>
+      </c>
+      <c r="S180" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="181" spans="13:19">
+      <c r="M181" t="s">
+        <v>471</v>
+      </c>
+      <c r="S181" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="182" spans="13:19">
+      <c r="M182" t="s">
+        <v>472</v>
+      </c>
+      <c r="S182" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="183" spans="13:19">
+      <c r="M183" t="s">
+        <v>473</v>
+      </c>
+      <c r="S183" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="184" spans="13:19">
+      <c r="M184" t="s">
+        <v>474</v>
+      </c>
+      <c r="S184" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="185" spans="13:19">
+      <c r="M185" t="s">
+        <v>475</v>
+      </c>
+      <c r="S185" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="186" spans="13:19">
+      <c r="M186" t="s">
+        <v>476</v>
+      </c>
+      <c r="S186" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="187" spans="13:19">
+      <c r="M187" t="s">
+        <v>477</v>
+      </c>
+      <c r="S187" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="188" spans="13:19">
+      <c r="M188" t="s">
+        <v>478</v>
+      </c>
+      <c r="S188" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="189" spans="13:19">
+      <c r="M189" t="s">
+        <v>479</v>
+      </c>
+      <c r="S189" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="190" spans="13:19">
+      <c r="M190" t="s">
+        <v>480</v>
+      </c>
+      <c r="S190" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="191" spans="13:19">
+      <c r="M191" t="s">
+        <v>481</v>
+      </c>
+      <c r="S191" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="192" spans="13:19">
+      <c r="M192" t="s">
+        <v>482</v>
+      </c>
+      <c r="S192" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="193" spans="13:19">
+      <c r="M193" t="s">
+        <v>483</v>
+      </c>
+      <c r="S193" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="194" spans="13:19">
+      <c r="M194" t="s">
+        <v>484</v>
+      </c>
+      <c r="S194" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="195" spans="13:19">
+      <c r="M195" t="s">
+        <v>485</v>
+      </c>
+      <c r="S195" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="196" spans="13:19">
+      <c r="M196" t="s">
+        <v>486</v>
+      </c>
+      <c r="S196" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="197" spans="13:19">
+      <c r="M197" t="s">
+        <v>487</v>
+      </c>
+      <c r="S197" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="198" spans="13:19">
+      <c r="M198" t="s">
+        <v>488</v>
+      </c>
+      <c r="S198" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="13:19">
+      <c r="M199" t="s">
+        <v>489</v>
+      </c>
+      <c r="S199" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="200" spans="13:19">
+      <c r="M200" t="s">
+        <v>490</v>
+      </c>
+      <c r="S200" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="201" spans="13:19">
+      <c r="M201" t="s">
+        <v>491</v>
+      </c>
+      <c r="S201" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="202" spans="13:19">
+      <c r="M202" t="s">
+        <v>492</v>
+      </c>
+      <c r="S202" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="203" spans="13:19">
+      <c r="M203" t="s">
+        <v>493</v>
+      </c>
+      <c r="S203" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="204" spans="13:19">
+      <c r="M204" t="s">
+        <v>494</v>
+      </c>
+      <c r="S204" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="205" spans="13:19">
+      <c r="M205" t="s">
+        <v>495</v>
+      </c>
+      <c r="S205" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="206" spans="13:19">
+      <c r="M206" t="s">
+        <v>496</v>
+      </c>
+      <c r="S206" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="207" spans="13:19">
+      <c r="M207" t="s">
+        <v>497</v>
+      </c>
+      <c r="S207" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="208" spans="13:19">
+      <c r="M208" t="s">
+        <v>498</v>
+      </c>
+      <c r="S208" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="209" spans="13:19">
+      <c r="M209" t="s">
+        <v>499</v>
+      </c>
+      <c r="S209" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="210" spans="13:19">
+      <c r="M210" t="s">
+        <v>500</v>
+      </c>
+      <c r="S210" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="211" spans="13:19">
+      <c r="M211" t="s">
+        <v>501</v>
+      </c>
+      <c r="S211" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="13:19">
+      <c r="M212" t="s">
+        <v>502</v>
+      </c>
+      <c r="S212" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="213" spans="13:19">
+      <c r="M213" t="s">
+        <v>503</v>
+      </c>
+      <c r="S213" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="214" spans="13:19">
+      <c r="M214" t="s">
+        <v>504</v>
+      </c>
+      <c r="S214" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="215" spans="13:19">
+      <c r="M215" t="s">
+        <v>505</v>
+      </c>
+      <c r="S215" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="216" spans="13:19">
+      <c r="M216" t="s">
+        <v>506</v>
+      </c>
+      <c r="S216" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="217" spans="13:19">
+      <c r="M217" t="s">
+        <v>507</v>
+      </c>
+      <c r="S217" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="218" spans="13:19">
+      <c r="M218" t="s">
+        <v>508</v>
+      </c>
+      <c r="S218" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="219" spans="13:19">
+      <c r="M219" t="s">
+        <v>509</v>
+      </c>
+      <c r="S219" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="220" spans="13:19">
+      <c r="M220" t="s">
+        <v>510</v>
+      </c>
+      <c r="S220" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="221" spans="13:19">
+      <c r="M221" t="s">
+        <v>511</v>
+      </c>
+      <c r="S221" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="13:19">
+      <c r="M222" t="s">
+        <v>512</v>
+      </c>
+      <c r="S222" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="223" spans="13:19">
+      <c r="M223" t="s">
+        <v>513</v>
+      </c>
+      <c r="S223" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="224" spans="13:19">
+      <c r="M224" t="s">
+        <v>514</v>
+      </c>
+      <c r="S224" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="225" spans="13:19">
+      <c r="M225" t="s">
+        <v>515</v>
+      </c>
+      <c r="S225" t="s">
         <v>591</v>
       </c>
-      <c r="W3" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="4" spans="9:23">
-      <c r="K4" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>290</v>
-      </c>
-      <c r="V4" t="s">
+    </row>
+    <row r="226" spans="13:19">
+      <c r="M226" t="s">
+        <v>516</v>
+      </c>
+      <c r="S226" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="227" spans="13:19">
+      <c r="M227" t="s">
+        <v>517</v>
+      </c>
+      <c r="S227" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="228" spans="13:19">
+      <c r="M228" t="s">
+        <v>518</v>
+      </c>
+      <c r="S228" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="229" spans="13:19">
+      <c r="M229" t="s">
+        <v>519</v>
+      </c>
+      <c r="S229" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="230" spans="13:19">
+      <c r="M230" t="s">
+        <v>520</v>
+      </c>
+      <c r="S230" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="231" spans="13:19">
+      <c r="M231" t="s">
+        <v>521</v>
+      </c>
+      <c r="S231" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="232" spans="13:19">
+      <c r="M232" t="s">
+        <v>522</v>
+      </c>
+      <c r="S232" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="233" spans="13:19">
+      <c r="M233" t="s">
+        <v>523</v>
+      </c>
+      <c r="S233" t="s">
         <v>592</v>
       </c>
-      <c r="W4" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="5" spans="9:23">
-      <c r="K5" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>291</v>
-      </c>
-      <c r="V5" t="s">
+    </row>
+    <row r="234" spans="13:19">
+      <c r="M234" t="s">
+        <v>524</v>
+      </c>
+      <c r="S234" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="235" spans="13:19">
+      <c r="M235" t="s">
+        <v>525</v>
+      </c>
+      <c r="S235" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="236" spans="13:19">
+      <c r="M236" t="s">
+        <v>526</v>
+      </c>
+      <c r="S236" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="237" spans="13:19">
+      <c r="M237" t="s">
+        <v>527</v>
+      </c>
+      <c r="S237" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="238" spans="13:19">
+      <c r="M238" t="s">
+        <v>528</v>
+      </c>
+      <c r="S238" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="239" spans="13:19">
+      <c r="M239" t="s">
+        <v>529</v>
+      </c>
+      <c r="S239" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="240" spans="13:19">
+      <c r="M240" t="s">
+        <v>530</v>
+      </c>
+      <c r="S240" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="241" spans="13:19">
+      <c r="M241" t="s">
+        <v>531</v>
+      </c>
+      <c r="S241" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="242" spans="13:19">
+      <c r="M242" t="s">
+        <v>532</v>
+      </c>
+      <c r="S242" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="243" spans="13:19">
+      <c r="M243" t="s">
+        <v>533</v>
+      </c>
+      <c r="S243" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="244" spans="13:19">
+      <c r="M244" t="s">
+        <v>534</v>
+      </c>
+      <c r="S244" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="245" spans="13:19">
+      <c r="M245" t="s">
+        <v>535</v>
+      </c>
+      <c r="S245" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="246" spans="13:19">
+      <c r="M246" t="s">
+        <v>536</v>
+      </c>
+      <c r="S246" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="247" spans="13:19">
+      <c r="M247" t="s">
+        <v>537</v>
+      </c>
+      <c r="S247" t="s">
         <v>593</v>
       </c>
-      <c r="W5" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="6" spans="9:23">
-      <c r="K6" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>292</v>
-      </c>
-      <c r="V6" t="s">
+    </row>
+    <row r="248" spans="13:19">
+      <c r="M248" t="s">
+        <v>538</v>
+      </c>
+      <c r="S248" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="249" spans="13:19">
+      <c r="M249" t="s">
+        <v>539</v>
+      </c>
+      <c r="S249" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="250" spans="13:19">
+      <c r="M250" t="s">
+        <v>540</v>
+      </c>
+      <c r="S250" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="251" spans="13:19">
+      <c r="M251" t="s">
+        <v>541</v>
+      </c>
+      <c r="S251" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="252" spans="13:19">
+      <c r="M252" t="s">
+        <v>542</v>
+      </c>
+      <c r="S252" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="253" spans="13:19">
+      <c r="M253" t="s">
+        <v>543</v>
+      </c>
+      <c r="S253" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="254" spans="13:19">
+      <c r="M254" t="s">
+        <v>544</v>
+      </c>
+      <c r="S254" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="255" spans="13:19">
+      <c r="M255" t="s">
+        <v>545</v>
+      </c>
+      <c r="S255" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="256" spans="13:19">
+      <c r="M256" t="s">
+        <v>546</v>
+      </c>
+      <c r="S256" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="257" spans="13:19">
+      <c r="M257" t="s">
+        <v>547</v>
+      </c>
+      <c r="S257" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="258" spans="13:19">
+      <c r="M258" t="s">
+        <v>548</v>
+      </c>
+      <c r="S258" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="259" spans="13:19">
+      <c r="M259" t="s">
+        <v>549</v>
+      </c>
+      <c r="S259" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="260" spans="13:19">
+      <c r="M260" t="s">
+        <v>550</v>
+      </c>
+      <c r="S260" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="261" spans="13:19">
+      <c r="M261" t="s">
+        <v>551</v>
+      </c>
+      <c r="S261" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="262" spans="13:19">
+      <c r="M262" t="s">
+        <v>552</v>
+      </c>
+      <c r="S262" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="263" spans="13:19">
+      <c r="M263" t="s">
+        <v>553</v>
+      </c>
+      <c r="S263" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="264" spans="13:19">
+      <c r="M264" t="s">
+        <v>554</v>
+      </c>
+      <c r="S264" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="265" spans="13:19">
+      <c r="M265" t="s">
+        <v>555</v>
+      </c>
+      <c r="S265" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="266" spans="13:19">
+      <c r="M266" t="s">
+        <v>556</v>
+      </c>
+      <c r="S266" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="267" spans="13:19">
+      <c r="M267" t="s">
+        <v>557</v>
+      </c>
+      <c r="S267" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="268" spans="13:19">
+      <c r="M268" t="s">
+        <v>558</v>
+      </c>
+      <c r="S268" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="269" spans="13:19">
+      <c r="M269" t="s">
+        <v>559</v>
+      </c>
+      <c r="S269" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="270" spans="13:19">
+      <c r="M270" t="s">
+        <v>560</v>
+      </c>
+      <c r="S270" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="271" spans="13:19">
+      <c r="M271" t="s">
+        <v>561</v>
+      </c>
+      <c r="S271" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="272" spans="13:19">
+      <c r="M272" t="s">
+        <v>562</v>
+      </c>
+      <c r="S272" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="273" spans="13:19">
+      <c r="M273" t="s">
+        <v>563</v>
+      </c>
+      <c r="S273" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="274" spans="13:19">
+      <c r="S274" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="275" spans="13:19">
+      <c r="S275" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="276" spans="13:19">
+      <c r="S276" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="277" spans="13:19">
+      <c r="S277" t="s">
         <v>594</v>
       </c>
-      <c r="W6" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="7" spans="9:23">
-      <c r="K7" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>293</v>
-      </c>
-      <c r="V7" t="s">
+    </row>
+    <row r="278" spans="13:19">
+      <c r="S278" t="s">
         <v>595</v>
       </c>
-      <c r="W7" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="8" spans="9:23">
-      <c r="K8" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>294</v>
-      </c>
-      <c r="V8" t="s">
+    </row>
+    <row r="279" spans="13:19">
+      <c r="S279" t="s">
         <v>596</v>
       </c>
-      <c r="W8" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="9" spans="9:23">
-      <c r="K9" t="s">
-        <v>295</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>295</v>
-      </c>
-      <c r="V9" t="s">
+    </row>
+    <row r="280" spans="13:19">
+      <c r="S280" t="s">
         <v>597</v>
       </c>
-      <c r="W9" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="9:23">
-      <c r="K10" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>572</v>
-      </c>
-      <c r="V10" t="s">
+    </row>
+    <row r="281" spans="13:19">
+      <c r="S281" t="s">
         <v>598</v>
       </c>
-      <c r="W10" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="11" spans="9:23">
-      <c r="K11" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>296</v>
-      </c>
-      <c r="V11" t="s">
+    </row>
+    <row r="282" spans="13:19">
+      <c r="S282" t="s">
         <v>599</v>
       </c>
-      <c r="W11" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="12" spans="9:23">
-      <c r="K12" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>297</v>
-      </c>
-      <c r="V12" t="s">
+    </row>
+    <row r="283" spans="13:19">
+      <c r="S283" t="s">
         <v>600</v>
       </c>
-      <c r="W12" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="13" spans="9:23">
-      <c r="K13" t="s">
-        <v>299</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>298</v>
-      </c>
-      <c r="V13" t="s">
+    </row>
+    <row r="284" spans="13:19">
+      <c r="S284" t="s">
         <v>601</v>
       </c>
-      <c r="W13" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="14" spans="9:23">
-      <c r="K14" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>299</v>
-      </c>
-      <c r="V14" t="s">
+    </row>
+    <row r="285" spans="13:19">
+      <c r="S285" t="s">
         <v>602</v>
       </c>
-      <c r="W14" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="15" spans="9:23">
-      <c r="K15" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>573</v>
-      </c>
-      <c r="W15" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="16" spans="9:23">
-      <c r="K16" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>300</v>
-      </c>
-      <c r="W16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="11:23">
-      <c r="K17" t="s">
-        <v>303</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>301</v>
-      </c>
-      <c r="W17" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="18" spans="11:23">
-      <c r="K18" t="s">
-        <v>304</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="19" spans="11:23">
-      <c r="K19" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="11:23">
-      <c r="K20" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="21" spans="11:23">
-      <c r="K21" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="11:23">
-      <c r="K22" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="23" spans="11:23">
-      <c r="K23" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="24" spans="11:23">
-      <c r="K24" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="11:23">
-      <c r="K25" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="11:23">
-      <c r="K26" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="27" spans="11:23">
-      <c r="K27" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="28" spans="11:23">
-      <c r="K28" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="11:23">
-      <c r="K29" t="s">
-        <v>315</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="30" spans="11:23">
-      <c r="K30" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="31" spans="11:23">
-      <c r="K31" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="32" spans="11:23">
-      <c r="K32" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="11:17">
-      <c r="K33" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="34" spans="11:17">
-      <c r="K34" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="35" spans="11:17">
-      <c r="K35" t="s">
-        <v>321</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="36" spans="11:17">
-      <c r="K36" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="37" spans="11:17">
-      <c r="K37" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="38" spans="11:17">
-      <c r="K38" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="39" spans="11:17">
-      <c r="K39" t="s">
-        <v>325</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="40" spans="11:17">
-      <c r="K40" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="41" spans="11:17">
-      <c r="K41" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="42" spans="11:17">
-      <c r="K42" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="11:17">
-      <c r="K43" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="44" spans="11:17">
-      <c r="K44" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="45" spans="11:17">
-      <c r="K45" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q45" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="46" spans="11:17">
-      <c r="K46" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="47" spans="11:17">
-      <c r="K47" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="48" spans="11:17">
-      <c r="K48" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="49" spans="11:17">
-      <c r="K49" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="11:17">
-      <c r="K50" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q50" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="51" spans="11:17">
-      <c r="K51" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="52" spans="11:17">
-      <c r="K52" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q52" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="11:17">
-      <c r="K53" t="s">
-        <v>339</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="54" spans="11:17">
-      <c r="K54" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="55" spans="11:17">
-      <c r="K55" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="56" spans="11:17">
-      <c r="K56" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="57" spans="11:17">
-      <c r="K57" t="s">
-        <v>343</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="58" spans="11:17">
-      <c r="K58" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q58" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="59" spans="11:17">
-      <c r="K59" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q59" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="60" spans="11:17">
-      <c r="K60" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="61" spans="11:17">
-      <c r="K61" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="62" spans="11:17">
-      <c r="K62" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="63" spans="11:17">
-      <c r="K63" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="64" spans="11:17">
-      <c r="K64" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="65" spans="11:17">
-      <c r="K65" t="s">
-        <v>351</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="66" spans="11:17">
-      <c r="K66" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="67" spans="11:17">
-      <c r="K67" t="s">
-        <v>353</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="68" spans="11:17">
-      <c r="K68" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q68" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="11:17">
-      <c r="K69" t="s">
-        <v>355</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="70" spans="11:17">
-      <c r="K70" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="71" spans="11:17">
-      <c r="K71" t="s">
-        <v>357</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="72" spans="11:17">
-      <c r="K72" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q72" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="73" spans="11:17">
-      <c r="K73" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q73" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="74" spans="11:17">
-      <c r="K74" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q74" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="75" spans="11:17">
-      <c r="K75" t="s">
-        <v>361</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="76" spans="11:17">
-      <c r="K76" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q76" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="77" spans="11:17">
-      <c r="K77" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q77" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="78" spans="11:17">
-      <c r="K78" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="79" spans="11:17">
-      <c r="K79" t="s">
-        <v>365</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="11:17">
-      <c r="K80" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q80" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="81" spans="11:17">
-      <c r="K81" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q81" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="82" spans="11:17">
-      <c r="K82" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q82" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="83" spans="11:17">
-      <c r="K83" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q83" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="84" spans="11:17">
-      <c r="K84" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="85" spans="11:17">
-      <c r="K85" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="86" spans="11:17">
-      <c r="K86" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="87" spans="11:17">
-      <c r="K87" t="s">
-        <v>373</v>
-      </c>
-      <c r="Q87" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="88" spans="11:17">
-      <c r="K88" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q88" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="89" spans="11:17">
-      <c r="K89" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q89" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="90" spans="11:17">
-      <c r="K90" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="91" spans="11:17">
-      <c r="K91" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="92" spans="11:17">
-      <c r="K92" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="93" spans="11:17">
-      <c r="K93" t="s">
-        <v>379</v>
-      </c>
-      <c r="Q93" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="94" spans="11:17">
-      <c r="K94" t="s">
-        <v>380</v>
-      </c>
-      <c r="Q94" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="95" spans="11:17">
-      <c r="K95" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q95" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="96" spans="11:17">
-      <c r="K96" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q96" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="97" spans="11:17">
-      <c r="K97" t="s">
-        <v>383</v>
-      </c>
-      <c r="Q97" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="98" spans="11:17">
-      <c r="K98" t="s">
-        <v>384</v>
-      </c>
-      <c r="Q98" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="99" spans="11:17">
-      <c r="K99" t="s">
-        <v>385</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="100" spans="11:17">
-      <c r="K100" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q100" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="101" spans="11:17">
-      <c r="K101" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="102" spans="11:17">
-      <c r="K102" t="s">
-        <v>388</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="103" spans="11:17">
-      <c r="K103" t="s">
-        <v>389</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="11:17">
-      <c r="K104" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="105" spans="11:17">
-      <c r="K105" t="s">
-        <v>391</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="106" spans="11:17">
-      <c r="K106" t="s">
-        <v>392</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="107" spans="11:17">
-      <c r="K107" t="s">
-        <v>393</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="108" spans="11:17">
-      <c r="K108" t="s">
-        <v>394</v>
-      </c>
-      <c r="Q108" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="109" spans="11:17">
-      <c r="K109" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q109" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="110" spans="11:17">
-      <c r="K110" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="111" spans="11:17">
-      <c r="K111" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="112" spans="11:17">
-      <c r="K112" t="s">
-        <v>398</v>
-      </c>
-      <c r="Q112" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="113" spans="11:17">
-      <c r="K113" t="s">
-        <v>399</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="114" spans="11:17">
-      <c r="K114" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="11:17">
-      <c r="K115" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="116" spans="11:17">
-      <c r="K116" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="117" spans="11:17">
-      <c r="K117" t="s">
-        <v>403</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="118" spans="11:17">
-      <c r="K118" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="119" spans="11:17">
-      <c r="K119" t="s">
-        <v>405</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="120" spans="11:17">
-      <c r="K120" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="121" spans="11:17">
-      <c r="K121" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="122" spans="11:17">
-      <c r="K122" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="123" spans="11:17">
-      <c r="K123" t="s">
-        <v>409</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="124" spans="11:17">
-      <c r="K124" t="s">
-        <v>410</v>
-      </c>
-      <c r="Q124" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="125" spans="11:17">
-      <c r="K125" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="126" spans="11:17">
-      <c r="K126" t="s">
-        <v>412</v>
-      </c>
-      <c r="Q126" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="127" spans="11:17">
-      <c r="K127" t="s">
-        <v>413</v>
-      </c>
-      <c r="Q127" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="128" spans="11:17">
-      <c r="K128" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q128" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="129" spans="11:17">
-      <c r="K129" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="130" spans="11:17">
-      <c r="K130" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q130" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="131" spans="11:17">
-      <c r="K131" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="132" spans="11:17">
-      <c r="K132" t="s">
-        <v>418</v>
-      </c>
-      <c r="Q132" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="133" spans="11:17">
-      <c r="K133" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q133" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="134" spans="11:17">
-      <c r="K134" t="s">
-        <v>420</v>
-      </c>
-      <c r="Q134" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="135" spans="11:17">
-      <c r="K135" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q135" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="136" spans="11:17">
-      <c r="K136" t="s">
-        <v>422</v>
-      </c>
-      <c r="Q136" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="137" spans="11:17">
-      <c r="K137" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q137" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="138" spans="11:17">
-      <c r="K138" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="139" spans="11:17">
-      <c r="K139" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="140" spans="11:17">
-      <c r="K140" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q140" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="141" spans="11:17">
-      <c r="K141" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q141" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="142" spans="11:17">
-      <c r="K142" t="s">
-        <v>428</v>
-      </c>
-      <c r="Q142" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="143" spans="11:17">
-      <c r="K143" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q143" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="144" spans="11:17">
-      <c r="K144" t="s">
-        <v>430</v>
-      </c>
-      <c r="Q144" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="145" spans="11:17">
-      <c r="K145" t="s">
-        <v>431</v>
-      </c>
-      <c r="Q145" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="146" spans="11:17">
-      <c r="K146" t="s">
-        <v>432</v>
-      </c>
-      <c r="Q146" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="147" spans="11:17">
-      <c r="K147" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="148" spans="11:17">
-      <c r="K148" t="s">
-        <v>434</v>
-      </c>
-      <c r="Q148" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="149" spans="11:17">
-      <c r="K149" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q149" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="150" spans="11:17">
-      <c r="K150" t="s">
-        <v>436</v>
-      </c>
-      <c r="Q150" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="151" spans="11:17">
-      <c r="K151" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q151" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="152" spans="11:17">
-      <c r="K152" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q152" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="153" spans="11:17">
-      <c r="K153" t="s">
-        <v>439</v>
-      </c>
-      <c r="Q153" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="154" spans="11:17">
-      <c r="K154" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q154" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="155" spans="11:17">
-      <c r="K155" t="s">
-        <v>441</v>
-      </c>
-      <c r="Q155" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="156" spans="11:17">
-      <c r="K156" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="157" spans="11:17">
-      <c r="K157" t="s">
-        <v>443</v>
-      </c>
-      <c r="Q157" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="158" spans="11:17">
-      <c r="K158" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q158" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="11:17">
-      <c r="K159" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q159" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="160" spans="11:17">
-      <c r="K160" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q160" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="161" spans="11:17">
-      <c r="K161" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q161" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="162" spans="11:17">
-      <c r="K162" t="s">
-        <v>448</v>
-      </c>
-      <c r="Q162" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="163" spans="11:17">
-      <c r="K163" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q163" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="164" spans="11:17">
-      <c r="K164" t="s">
-        <v>450</v>
-      </c>
-      <c r="Q164" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="165" spans="11:17">
-      <c r="K165" t="s">
-        <v>451</v>
-      </c>
-      <c r="Q165" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="166" spans="11:17">
-      <c r="K166" t="s">
-        <v>452</v>
-      </c>
-      <c r="Q166" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="167" spans="11:17">
-      <c r="K167" t="s">
-        <v>453</v>
-      </c>
-      <c r="Q167" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="168" spans="11:17">
-      <c r="K168" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q168" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="169" spans="11:17">
-      <c r="K169" t="s">
-        <v>455</v>
-      </c>
-      <c r="Q169" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="170" spans="11:17">
-      <c r="K170" t="s">
-        <v>456</v>
-      </c>
-      <c r="Q170" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="171" spans="11:17">
-      <c r="K171" t="s">
-        <v>457</v>
-      </c>
-      <c r="Q171" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="172" spans="11:17">
-      <c r="K172" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q172" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="173" spans="11:17">
-      <c r="K173" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q173" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="174" spans="11:17">
-      <c r="K174" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q174" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="175" spans="11:17">
-      <c r="K175" t="s">
-        <v>461</v>
-      </c>
-      <c r="Q175" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="176" spans="11:17">
-      <c r="K176" t="s">
-        <v>462</v>
-      </c>
-      <c r="Q176" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="177" spans="11:17">
-      <c r="K177" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q177" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="178" spans="11:17">
-      <c r="K178" t="s">
-        <v>464</v>
-      </c>
-      <c r="Q178" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="179" spans="11:17">
-      <c r="K179" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q179" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="180" spans="11:17">
-      <c r="K180" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q180" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="181" spans="11:17">
-      <c r="K181" t="s">
-        <v>467</v>
-      </c>
-      <c r="Q181" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="182" spans="11:17">
-      <c r="K182" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q182" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="183" spans="11:17">
-      <c r="K183" t="s">
-        <v>469</v>
-      </c>
-      <c r="Q183" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="184" spans="11:17">
-      <c r="K184" t="s">
-        <v>470</v>
-      </c>
-      <c r="Q184" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="185" spans="11:17">
-      <c r="K185" t="s">
-        <v>471</v>
-      </c>
-      <c r="Q185" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="186" spans="11:17">
-      <c r="K186" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q186" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="187" spans="11:17">
-      <c r="K187" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q187" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="188" spans="11:17">
-      <c r="K188" t="s">
-        <v>474</v>
-      </c>
-      <c r="Q188" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="189" spans="11:17">
-      <c r="K189" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q189" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="190" spans="11:17">
-      <c r="K190" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q190" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="191" spans="11:17">
-      <c r="K191" t="s">
-        <v>477</v>
-      </c>
-      <c r="Q191" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="192" spans="11:17">
-      <c r="K192" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q192" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="193" spans="11:17">
-      <c r="K193" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q193" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="194" spans="11:17">
-      <c r="K194" t="s">
-        <v>480</v>
-      </c>
-      <c r="Q194" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="195" spans="11:17">
-      <c r="K195" t="s">
-        <v>481</v>
-      </c>
-      <c r="Q195" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="196" spans="11:17">
-      <c r="K196" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q196" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="197" spans="11:17">
-      <c r="K197" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q197" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="198" spans="11:17">
-      <c r="K198" t="s">
-        <v>484</v>
-      </c>
-      <c r="Q198" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="199" spans="11:17">
-      <c r="K199" t="s">
-        <v>485</v>
-      </c>
-      <c r="Q199" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="200" spans="11:17">
-      <c r="K200" t="s">
-        <v>486</v>
-      </c>
-      <c r="Q200" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="201" spans="11:17">
-      <c r="K201" t="s">
-        <v>487</v>
-      </c>
-      <c r="Q201" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="202" spans="11:17">
-      <c r="K202" t="s">
-        <v>488</v>
-      </c>
-      <c r="Q202" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="203" spans="11:17">
-      <c r="K203" t="s">
-        <v>489</v>
-      </c>
-      <c r="Q203" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="204" spans="11:17">
-      <c r="K204" t="s">
-        <v>490</v>
-      </c>
-      <c r="Q204" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="205" spans="11:17">
-      <c r="K205" t="s">
-        <v>491</v>
-      </c>
-      <c r="Q205" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="206" spans="11:17">
-      <c r="K206" t="s">
-        <v>492</v>
-      </c>
-      <c r="Q206" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="207" spans="11:17">
-      <c r="K207" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q207" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="208" spans="11:17">
-      <c r="K208" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q208" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="209" spans="11:17">
-      <c r="K209" t="s">
-        <v>495</v>
-      </c>
-      <c r="Q209" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="210" spans="11:17">
-      <c r="K210" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q210" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="211" spans="11:17">
-      <c r="K211" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q211" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="212" spans="11:17">
-      <c r="K212" t="s">
-        <v>498</v>
-      </c>
-      <c r="Q212" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="213" spans="11:17">
-      <c r="K213" t="s">
-        <v>499</v>
-      </c>
-      <c r="Q213" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="214" spans="11:17">
-      <c r="K214" t="s">
-        <v>500</v>
-      </c>
-      <c r="Q214" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="215" spans="11:17">
-      <c r="K215" t="s">
-        <v>501</v>
-      </c>
-      <c r="Q215" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="216" spans="11:17">
-      <c r="K216" t="s">
-        <v>502</v>
-      </c>
-      <c r="Q216" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="217" spans="11:17">
-      <c r="K217" t="s">
-        <v>503</v>
-      </c>
-      <c r="Q217" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="218" spans="11:17">
-      <c r="K218" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q218" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="219" spans="11:17">
-      <c r="K219" t="s">
-        <v>505</v>
-      </c>
-      <c r="Q219" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="220" spans="11:17">
-      <c r="K220" t="s">
-        <v>506</v>
-      </c>
-      <c r="Q220" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="221" spans="11:17">
-      <c r="K221" t="s">
-        <v>507</v>
-      </c>
-      <c r="Q221" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="222" spans="11:17">
-      <c r="K222" t="s">
-        <v>508</v>
-      </c>
-      <c r="Q222" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="223" spans="11:17">
-      <c r="K223" t="s">
-        <v>509</v>
-      </c>
-      <c r="Q223" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="224" spans="11:17">
-      <c r="K224" t="s">
-        <v>510</v>
-      </c>
-      <c r="Q224" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="225" spans="11:17">
-      <c r="K225" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q225" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="226" spans="11:17">
-      <c r="K226" t="s">
-        <v>512</v>
-      </c>
-      <c r="Q226" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="227" spans="11:17">
-      <c r="K227" t="s">
-        <v>513</v>
-      </c>
-      <c r="Q227" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="228" spans="11:17">
-      <c r="K228" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q228" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="229" spans="11:17">
-      <c r="K229" t="s">
-        <v>515</v>
-      </c>
-      <c r="Q229" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="230" spans="11:17">
-      <c r="K230" t="s">
-        <v>516</v>
-      </c>
-      <c r="Q230" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="231" spans="11:17">
-      <c r="K231" t="s">
-        <v>517</v>
-      </c>
-      <c r="Q231" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="232" spans="11:17">
-      <c r="K232" t="s">
-        <v>518</v>
-      </c>
-      <c r="Q232" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="233" spans="11:17">
-      <c r="K233" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q233" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="234" spans="11:17">
-      <c r="K234" t="s">
-        <v>520</v>
-      </c>
-      <c r="Q234" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="235" spans="11:17">
-      <c r="K235" t="s">
-        <v>521</v>
-      </c>
-      <c r="Q235" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="236" spans="11:17">
-      <c r="K236" t="s">
-        <v>522</v>
-      </c>
-      <c r="Q236" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="237" spans="11:17">
-      <c r="K237" t="s">
-        <v>523</v>
-      </c>
-      <c r="Q237" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="238" spans="11:17">
-      <c r="K238" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q238" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="239" spans="11:17">
-      <c r="K239" t="s">
-        <v>525</v>
-      </c>
-      <c r="Q239" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="240" spans="11:17">
-      <c r="K240" t="s">
-        <v>526</v>
-      </c>
-      <c r="Q240" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="241" spans="11:17">
-      <c r="K241" t="s">
-        <v>527</v>
-      </c>
-      <c r="Q241" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="242" spans="11:17">
-      <c r="K242" t="s">
-        <v>528</v>
-      </c>
-      <c r="Q242" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="243" spans="11:17">
-      <c r="K243" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q243" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="244" spans="11:17">
-      <c r="K244" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q244" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="245" spans="11:17">
-      <c r="K245" t="s">
-        <v>531</v>
-      </c>
-      <c r="Q245" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="246" spans="11:17">
-      <c r="K246" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q246" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="247" spans="11:17">
-      <c r="K247" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q247" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="248" spans="11:17">
-      <c r="K248" t="s">
-        <v>534</v>
-      </c>
-      <c r="Q248" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="249" spans="11:17">
-      <c r="K249" t="s">
-        <v>535</v>
-      </c>
-      <c r="Q249" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="250" spans="11:17">
-      <c r="K250" t="s">
-        <v>536</v>
-      </c>
-      <c r="Q250" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="251" spans="11:17">
-      <c r="K251" t="s">
-        <v>537</v>
-      </c>
-      <c r="Q251" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="252" spans="11:17">
-      <c r="K252" t="s">
-        <v>538</v>
-      </c>
-      <c r="Q252" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="253" spans="11:17">
-      <c r="K253" t="s">
-        <v>539</v>
-      </c>
-      <c r="Q253" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="254" spans="11:17">
-      <c r="K254" t="s">
-        <v>540</v>
-      </c>
-      <c r="Q254" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="255" spans="11:17">
-      <c r="K255" t="s">
-        <v>541</v>
-      </c>
-      <c r="Q255" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="256" spans="11:17">
-      <c r="K256" t="s">
-        <v>542</v>
-      </c>
-      <c r="Q256" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="257" spans="11:17">
-      <c r="K257" t="s">
-        <v>543</v>
-      </c>
-      <c r="Q257" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="258" spans="11:17">
-      <c r="K258" t="s">
-        <v>544</v>
-      </c>
-      <c r="Q258" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="259" spans="11:17">
-      <c r="K259" t="s">
-        <v>545</v>
-      </c>
-      <c r="Q259" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="260" spans="11:17">
-      <c r="K260" t="s">
-        <v>546</v>
-      </c>
-      <c r="Q260" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="261" spans="11:17">
-      <c r="K261" t="s">
-        <v>547</v>
-      </c>
-      <c r="Q261" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="262" spans="11:17">
-      <c r="K262" t="s">
-        <v>548</v>
-      </c>
-      <c r="Q262" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="263" spans="11:17">
-      <c r="K263" t="s">
-        <v>549</v>
-      </c>
-      <c r="Q263" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="264" spans="11:17">
-      <c r="K264" t="s">
-        <v>550</v>
-      </c>
-      <c r="Q264" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="265" spans="11:17">
-      <c r="K265" t="s">
-        <v>551</v>
-      </c>
-      <c r="Q265" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="266" spans="11:17">
-      <c r="K266" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q266" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="267" spans="11:17">
-      <c r="K267" t="s">
-        <v>553</v>
-      </c>
-      <c r="Q267" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="268" spans="11:17">
-      <c r="K268" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q268" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="269" spans="11:17">
-      <c r="K269" t="s">
-        <v>555</v>
-      </c>
-      <c r="Q269" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="270" spans="11:17">
-      <c r="K270" t="s">
-        <v>556</v>
-      </c>
-      <c r="Q270" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="271" spans="11:17">
-      <c r="K271" t="s">
-        <v>557</v>
-      </c>
-      <c r="Q271" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="272" spans="11:17">
-      <c r="K272" t="s">
-        <v>558</v>
-      </c>
-      <c r="Q272" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="273" spans="11:17">
-      <c r="K273" t="s">
-        <v>559</v>
-      </c>
-      <c r="Q273" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="274" spans="11:17">
-      <c r="Q274" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="275" spans="11:17">
-      <c r="Q275" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="276" spans="11:17">
-      <c r="Q276" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="277" spans="11:17">
-      <c r="Q277" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="278" spans="11:17">
-      <c r="Q278" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="279" spans="11:17">
-      <c r="Q279" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="280" spans="11:17">
-      <c r="Q280" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="281" spans="11:17">
-      <c r="Q281" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="282" spans="11:17">
-      <c r="Q282" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="283" spans="11:17">
-      <c r="Q283" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="284" spans="11:17">
-      <c r="Q284" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="285" spans="11:17">
-      <c r="Q285" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="286" spans="11:17">
-      <c r="Q286" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="287" spans="11:17">
-      <c r="Q287" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="288" spans="11:17">
-      <c r="Q288" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="289" spans="17:17">
-      <c r="Q289" t="s">
-        <v>602</v>
+    </row>
+    <row r="286" spans="13:19">
+      <c r="S286" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="287" spans="13:19">
+      <c r="S287" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="288" spans="13:19">
+      <c r="S288" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="289" spans="19:19">
+      <c r="S289" t="s">
+        <v>606</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$L$1:$L$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$M$1:$M$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$T$1:$T$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$X$1:$X$14</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="651">
   <si>
     <t>alias</t>
   </si>
@@ -1764,7 +1764,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: week, month, year, day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1785,7 +1785,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1797,12 +1797,21 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
   </si>
   <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
     <t>North Sea</t>
   </si>
   <si>
@@ -1896,7 +1905,7 @@
     <t>host age</t>
   </si>
   <si>
-    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: years)</t>
+    <t>(Recommended) Age of host at the time of sampling; relevant scale depends on species and study, e.g. could be seconds for amoebae or centuries for trees (Units: centuries, hours, seconds, months, weeks, minutes, days, decades, years)</t>
   </si>
   <si>
     <t>diseased</t>
@@ -3579,52 +3588,52 @@
         <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3683,52 +3692,52 @@
         <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3770,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:Y289"/>
+  <dimension ref="K1:Y294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3781,13 +3790,13 @@
         <v>291</v>
       </c>
       <c r="T1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="X1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Y1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="11:25">
@@ -3804,13 +3813,13 @@
         <v>292</v>
       </c>
       <c r="T2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="X2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Y2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="11:25">
@@ -3824,13 +3833,13 @@
         <v>293</v>
       </c>
       <c r="T3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="X3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Y3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="11:25">
@@ -3841,10 +3850,10 @@
         <v>294</v>
       </c>
       <c r="X4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Y4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="11:25">
@@ -3855,10 +3864,10 @@
         <v>295</v>
       </c>
       <c r="X5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Y5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="11:25">
@@ -3869,10 +3878,10 @@
         <v>296</v>
       </c>
       <c r="X6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Y6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="11:25">
@@ -3883,10 +3892,10 @@
         <v>297</v>
       </c>
       <c r="X7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="Y7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="11:25">
@@ -3897,10 +3906,10 @@
         <v>298</v>
       </c>
       <c r="X8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="11:25">
@@ -3911,10 +3920,10 @@
         <v>299</v>
       </c>
       <c r="X9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Y9" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="11:25">
@@ -3925,10 +3934,10 @@
         <v>576</v>
       </c>
       <c r="X10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Y10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="11:25">
@@ -3939,10 +3948,10 @@
         <v>300</v>
       </c>
       <c r="X11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Y11" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="11:25">
@@ -3953,10 +3962,10 @@
         <v>301</v>
       </c>
       <c r="X12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Y12" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="11:25">
@@ -3967,10 +3976,10 @@
         <v>302</v>
       </c>
       <c r="X13" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Y13" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="11:25">
@@ -3981,10 +3990,10 @@
         <v>303</v>
       </c>
       <c r="X14" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Y14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="11:25">
@@ -3995,7 +4004,7 @@
         <v>577</v>
       </c>
       <c r="Y15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="11:25">
@@ -4017,7 +4026,7 @@
         <v>305</v>
       </c>
       <c r="Y17" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="13:25">
@@ -4457,7 +4466,7 @@
         <v>362</v>
       </c>
       <c r="S72" t="s">
-        <v>582</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="13:19">
@@ -4465,7 +4474,7 @@
         <v>363</v>
       </c>
       <c r="S73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="13:19">
@@ -4473,7 +4482,7 @@
         <v>364</v>
       </c>
       <c r="S74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="13:19">
@@ -4481,7 +4490,7 @@
         <v>365</v>
       </c>
       <c r="S75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="13:19">
@@ -4489,7 +4498,7 @@
         <v>366</v>
       </c>
       <c r="S76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="13:19">
@@ -4497,7 +4506,7 @@
         <v>367</v>
       </c>
       <c r="S77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="13:19">
@@ -4505,7 +4514,7 @@
         <v>368</v>
       </c>
       <c r="S78" t="s">
-        <v>363</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="13:19">
@@ -5049,7 +5058,7 @@
         <v>436</v>
       </c>
       <c r="S146" t="s">
-        <v>433</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="13:19">
@@ -5057,7 +5066,7 @@
         <v>437</v>
       </c>
       <c r="S147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="13:19">
@@ -5065,7 +5074,7 @@
         <v>438</v>
       </c>
       <c r="S148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="13:19">
@@ -5073,7 +5082,7 @@
         <v>439</v>
       </c>
       <c r="S149" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="13:19">
@@ -5169,7 +5178,7 @@
         <v>451</v>
       </c>
       <c r="S161" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="13:19">
@@ -5185,7 +5194,7 @@
         <v>453</v>
       </c>
       <c r="S163" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="13:19">
@@ -5257,7 +5266,7 @@
         <v>462</v>
       </c>
       <c r="S172" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="13:19">
@@ -5369,7 +5378,7 @@
         <v>476</v>
       </c>
       <c r="S186" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="13:19">
@@ -5377,7 +5386,7 @@
         <v>477</v>
       </c>
       <c r="S187" t="s">
-        <v>472</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="13:19">
@@ -5385,7 +5394,7 @@
         <v>478</v>
       </c>
       <c r="S188" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="13:19">
@@ -5393,7 +5402,7 @@
         <v>479</v>
       </c>
       <c r="S189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="13:19">
@@ -5401,7 +5410,7 @@
         <v>480</v>
       </c>
       <c r="S190" t="s">
-        <v>589</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="13:19">
@@ -5409,7 +5418,7 @@
         <v>481</v>
       </c>
       <c r="S191" t="s">
-        <v>475</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="13:19">
@@ -5417,7 +5426,7 @@
         <v>482</v>
       </c>
       <c r="S192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="13:19">
@@ -5425,7 +5434,7 @@
         <v>483</v>
       </c>
       <c r="S193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="13:19">
@@ -5433,7 +5442,7 @@
         <v>484</v>
       </c>
       <c r="S194" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="13:19">
@@ -5441,7 +5450,7 @@
         <v>485</v>
       </c>
       <c r="S195" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="13:19">
@@ -5449,7 +5458,7 @@
         <v>486</v>
       </c>
       <c r="S196" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="13:19">
@@ -5457,7 +5466,7 @@
         <v>487</v>
       </c>
       <c r="S197" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="13:19">
@@ -5465,7 +5474,7 @@
         <v>488</v>
       </c>
       <c r="S198" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="13:19">
@@ -5473,7 +5482,7 @@
         <v>489</v>
       </c>
       <c r="S199" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="13:19">
@@ -5481,7 +5490,7 @@
         <v>490</v>
       </c>
       <c r="S200" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="13:19">
@@ -5489,7 +5498,7 @@
         <v>491</v>
       </c>
       <c r="S201" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="13:19">
@@ -5497,7 +5506,7 @@
         <v>492</v>
       </c>
       <c r="S202" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="13:19">
@@ -5505,7 +5514,7 @@
         <v>493</v>
       </c>
       <c r="S203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="13:19">
@@ -5513,7 +5522,7 @@
         <v>494</v>
       </c>
       <c r="S204" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="13:19">
@@ -5521,7 +5530,7 @@
         <v>495</v>
       </c>
       <c r="S205" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="13:19">
@@ -5529,7 +5538,7 @@
         <v>496</v>
       </c>
       <c r="S206" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="13:19">
@@ -5537,7 +5546,7 @@
         <v>497</v>
       </c>
       <c r="S207" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="13:19">
@@ -5545,7 +5554,7 @@
         <v>498</v>
       </c>
       <c r="S208" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="13:19">
@@ -5553,7 +5562,7 @@
         <v>499</v>
       </c>
       <c r="S209" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="13:19">
@@ -5561,7 +5570,7 @@
         <v>500</v>
       </c>
       <c r="S210" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="13:19">
@@ -5569,7 +5578,7 @@
         <v>501</v>
       </c>
       <c r="S211" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="13:19">
@@ -5577,7 +5586,7 @@
         <v>502</v>
       </c>
       <c r="S212" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="13:19">
@@ -5585,7 +5594,7 @@
         <v>503</v>
       </c>
       <c r="S213" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="13:19">
@@ -5593,7 +5602,7 @@
         <v>504</v>
       </c>
       <c r="S214" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="13:19">
@@ -5601,7 +5610,7 @@
         <v>505</v>
       </c>
       <c r="S215" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="13:19">
@@ -5609,7 +5618,7 @@
         <v>506</v>
       </c>
       <c r="S216" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="13:19">
@@ -5617,7 +5626,7 @@
         <v>507</v>
       </c>
       <c r="S217" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="13:19">
@@ -5625,7 +5634,7 @@
         <v>508</v>
       </c>
       <c r="S218" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="13:19">
@@ -5633,7 +5642,7 @@
         <v>509</v>
       </c>
       <c r="S219" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="13:19">
@@ -5641,7 +5650,7 @@
         <v>510</v>
       </c>
       <c r="S220" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="13:19">
@@ -5649,7 +5658,7 @@
         <v>511</v>
       </c>
       <c r="S221" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="13:19">
@@ -5657,7 +5666,7 @@
         <v>512</v>
       </c>
       <c r="S222" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="13:19">
@@ -5665,7 +5674,7 @@
         <v>513</v>
       </c>
       <c r="S223" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="13:19">
@@ -5673,7 +5682,7 @@
         <v>514</v>
       </c>
       <c r="S224" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="13:19">
@@ -5681,7 +5690,7 @@
         <v>515</v>
       </c>
       <c r="S225" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="13:19">
@@ -5689,7 +5698,7 @@
         <v>516</v>
       </c>
       <c r="S226" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="13:19">
@@ -5697,7 +5706,7 @@
         <v>517</v>
       </c>
       <c r="S227" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="13:19">
@@ -5705,7 +5714,7 @@
         <v>518</v>
       </c>
       <c r="S228" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="13:19">
@@ -5713,7 +5722,7 @@
         <v>519</v>
       </c>
       <c r="S229" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="13:19">
@@ -5721,7 +5730,7 @@
         <v>520</v>
       </c>
       <c r="S230" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="13:19">
@@ -5729,7 +5738,7 @@
         <v>521</v>
       </c>
       <c r="S231" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="13:19">
@@ -5737,7 +5746,7 @@
         <v>522</v>
       </c>
       <c r="S232" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="13:19">
@@ -5745,7 +5754,7 @@
         <v>523</v>
       </c>
       <c r="S233" t="s">
-        <v>592</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="13:19">
@@ -5753,7 +5762,7 @@
         <v>524</v>
       </c>
       <c r="S234" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="13:19">
@@ -5761,7 +5770,7 @@
         <v>525</v>
       </c>
       <c r="S235" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="13:19">
@@ -5769,7 +5778,7 @@
         <v>526</v>
       </c>
       <c r="S236" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="13:19">
@@ -5777,7 +5786,7 @@
         <v>527</v>
       </c>
       <c r="S237" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238" spans="13:19">
@@ -5785,7 +5794,7 @@
         <v>528</v>
       </c>
       <c r="S238" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="13:19">
@@ -5793,7 +5802,7 @@
         <v>529</v>
       </c>
       <c r="S239" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="13:19">
@@ -5801,7 +5810,7 @@
         <v>530</v>
       </c>
       <c r="S240" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="13:19">
@@ -5809,7 +5818,7 @@
         <v>531</v>
       </c>
       <c r="S241" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="13:19">
@@ -5817,7 +5826,7 @@
         <v>532</v>
       </c>
       <c r="S242" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="13:19">
@@ -5825,7 +5834,7 @@
         <v>533</v>
       </c>
       <c r="S243" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="13:19">
@@ -5833,7 +5842,7 @@
         <v>534</v>
       </c>
       <c r="S244" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="13:19">
@@ -5841,7 +5850,7 @@
         <v>535</v>
       </c>
       <c r="S245" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="13:19">
@@ -5849,7 +5858,7 @@
         <v>536</v>
       </c>
       <c r="S246" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="13:19">
@@ -5857,7 +5866,7 @@
         <v>537</v>
       </c>
       <c r="S247" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="13:19">
@@ -5865,7 +5874,7 @@
         <v>538</v>
       </c>
       <c r="S248" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="13:19">
@@ -5873,7 +5882,7 @@
         <v>539</v>
       </c>
       <c r="S249" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="13:19">
@@ -5881,7 +5890,7 @@
         <v>540</v>
       </c>
       <c r="S250" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="13:19">
@@ -5889,7 +5898,7 @@
         <v>541</v>
       </c>
       <c r="S251" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="252" spans="13:19">
@@ -5897,7 +5906,7 @@
         <v>542</v>
       </c>
       <c r="S252" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="13:19">
@@ -5905,7 +5914,7 @@
         <v>543</v>
       </c>
       <c r="S253" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="13:19">
@@ -5913,7 +5922,7 @@
         <v>544</v>
       </c>
       <c r="S254" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="13:19">
@@ -5921,7 +5930,7 @@
         <v>545</v>
       </c>
       <c r="S255" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="13:19">
@@ -5929,7 +5938,7 @@
         <v>546</v>
       </c>
       <c r="S256" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="13:19">
@@ -5937,7 +5946,7 @@
         <v>547</v>
       </c>
       <c r="S257" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="13:19">
@@ -5945,7 +5954,7 @@
         <v>548</v>
       </c>
       <c r="S258" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="13:19">
@@ -5953,7 +5962,7 @@
         <v>549</v>
       </c>
       <c r="S259" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="13:19">
@@ -5961,7 +5970,7 @@
         <v>550</v>
       </c>
       <c r="S260" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261" spans="13:19">
@@ -5969,7 +5978,7 @@
         <v>551</v>
       </c>
       <c r="S261" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="13:19">
@@ -5977,7 +5986,7 @@
         <v>552</v>
       </c>
       <c r="S262" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="13:19">
@@ -5985,7 +5994,7 @@
         <v>553</v>
       </c>
       <c r="S263" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="13:19">
@@ -5993,7 +6002,7 @@
         <v>554</v>
       </c>
       <c r="S264" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="13:19">
@@ -6001,7 +6010,7 @@
         <v>555</v>
       </c>
       <c r="S265" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="13:19">
@@ -6009,7 +6018,7 @@
         <v>556</v>
       </c>
       <c r="S266" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="13:19">
@@ -6017,7 +6026,7 @@
         <v>557</v>
       </c>
       <c r="S267" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="13:19">
@@ -6025,7 +6034,7 @@
         <v>558</v>
       </c>
       <c r="S268" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="13:19">
@@ -6033,7 +6042,7 @@
         <v>559</v>
       </c>
       <c r="S269" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="13:19">
@@ -6041,7 +6050,7 @@
         <v>560</v>
       </c>
       <c r="S270" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="13:19">
@@ -6049,7 +6058,7 @@
         <v>561</v>
       </c>
       <c r="S271" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="13:19">
@@ -6057,7 +6066,7 @@
         <v>562</v>
       </c>
       <c r="S272" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="13:19">
@@ -6065,87 +6074,112 @@
         <v>563</v>
       </c>
       <c r="S273" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="13:19">
       <c r="S274" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="13:19">
       <c r="S275" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="276" spans="13:19">
       <c r="S276" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="13:19">
       <c r="S277" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="13:19">
       <c r="S278" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="13:19">
       <c r="S279" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="13:19">
       <c r="S280" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="13:19">
       <c r="S281" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="13:19">
       <c r="S282" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="283" spans="13:19">
       <c r="S283" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="284" spans="13:19">
       <c r="S284" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="285" spans="13:19">
       <c r="S285" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="286" spans="13:19">
       <c r="S286" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="13:19">
       <c r="S287" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="288" spans="13:19">
       <c r="S288" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/templates/ERC000039/metadata_template_ERC000039.xlsx
+++ b/templates/ERC000039/metadata_template_ERC000039.xlsx
@@ -20,7 +20,7 @@
     <definedName name="clinicalsetting">'cv_sample'!$L$1:$L$2</definedName>
     <definedName name="countryoftravel">'cv_sample'!$M$1:$M$273</definedName>
     <definedName name="fileformat">'cv_run'!$D$1:$D$24</definedName>
-    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$289</definedName>
+    <definedName name="geographiclocationcountryandorsea">'cv_sample'!$S$1:$S$294</definedName>
     <definedName name="hostdiseaseoutcome">'cv_sample'!$T$1:$T$3</definedName>
     <definedName name="hosthealthstate">'cv_sample'!$X$1:$X$14</definedName>
     <definedName name="hostsex">'cv_sample'!$Y$1:$Y$17</definedName>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="651">
   <si>
     <t>alias</t>
   </si>
@@ -1764,7 +1764,7 @@
     <t>subject exposure duration</t>
   </si>
   <si>
-    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: year)</t>
+    <t>(Optional) Duration of the exposure of the subject to an infected human or animal. if multiple exposures are applicable, please state their duration in the same order in which you reported the exposure in the field 'subject exposure'. example: 1 day; 0.33 days (Units: day)</t>
   </si>
   <si>
     <t>Arctic Ocean</t>
@@ -1785,7 +1785,7 @@
     <t>Czechia</t>
   </si>
   <si>
-    <t>East Timor</t>
+    <t>Eswatini</t>
   </si>
   <si>
     <t>Falkland Islands (Islas Malvinas)</t>
@@ -1797,10 +1797,19 @@
     <t>Kerguelen Archipelago</t>
   </si>
   <si>
+    <t>Line Islands</t>
+  </si>
+  <si>
     <t>Mediterranean Sea</t>
   </si>
   <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
     <t>Myanmar</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
   </si>
   <si>
     <t>North Sea</t>
@@ -3579,52 +3588,52 @@
         <v>574</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="2" spans="1:34" ht="150" customHeight="1">
@@ -3683,52 +3692,52 @@
         <v>575</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3770,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="K1:Y289"/>
+  <dimension ref="K1:Y294"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3781,13 +3790,13 @@
         <v>291</v>
       </c>
       <c r="T1" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="X1" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="Y1" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="2" spans="11:25">
@@ -3804,13 +3813,13 @@
         <v>292</v>
       </c>
       <c r="T2" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="X2" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Y2" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="3" spans="11:25">
@@ -3824,13 +3833,13 @@
         <v>293</v>
       </c>
       <c r="T3" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="X3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="Y3" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="4" spans="11:25">
@@ -3841,10 +3850,10 @@
         <v>294</v>
       </c>
       <c r="X4" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="Y4" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="11:25">
@@ -3855,10 +3864,10 @@
         <v>295</v>
       </c>
       <c r="X5" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="Y5" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="11:25">
@@ -3869,10 +3878,10 @@
         <v>296</v>
       </c>
       <c r="X6" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="Y6" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="7" spans="11:25">
@@ -3883,10 +3892,10 @@
         <v>297</v>
       </c>
       <c r="X7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="Y7" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="11:25">
@@ -3897,10 +3906,10 @@
         <v>298</v>
       </c>
       <c r="X8" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="Y8" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9" spans="11:25">
@@ -3911,10 +3920,10 @@
         <v>299</v>
       </c>
       <c r="X9" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="Y9" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="10" spans="11:25">
@@ -3925,10 +3934,10 @@
         <v>576</v>
       </c>
       <c r="X10" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="Y10" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11" spans="11:25">
@@ -3939,10 +3948,10 @@
         <v>300</v>
       </c>
       <c r="X11" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="Y11" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="11:25">
@@ -3953,10 +3962,10 @@
         <v>301</v>
       </c>
       <c r="X12" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="Y12" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13" spans="11:25">
@@ -3967,10 +3976,10 @@
         <v>302</v>
       </c>
       <c r="X13" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="Y13" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="14" spans="11:25">
@@ -3981,10 +3990,10 @@
         <v>303</v>
       </c>
       <c r="X14" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="Y14" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="11:25">
@@ -3995,7 +4004,7 @@
         <v>577</v>
       </c>
       <c r="Y15" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="11:25">
@@ -4017,7 +4026,7 @@
         <v>305</v>
       </c>
       <c r="Y17" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="13:25">
@@ -4457,7 +4466,7 @@
         <v>362</v>
       </c>
       <c r="S72" t="s">
-        <v>582</v>
+        <v>358</v>
       </c>
     </row>
     <row r="73" spans="13:19">
@@ -4465,7 +4474,7 @@
         <v>363</v>
       </c>
       <c r="S73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="74" spans="13:19">
@@ -4473,7 +4482,7 @@
         <v>364</v>
       </c>
       <c r="S74" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="13:19">
@@ -4481,7 +4490,7 @@
         <v>365</v>
       </c>
       <c r="S75" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="76" spans="13:19">
@@ -4489,7 +4498,7 @@
         <v>366</v>
       </c>
       <c r="S76" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="77" spans="13:19">
@@ -4497,7 +4506,7 @@
         <v>367</v>
       </c>
       <c r="S77" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="78" spans="13:19">
@@ -4505,7 +4514,7 @@
         <v>368</v>
       </c>
       <c r="S78" t="s">
-        <v>363</v>
+        <v>582</v>
       </c>
     </row>
     <row r="79" spans="13:19">
@@ -5049,7 +5058,7 @@
         <v>436</v>
       </c>
       <c r="S146" t="s">
-        <v>433</v>
+        <v>586</v>
       </c>
     </row>
     <row r="147" spans="13:19">
@@ -5057,7 +5066,7 @@
         <v>437</v>
       </c>
       <c r="S147" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="148" spans="13:19">
@@ -5065,7 +5074,7 @@
         <v>438</v>
       </c>
       <c r="S148" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="149" spans="13:19">
@@ -5073,7 +5082,7 @@
         <v>439</v>
       </c>
       <c r="S149" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="150" spans="13:19">
@@ -5169,7 +5178,7 @@
         <v>451</v>
       </c>
       <c r="S161" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="162" spans="13:19">
@@ -5185,7 +5194,7 @@
         <v>453</v>
       </c>
       <c r="S163" t="s">
-        <v>449</v>
+        <v>588</v>
       </c>
     </row>
     <row r="164" spans="13:19">
@@ -5257,7 +5266,7 @@
         <v>462</v>
       </c>
       <c r="S172" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
     </row>
     <row r="173" spans="13:19">
@@ -5369,7 +5378,7 @@
         <v>476</v>
       </c>
       <c r="S186" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="187" spans="13:19">
@@ -5377,7 +5386,7 @@
         <v>477</v>
       </c>
       <c r="S187" t="s">
-        <v>472</v>
+        <v>591</v>
       </c>
     </row>
     <row r="188" spans="13:19">
@@ -5385,7 +5394,7 @@
         <v>478</v>
       </c>
       <c r="S188" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" spans="13:19">
@@ -5393,7 +5402,7 @@
         <v>479</v>
       </c>
       <c r="S189" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="190" spans="13:19">
@@ -5401,7 +5410,7 @@
         <v>480</v>
       </c>
       <c r="S190" t="s">
-        <v>589</v>
+        <v>474</v>
       </c>
     </row>
     <row r="191" spans="13:19">
@@ -5409,7 +5418,7 @@
         <v>481</v>
       </c>
       <c r="S191" t="s">
-        <v>475</v>
+        <v>592</v>
       </c>
     </row>
     <row r="192" spans="13:19">
@@ -5417,7 +5426,7 @@
         <v>482</v>
       </c>
       <c r="S192" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="193" spans="13:19">
@@ -5425,7 +5434,7 @@
         <v>483</v>
       </c>
       <c r="S193" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="194" spans="13:19">
@@ -5433,7 +5442,7 @@
         <v>484</v>
       </c>
       <c r="S194" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="195" spans="13:19">
@@ -5441,7 +5450,7 @@
         <v>485</v>
       </c>
       <c r="S195" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="196" spans="13:19">
@@ -5449,7 +5458,7 @@
         <v>486</v>
       </c>
       <c r="S196" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="197" spans="13:19">
@@ -5457,7 +5466,7 @@
         <v>487</v>
       </c>
       <c r="S197" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="13:19">
@@ -5465,7 +5474,7 @@
         <v>488</v>
       </c>
       <c r="S198" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="199" spans="13:19">
@@ -5473,7 +5482,7 @@
         <v>489</v>
       </c>
       <c r="S199" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="200" spans="13:19">
@@ -5481,7 +5490,7 @@
         <v>490</v>
       </c>
       <c r="S200" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="13:19">
@@ -5489,7 +5498,7 @@
         <v>491</v>
       </c>
       <c r="S201" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="202" spans="13:19">
@@ -5497,7 +5506,7 @@
         <v>492</v>
       </c>
       <c r="S202" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="203" spans="13:19">
@@ -5505,7 +5514,7 @@
         <v>493</v>
       </c>
       <c r="S203" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="204" spans="13:19">
@@ -5513,7 +5522,7 @@
         <v>494</v>
       </c>
       <c r="S204" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="205" spans="13:19">
@@ -5521,7 +5530,7 @@
         <v>495</v>
       </c>
       <c r="S205" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="206" spans="13:19">
@@ -5529,7 +5538,7 @@
         <v>496</v>
       </c>
       <c r="S206" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="207" spans="13:19">
@@ -5537,7 +5546,7 @@
         <v>497</v>
       </c>
       <c r="S207" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="208" spans="13:19">
@@ -5545,7 +5554,7 @@
         <v>498</v>
       </c>
       <c r="S208" t="s">
-        <v>590</v>
+        <v>491</v>
       </c>
     </row>
     <row r="209" spans="13:19">
@@ -5553,7 +5562,7 @@
         <v>499</v>
       </c>
       <c r="S209" t="s">
-        <v>492</v>
+        <v>593</v>
       </c>
     </row>
     <row r="210" spans="13:19">
@@ -5561,7 +5570,7 @@
         <v>500</v>
       </c>
       <c r="S210" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="211" spans="13:19">
@@ -5569,7 +5578,7 @@
         <v>501</v>
       </c>
       <c r="S211" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="212" spans="13:19">
@@ -5577,7 +5586,7 @@
         <v>502</v>
       </c>
       <c r="S212" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="213" spans="13:19">
@@ -5585,7 +5594,7 @@
         <v>503</v>
       </c>
       <c r="S213" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="214" spans="13:19">
@@ -5593,7 +5602,7 @@
         <v>504</v>
       </c>
       <c r="S214" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="215" spans="13:19">
@@ -5601,7 +5610,7 @@
         <v>505</v>
       </c>
       <c r="S215" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="216" spans="13:19">
@@ -5609,7 +5618,7 @@
         <v>506</v>
       </c>
       <c r="S216" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="217" spans="13:19">
@@ -5617,7 +5626,7 @@
         <v>507</v>
       </c>
       <c r="S217" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="218" spans="13:19">
@@ -5625,7 +5634,7 @@
         <v>508</v>
       </c>
       <c r="S218" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="219" spans="13:19">
@@ -5633,7 +5642,7 @@
         <v>509</v>
       </c>
       <c r="S219" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="220" spans="13:19">
@@ -5641,7 +5650,7 @@
         <v>510</v>
       </c>
       <c r="S220" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="221" spans="13:19">
@@ -5649,7 +5658,7 @@
         <v>511</v>
       </c>
       <c r="S221" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="222" spans="13:19">
@@ -5657,7 +5666,7 @@
         <v>512</v>
       </c>
       <c r="S222" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="223" spans="13:19">
@@ -5665,7 +5674,7 @@
         <v>513</v>
       </c>
       <c r="S223" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="224" spans="13:19">
@@ -5673,7 +5682,7 @@
         <v>514</v>
       </c>
       <c r="S224" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="225" spans="13:19">
@@ -5681,7 +5690,7 @@
         <v>515</v>
       </c>
       <c r="S225" t="s">
-        <v>591</v>
+        <v>508</v>
       </c>
     </row>
     <row r="226" spans="13:19">
@@ -5689,7 +5698,7 @@
         <v>516</v>
       </c>
       <c r="S226" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="227" spans="13:19">
@@ -5697,7 +5706,7 @@
         <v>517</v>
       </c>
       <c r="S227" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="228" spans="13:19">
@@ -5705,7 +5714,7 @@
         <v>518</v>
       </c>
       <c r="S228" t="s">
-        <v>513</v>
+        <v>594</v>
       </c>
     </row>
     <row r="229" spans="13:19">
@@ -5713,7 +5722,7 @@
         <v>519</v>
       </c>
       <c r="S229" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="230" spans="13:19">
@@ -5721,7 +5730,7 @@
         <v>520</v>
       </c>
       <c r="S230" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="231" spans="13:19">
@@ -5729,7 +5738,7 @@
         <v>521</v>
       </c>
       <c r="S231" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="232" spans="13:19">
@@ -5737,7 +5746,7 @@
         <v>522</v>
       </c>
       <c r="S232" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="233" spans="13:19">
@@ -5745,7 +5754,7 @@
         <v>523</v>
       </c>
       <c r="S233" t="s">
-        <v>592</v>
+        <v>515</v>
       </c>
     </row>
     <row r="234" spans="13:19">
@@ -5753,7 +5762,7 @@
         <v>524</v>
       </c>
       <c r="S234" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="13:19">
@@ -5761,7 +5770,7 @@
         <v>525</v>
       </c>
       <c r="S235" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="13:19">
@@ -5769,7 +5778,7 @@
         <v>526</v>
       </c>
       <c r="S236" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="13:19">
@@ -5777,7 +5786,7 @@
         <v>527</v>
       </c>
       <c r="S237" t="s">
-        <v>523</v>
+        <v>595</v>
       </c>
     </row>
     <row r="238" spans="13:19">
@@ -5785,7 +5794,7 @@
         <v>528</v>
       </c>
       <c r="S238" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="239" spans="13:19">
@@ -5793,7 +5802,7 @@
         <v>529</v>
       </c>
       <c r="S239" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="240" spans="13:19">
@@ -5801,7 +5810,7 @@
         <v>530</v>
       </c>
       <c r="S240" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="241" spans="13:19">
@@ -5809,7 +5818,7 @@
         <v>531</v>
       </c>
       <c r="S241" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="242" spans="13:19">
@@ -5817,7 +5826,7 @@
         <v>532</v>
       </c>
       <c r="S242" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="243" spans="13:19">
@@ -5825,7 +5834,7 @@
         <v>533</v>
       </c>
       <c r="S243" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="244" spans="13:19">
@@ -5833,7 +5842,7 @@
         <v>534</v>
       </c>
       <c r="S244" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="245" spans="13:19">
@@ -5841,7 +5850,7 @@
         <v>535</v>
       </c>
       <c r="S245" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="246" spans="13:19">
@@ -5849,7 +5858,7 @@
         <v>536</v>
       </c>
       <c r="S246" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="247" spans="13:19">
@@ -5857,7 +5866,7 @@
         <v>537</v>
       </c>
       <c r="S247" t="s">
-        <v>593</v>
+        <v>529</v>
       </c>
     </row>
     <row r="248" spans="13:19">
@@ -5865,7 +5874,7 @@
         <v>538</v>
       </c>
       <c r="S248" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="13:19">
@@ -5873,7 +5882,7 @@
         <v>539</v>
       </c>
       <c r="S249" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="250" spans="13:19">
@@ -5881,7 +5890,7 @@
         <v>540</v>
       </c>
       <c r="S250" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="251" spans="13:19">
@@ -5889,7 +5898,7 @@
         <v>541</v>
       </c>
       <c r="S251" t="s">
-        <v>537</v>
+        <v>596</v>
       </c>
     </row>
     <row r="252" spans="13:19">
@@ -5897,7 +5906,7 @@
         <v>542</v>
       </c>
       <c r="S252" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="253" spans="13:19">
@@ -5905,7 +5914,7 @@
         <v>543</v>
       </c>
       <c r="S253" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="254" spans="13:19">
@@ -5913,7 +5922,7 @@
         <v>544</v>
       </c>
       <c r="S254" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="255" spans="13:19">
@@ -5921,7 +5930,7 @@
         <v>545</v>
       </c>
       <c r="S255" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="13:19">
@@ -5929,7 +5938,7 @@
         <v>546</v>
       </c>
       <c r="S256" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="13:19">
@@ -5937,7 +5946,7 @@
         <v>547</v>
       </c>
       <c r="S257" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="13:19">
@@ -5945,7 +5954,7 @@
         <v>548</v>
       </c>
       <c r="S258" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="259" spans="13:19">
@@ -5953,7 +5962,7 @@
         <v>549</v>
       </c>
       <c r="S259" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="260" spans="13:19">
@@ -5961,7 +5970,7 @@
         <v>550</v>
       </c>
       <c r="S260" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
     </row>
     <row r="261" spans="13:19">
@@ -5969,7 +5978,7 @@
         <v>551</v>
       </c>
       <c r="S261" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="13:19">
@@ -5977,7 +5986,7 @@
         <v>552</v>
       </c>
       <c r="S262" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
     </row>
     <row r="263" spans="13:19">
@@ -5985,7 +5994,7 @@
         <v>553</v>
       </c>
       <c r="S263" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="264" spans="13:19">
@@ -5993,7 +6002,7 @@
         <v>554</v>
       </c>
       <c r="S264" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
     </row>
     <row r="265" spans="13:19">
@@ -6001,7 +6010,7 @@
         <v>555</v>
       </c>
       <c r="S265" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="266" spans="13:19">
@@ -6009,7 +6018,7 @@
         <v>556</v>
       </c>
       <c r="S266" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="267" spans="13:19">
@@ -6017,7 +6026,7 @@
         <v>557</v>
       </c>
       <c r="S267" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="268" spans="13:19">
@@ -6025,7 +6034,7 @@
         <v>558</v>
       </c>
       <c r="S268" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="269" spans="13:19">
@@ -6033,7 +6042,7 @@
         <v>559</v>
       </c>
       <c r="S269" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="270" spans="13:19">
@@ -6041,7 +6050,7 @@
         <v>560</v>
       </c>
       <c r="S270" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="271" spans="13:19">
@@ -6049,7 +6058,7 @@
         <v>561</v>
       </c>
       <c r="S271" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="272" spans="13:19">
@@ -6057,7 +6066,7 @@
         <v>562</v>
       </c>
       <c r="S272" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="273" spans="13:19">
@@ -6065,87 +6074,112 @@
         <v>563</v>
       </c>
       <c r="S273" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="274" spans="13:19">
       <c r="S274" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
     </row>
     <row r="275" spans="13:19">
       <c r="S275" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
     </row>
     <row r="276" spans="13:19">
       <c r="S276" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="277" spans="13:19">
       <c r="S277" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
     </row>
     <row r="278" spans="13:19">
       <c r="S278" t="s">
-        <v>595</v>
+        <v>560</v>
       </c>
     </row>
     <row r="279" spans="13:19">
       <c r="S279" t="s">
-        <v>596</v>
+        <v>561</v>
       </c>
     </row>
     <row r="280" spans="13:19">
       <c r="S280" t="s">
-        <v>597</v>
+        <v>562</v>
       </c>
     </row>
     <row r="281" spans="13:19">
       <c r="S281" t="s">
-        <v>598</v>
+        <v>563</v>
       </c>
     </row>
     <row r="282" spans="13:19">
       <c r="S282" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="283" spans="13:19">
       <c r="S283" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="284" spans="13:19">
       <c r="S284" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="285" spans="13:19">
       <c r="S285" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="286" spans="13:19">
       <c r="S286" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="287" spans="13:19">
       <c r="S287" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="288" spans="13:19">
       <c r="S288" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="289" spans="19:19">
       <c r="S289" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="290" spans="19:19">
+      <c r="S290" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="291" spans="19:19">
+      <c r="S291" t="s">
         <v>606</v>
+      </c>
+    </row>
+    <row r="292" spans="19:19">
+      <c r="S292" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="293" spans="19:19">
+      <c r="S293" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="294" spans="19:19">
+      <c r="S294" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
